--- a/ML Results/Model9b_Results.xlsx
+++ b/ML Results/Model9b_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bever\Documents\Papers\Journal Papers\2023 Geosciences Special Issue (ML in Engineering Geology)\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bever\Dropbox\Beverly - Files\Geosciences 2023 - ML Special Issue\ML Models Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E84C09-A551-4477-816F-D972843E831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9943634E-B5EB-4043-95DA-3B7A9EE27806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,10 +567,10 @@
         <v>0.66014504851999922</v>
       </c>
       <c r="E2">
-        <v>0.84111312075512967</v>
+        <v>0.82542650708557397</v>
       </c>
       <c r="F2">
-        <v>0.17690521344905169</v>
+        <v>0.1980191335493712</v>
       </c>
       <c r="G2">
         <v>0.70909090909090911</v>
@@ -579,10 +579,10 @@
         <v>0.40886156335322071</v>
       </c>
       <c r="I2">
-        <v>0.75405636208368909</v>
+        <v>0.35317782298242423</v>
       </c>
       <c r="J2">
-        <v>0.22883102141894221</v>
+        <v>0.93501077454124848</v>
       </c>
       <c r="K2">
         <v>550</v>
@@ -594,10 +594,10 @@
         <v>0.60944953907292088</v>
       </c>
       <c r="N2">
-        <v>0.89661391154436898</v>
+        <v>0.52587818782961715</v>
       </c>
       <c r="O2">
-        <v>0.14270121360253521</v>
+        <v>0.48662949996277549</v>
       </c>
       <c r="P2">
         <v>0.68181818181818177</v>
@@ -606,10 +606,10 @@
         <v>0.33929032936651038</v>
       </c>
       <c r="R2">
-        <v>0.5602049530315969</v>
+        <v>0.50653849648144011</v>
       </c>
       <c r="S2">
-        <v>0.30600059417648789</v>
+        <v>0.35725742786000758</v>
       </c>
       <c r="T2">
         <v>550</v>
@@ -621,10 +621,10 @@
         <v>0.60679750752766837</v>
       </c>
       <c r="W2">
-        <v>0.82357440932069226</v>
+        <v>0.50439031170617044</v>
       </c>
       <c r="X2">
-        <v>0.1864135188230725</v>
+        <v>0.49804737116339171</v>
       </c>
       <c r="Y2">
         <v>0.66363636363636369</v>
@@ -633,10 +633,10 @@
         <v>0.2450324922428429</v>
       </c>
       <c r="AA2">
-        <v>0.70239111870196425</v>
+        <v>0.65077095584370748</v>
       </c>
       <c r="AB2">
-        <v>0.25172134665863433</v>
+        <v>0.29823016813952619</v>
       </c>
       <c r="AC2">
         <v>550</v>
@@ -648,10 +648,10 @@
         <v>0.60886877079738755</v>
       </c>
       <c r="AF2">
-        <v>0.84203621083062641</v>
+        <v>0.51990357623935801</v>
       </c>
       <c r="AG2">
-        <v>0.17639057901043459</v>
+        <v>0.4954710429753244</v>
       </c>
       <c r="AH2">
         <v>0.67272727272727273</v>
@@ -660,10 +660,10 @@
         <v>0.34213696847032132</v>
       </c>
       <c r="AJ2">
-        <v>0.63962425277540558</v>
+        <v>0.6449118893735919</v>
       </c>
       <c r="AK2">
-        <v>0.27699688216164592</v>
+        <v>0.27366704686110499</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -680,10 +680,10 @@
         <v>0.67570536572148288</v>
       </c>
       <c r="E3">
-        <v>0.86594122831305886</v>
+        <v>0.52729338648558155</v>
       </c>
       <c r="F3">
-        <v>0.16323551492654201</v>
+        <v>0.4744875535110657</v>
       </c>
       <c r="G3">
         <v>0.70833333333333337</v>
@@ -692,10 +692,10 @@
         <v>0.32263372698155313</v>
       </c>
       <c r="I3">
-        <v>0.720934327131874</v>
+        <v>0.63492123022537994</v>
       </c>
       <c r="J3">
-        <v>0.22985502677412409</v>
+        <v>0.29242921269727401</v>
       </c>
       <c r="K3">
         <v>600</v>
@@ -707,10 +707,10 @@
         <v>0.7056937958211702</v>
       </c>
       <c r="N3">
-        <v>0.88302612259372459</v>
+        <v>0.53437662261491248</v>
       </c>
       <c r="O3">
-        <v>0.15247950681976899</v>
+        <v>0.47062531554187559</v>
       </c>
       <c r="P3">
         <v>0.68333333333333335</v>
@@ -719,10 +719,10 @@
         <v>0.33183113062158498</v>
       </c>
       <c r="R3">
-        <v>0.64566582545924067</v>
+        <v>0.58019350889507626</v>
       </c>
       <c r="S3">
-        <v>0.25900450446533418</v>
+        <v>0.31523702710581958</v>
       </c>
       <c r="T3">
         <v>600</v>
@@ -734,10 +734,10 @@
         <v>0.72533357086445283</v>
       </c>
       <c r="W3">
-        <v>0.90472289017714658</v>
+        <v>0.55480031513821881</v>
       </c>
       <c r="X3">
-        <v>0.13761358944522881</v>
+        <v>0.46541624966539707</v>
       </c>
       <c r="Y3">
         <v>0.76666666666666672</v>
@@ -746,10 +746,10 @@
         <v>0.44530575515230247</v>
       </c>
       <c r="AA3">
-        <v>0.67075532601678511</v>
+        <v>0.66740942110928492</v>
       </c>
       <c r="AB3">
-        <v>0.2496664441476534</v>
+        <v>0.25340575501119211</v>
       </c>
       <c r="AC3">
         <v>600</v>
@@ -761,10 +761,10 @@
         <v>0.62324002692138114</v>
       </c>
       <c r="AF3">
-        <v>0.85273450021880193</v>
+        <v>0.52945304105345758</v>
       </c>
       <c r="AG3">
-        <v>0.1710872097303984</v>
+        <v>0.47447877058730831</v>
       </c>
       <c r="AH3">
         <v>0.7583333333333333</v>
@@ -773,10 +773,10 @@
         <v>0.45459599118135707</v>
       </c>
       <c r="AJ3">
-        <v>0.78783966195199251</v>
+        <v>0.71272892917798136</v>
       </c>
       <c r="AK3">
-        <v>0.20041623354076549</v>
+        <v>0.2546411730570437</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
@@ -793,10 +793,10 @@
         <v>0.6836128218860178</v>
       </c>
       <c r="E4">
-        <v>0.89916329442442289</v>
+        <v>0.56083062312895304</v>
       </c>
       <c r="F4">
-        <v>0.13929768897525241</v>
+        <v>0.44872033958268498</v>
       </c>
       <c r="G4">
         <v>0.7153846153846154</v>
@@ -805,10 +805,10 @@
         <v>0.3659056992390326</v>
       </c>
       <c r="I4">
-        <v>0.65595620041820302</v>
+        <v>0.66772545189500998</v>
       </c>
       <c r="J4">
-        <v>0.25252570318530099</v>
+        <v>0.24925490487328861</v>
       </c>
       <c r="K4">
         <v>650</v>
@@ -820,10 +820,10 @@
         <v>0.71622472358918188</v>
       </c>
       <c r="N4">
-        <v>0.90336065977048252</v>
+        <v>0.85017703524082933</v>
       </c>
       <c r="O4">
-        <v>0.13636771555670291</v>
+        <v>0.17997677392302891</v>
       </c>
       <c r="P4">
         <v>0.69230769230769229</v>
@@ -832,10 +832,10 @@
         <v>0.45663204121111278</v>
       </c>
       <c r="R4">
-        <v>0.66384140209739984</v>
+        <v>0.34878734526002508</v>
       </c>
       <c r="S4">
-        <v>0.24961508830135309</v>
+        <v>0.86632521207733815</v>
       </c>
       <c r="T4">
         <v>650</v>
@@ -847,10 +847,10 @@
         <v>0.70549123298042615</v>
       </c>
       <c r="W4">
-        <v>0.9117553904626019</v>
+        <v>0.56300351772466306</v>
       </c>
       <c r="X4">
-        <v>0.13031028060275679</v>
+        <v>0.44461794002117722</v>
       </c>
       <c r="Y4">
         <v>0.7</v>
@@ -859,10 +859,10 @@
         <v>0.35304128238910848</v>
       </c>
       <c r="AA4">
-        <v>0.61362511771935702</v>
+        <v>0.58269361044032641</v>
       </c>
       <c r="AB4">
-        <v>0.26761050916468998</v>
+        <v>0.29758144110019269</v>
       </c>
       <c r="AC4">
         <v>650</v>
@@ -874,10 +874,10 @@
         <v>0.68471275789423136</v>
       </c>
       <c r="AF4">
-        <v>0.86278612809190536</v>
+        <v>0.8137719271225573</v>
       </c>
       <c r="AG4">
-        <v>0.16249260338195751</v>
+        <v>0.20086808408384979</v>
       </c>
       <c r="AH4">
         <v>0.7846153846153846</v>
@@ -886,10 +886,10 @@
         <v>0.54091293644180716</v>
       </c>
       <c r="AJ4">
-        <v>0.82445050998419767</v>
+        <v>0.365296966399143</v>
       </c>
       <c r="AK4">
-        <v>0.18038420534642591</v>
+        <v>0.85513487366393792</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
@@ -906,10 +906,10 @@
         <v>0.63613294876323789</v>
       </c>
       <c r="E5">
-        <v>0.87543377360827657</v>
+        <v>0.55379329604227712</v>
       </c>
       <c r="F5">
-        <v>0.15652475842498531</v>
+        <v>0.44755600404879042</v>
       </c>
       <c r="G5">
         <v>0.77142857142857146</v>
@@ -918,10 +918,10 @@
         <v>0.5197029429055573</v>
       </c>
       <c r="I5">
-        <v>0.77493155005289005</v>
+        <v>0.79130707781721443</v>
       </c>
       <c r="J5">
-        <v>0.20283702113484389</v>
+        <v>0.20188116522717919</v>
       </c>
       <c r="K5">
         <v>700</v>
@@ -933,10 +933,10 @@
         <v>0.65212521569408743</v>
       </c>
       <c r="N5">
-        <v>0.91093333229571383</v>
+        <v>0.57917660052363296</v>
       </c>
       <c r="O5">
-        <v>0.13235504200013359</v>
+        <v>0.43310462286205781</v>
       </c>
       <c r="P5">
         <v>0.72857142857142854</v>
@@ -945,10 +945,10 @@
         <v>0.42122576804617329</v>
       </c>
       <c r="R5">
-        <v>0.66786773879332717</v>
+        <v>0.62026968117231884</v>
       </c>
       <c r="S5">
-        <v>0.2464026901522906</v>
+        <v>0.2812191334172946</v>
       </c>
       <c r="T5">
         <v>700</v>
@@ -960,10 +960,10 @@
         <v>0.71352895718694831</v>
       </c>
       <c r="W5">
-        <v>0.9215559623888856</v>
+        <v>0.5853260149584355</v>
       </c>
       <c r="X5">
-        <v>0.1242118006816238</v>
+        <v>0.43304123002974998</v>
       </c>
       <c r="Y5">
         <v>0.69285714285714284</v>
@@ -972,10 +972,10 @@
         <v>0.38158791835083111</v>
       </c>
       <c r="AA5">
-        <v>0.66200658124262124</v>
+        <v>0.65842176664612173</v>
       </c>
       <c r="AB5">
-        <v>0.2485673234472188</v>
+        <v>0.24928437512534371</v>
       </c>
       <c r="AC5">
         <v>700</v>
@@ -987,10 +987,10 @@
         <v>0.71584288317584699</v>
       </c>
       <c r="AF5">
-        <v>0.90684770533680159</v>
+        <v>0.8738728158248994</v>
       </c>
       <c r="AG5">
-        <v>0.13535667169160359</v>
+        <v>0.1696112283973483</v>
       </c>
       <c r="AH5">
         <v>0.75714285714285712</v>
@@ -999,10 +999,10 @@
         <v>0.4334532920894984</v>
       </c>
       <c r="AJ5">
-        <v>0.70420691560770443</v>
+        <v>0.25132530672309789</v>
       </c>
       <c r="AK5">
-        <v>0.23253263979800459</v>
+        <v>0.89812756025652563</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -1019,10 +1019,10 @@
         <v>0.69162158230114845</v>
       </c>
       <c r="E6">
-        <v>0.85912796104819744</v>
+        <v>0.83090248877744999</v>
       </c>
       <c r="F6">
-        <v>0.1657307052620807</v>
+        <v>0.19444567883247149</v>
       </c>
       <c r="G6">
         <v>0.71333333333333337</v>
@@ -1031,10 +1031,10 @@
         <v>0.44302829977887193</v>
       </c>
       <c r="I6">
-        <v>0.76242335825996477</v>
+        <v>0.36703809345738098</v>
       </c>
       <c r="J6">
-        <v>0.20346989949375799</v>
+        <v>0.79852033906896858</v>
       </c>
       <c r="K6">
         <v>750</v>
@@ -1046,10 +1046,10 @@
         <v>0.62298843444603957</v>
       </c>
       <c r="N6">
-        <v>0.8654535259040429</v>
+        <v>0.55822293355581809</v>
       </c>
       <c r="O6">
-        <v>0.16196707484341791</v>
+        <v>0.43339146605467949</v>
       </c>
       <c r="P6">
         <v>0.73333333333333328</v>
@@ -1058,10 +1058,10 @@
         <v>0.39471802409764478</v>
       </c>
       <c r="R6">
-        <v>0.73334795605023417</v>
+        <v>0.66351396226176718</v>
       </c>
       <c r="S6">
-        <v>0.21556128285632989</v>
+        <v>0.26033466450969528</v>
       </c>
       <c r="T6">
         <v>750</v>
@@ -1073,10 +1073,10 @@
         <v>0.66318054810678639</v>
       </c>
       <c r="W6">
-        <v>0.86810342469500523</v>
+        <v>0.55662666471491296</v>
       </c>
       <c r="X6">
-        <v>0.16036416889899899</v>
+        <v>0.4369271293205515</v>
       </c>
       <c r="Y6">
         <v>0.72</v>
@@ -1085,10 +1085,10 @@
         <v>0.50637677734451936</v>
       </c>
       <c r="AA6">
-        <v>0.75553707878923904</v>
+        <v>0.78569402093356044</v>
       </c>
       <c r="AB6">
-        <v>0.20639767440550291</v>
+        <v>0.1960892861758757</v>
       </c>
       <c r="AC6">
         <v>750</v>
@@ -1100,10 +1100,10 @@
         <v>0.64468951157107168</v>
       </c>
       <c r="AF6">
-        <v>0.8783610974342142</v>
+        <v>0.57297772889402709</v>
       </c>
       <c r="AG6">
-        <v>0.15400216448695339</v>
+        <v>0.42627068842577243</v>
       </c>
       <c r="AH6">
         <v>0.7533333333333333</v>
@@ -1112,10 +1112,10 @@
         <v>0.44634885811356401</v>
       </c>
       <c r="AJ6">
-        <v>0.75400679446241115</v>
+        <v>0.69924493940307419</v>
       </c>
       <c r="AK6">
-        <v>0.20704266871026039</v>
+        <v>0.24495570593254731</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -1132,10 +1132,10 @@
         <v>0.59666098505200416</v>
       </c>
       <c r="E7">
-        <v>0.857232896213455</v>
+        <v>0.4922924424957591</v>
       </c>
       <c r="F7">
-        <v>0.16412647562169849</v>
+        <v>0.44945251417450932</v>
       </c>
       <c r="G7">
         <v>0.75624999999999998</v>
@@ -1144,10 +1144,10 @@
         <v>0.48033460194108679</v>
       </c>
       <c r="I7">
-        <v>0.83753889342036258</v>
+        <v>0.7667907890582305</v>
       </c>
       <c r="J7">
-        <v>0.18439088914585769</v>
+        <v>0.24695929828980079</v>
       </c>
       <c r="K7">
         <v>800</v>
@@ -1159,10 +1159,10 @@
         <v>0.64038929692639268</v>
       </c>
       <c r="N7">
-        <v>0.86998587416190509</v>
+        <v>0.55934344905783906</v>
       </c>
       <c r="O7">
-        <v>0.15662455107677081</v>
+        <v>0.41944309403755581</v>
       </c>
       <c r="P7">
         <v>0.73750000000000004</v>
@@ -1171,10 +1171,10 @@
         <v>0.43537770679855059</v>
       </c>
       <c r="R7">
-        <v>0.7676567262519155</v>
+        <v>0.70743007630292942</v>
       </c>
       <c r="S7">
-        <v>0.22051077071199951</v>
+        <v>0.27369578804647388</v>
       </c>
       <c r="T7">
         <v>800</v>
@@ -1186,10 +1186,10 @@
         <v>0.70355992780628607</v>
       </c>
       <c r="W7">
-        <v>0.87255303206061907</v>
+        <v>0.57272563651976471</v>
       </c>
       <c r="X7">
-        <v>0.15507054846101501</v>
+        <v>0.41540821534611982</v>
       </c>
       <c r="Y7">
         <v>0.75624999999999998</v>
@@ -1198,10 +1198,10 @@
         <v>0.35355250791421089</v>
       </c>
       <c r="AA7">
-        <v>0.80409101853631948</v>
+        <v>0.72927928122897479</v>
       </c>
       <c r="AB7">
-        <v>0.20248456731316589</v>
+        <v>0.25356140550376383</v>
       </c>
       <c r="AC7">
         <v>800</v>
@@ -1213,10 +1213,10 @@
         <v>0.5963633948983561</v>
       </c>
       <c r="AF7">
-        <v>0.86178753119504437</v>
+        <v>0.55389093018281388</v>
       </c>
       <c r="AG7">
-        <v>0.16148722859718659</v>
+        <v>0.4229661464957975</v>
       </c>
       <c r="AH7">
         <v>0.76875000000000004</v>
@@ -1225,10 +1225,10 @@
         <v>0.43878464302992609</v>
       </c>
       <c r="AJ7">
-        <v>0.83007284991946007</v>
+        <v>0.77724986471535384</v>
       </c>
       <c r="AK7">
-        <v>0.1885802216564611</v>
+        <v>0.23547284427294701</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -1245,10 +1245,10 @@
         <v>0.64012411363370214</v>
       </c>
       <c r="E8">
-        <v>0.88194113901298199</v>
+        <v>0.57918830165438928</v>
       </c>
       <c r="F8">
-        <v>0.1506847117425692</v>
+        <v>0.41094399477330468</v>
       </c>
       <c r="G8">
         <v>0.76470588235294112</v>
@@ -1257,10 +1257,10 @@
         <v>0.3803948878499549</v>
       </c>
       <c r="I8">
-        <v>0.79341863675287516</v>
+        <v>0.79278433738206999</v>
       </c>
       <c r="J8">
-        <v>0.19402850002906641</v>
+        <v>0.19520165054684491</v>
       </c>
       <c r="K8">
         <v>850</v>
@@ -1272,10 +1272,10 @@
         <v>0.7728776966236921</v>
       </c>
       <c r="N8">
-        <v>0.90426833293021591</v>
+        <v>0.60046033437301327</v>
       </c>
       <c r="O8">
-        <v>0.1356899580141521</v>
+        <v>0.39935473700461083</v>
       </c>
       <c r="P8">
         <v>0.78823529411764703</v>
@@ -1284,10 +1284,10 @@
         <v>0.47858828846926482</v>
       </c>
       <c r="R8">
-        <v>0.8108489392768512</v>
+        <v>0.83098505906684772</v>
       </c>
       <c r="S8">
-        <v>0.18566256551953089</v>
+        <v>0.18030249757692729</v>
       </c>
       <c r="T8">
         <v>850</v>
@@ -1299,10 +1299,10 @@
         <v>0.73380992954290369</v>
       </c>
       <c r="W8">
-        <v>0.89738666357216434</v>
+        <v>0.5971964503941154</v>
       </c>
       <c r="X8">
-        <v>0.1404823623009204</v>
+        <v>0.40279922910857208</v>
       </c>
       <c r="Y8">
         <v>0.75882352941176467</v>
@@ -1311,10 +1311,10 @@
         <v>0.35895751001375747</v>
       </c>
       <c r="AA8">
-        <v>0.74887453030271389</v>
+        <v>0.73099608848502118</v>
       </c>
       <c r="AB8">
-        <v>0.21392687040751321</v>
+        <v>0.21877201581555811</v>
       </c>
       <c r="AC8">
         <v>850</v>
@@ -1326,10 +1326,10 @@
         <v>0.72753521654883235</v>
       </c>
       <c r="AF8">
-        <v>0.89256949502152827</v>
+        <v>0.85685888193910786</v>
       </c>
       <c r="AG8">
-        <v>0.14374200745044</v>
+        <v>0.175819467563819</v>
       </c>
       <c r="AH8">
         <v>0.75294117647058822</v>
@@ -1338,10 +1338,10 @@
         <v>0.35680836707152502</v>
       </c>
       <c r="AJ8">
-        <v>0.80213378801486324</v>
+        <v>0.28981584318803938</v>
       </c>
       <c r="AK8">
-        <v>0.18989160995002319</v>
+        <v>0.81014410234788725</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
@@ -1358,10 +1358,10 @@
         <v>0.68480823856923778</v>
       </c>
       <c r="E9">
-        <v>0.91298894159373689</v>
+        <v>0.61216973754118764</v>
       </c>
       <c r="F9">
-        <v>0.129475437396013</v>
+        <v>0.3878614734684529</v>
       </c>
       <c r="G9">
         <v>0.80555555555555558</v>
@@ -1370,10 +1370,10 @@
         <v>0.38794290870586728</v>
       </c>
       <c r="I9">
-        <v>0.74819514875971138</v>
+        <v>0.66519399297918247</v>
       </c>
       <c r="J9">
-        <v>0.22310934040908681</v>
+        <v>0.28126154641107909</v>
       </c>
       <c r="K9">
         <v>900</v>
@@ -1385,10 +1385,10 @@
         <v>0.74891779676579617</v>
       </c>
       <c r="N9">
-        <v>0.93483181706772012</v>
+        <v>0.62073481978983791</v>
       </c>
       <c r="O9">
-        <v>0.1120515754264774</v>
+        <v>0.38329089507530573</v>
       </c>
       <c r="P9">
         <v>0.76111111111111107</v>
@@ -1397,10 +1397,10 @@
         <v>0.34631735933913571</v>
       </c>
       <c r="R9">
-        <v>0.76084159776173466</v>
+        <v>0.70143229714509103</v>
       </c>
       <c r="S9">
-        <v>0.21743453676400579</v>
+        <v>0.26689025386703569</v>
       </c>
       <c r="T9">
         <v>900</v>
@@ -1412,10 +1412,10 @@
         <v>0.71897670348350695</v>
       </c>
       <c r="W9">
-        <v>0.89020891304661254</v>
+        <v>0.59755662757732819</v>
       </c>
       <c r="X9">
-        <v>0.14543994560566151</v>
+        <v>0.39670611826917351</v>
       </c>
       <c r="Y9">
         <v>0.78888888888888886</v>
@@ -1424,10 +1424,10 @@
         <v>0.35044243824564247</v>
       </c>
       <c r="AA9">
-        <v>0.81901526317104256</v>
+        <v>0.74829465731683253</v>
       </c>
       <c r="AB9">
-        <v>0.1891501461214814</v>
+        <v>0.23734614626860179</v>
       </c>
       <c r="AC9">
         <v>900</v>
@@ -1439,10 +1439,10 @@
         <v>0.73550087853597268</v>
       </c>
       <c r="AF9">
-        <v>0.89482258971438455</v>
+        <v>0.60573147586351506</v>
       </c>
       <c r="AG9">
-        <v>0.14235128692389429</v>
+        <v>0.39194023074738621</v>
       </c>
       <c r="AH9">
         <v>0.76666666666666672</v>
@@ -1451,10 +1451,10 @@
         <v>0.40330335170400389</v>
       </c>
       <c r="AJ9">
-        <v>0.80721191076915388</v>
+        <v>0.76849527685320762</v>
       </c>
       <c r="AK9">
-        <v>0.19522067285795089</v>
+        <v>0.2303264571039825</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
@@ -1471,10 +1471,10 @@
         <v>0.71323111866526734</v>
       </c>
       <c r="E10">
-        <v>0.93306410853062305</v>
+        <v>0.62878376283697568</v>
       </c>
       <c r="F10">
-        <v>0.11285761872936689</v>
+        <v>0.37336366419864281</v>
       </c>
       <c r="G10">
         <v>0.81052631578947365</v>
@@ -1483,10 +1483,10 @@
         <v>0.44193262726547261</v>
       </c>
       <c r="I10">
-        <v>0.71629023585085405</v>
+        <v>0.64966744438361823</v>
       </c>
       <c r="J10">
-        <v>0.23597502097958539</v>
+        <v>0.28370832043689781</v>
       </c>
       <c r="K10">
         <v>950</v>
@@ -1498,10 +1498,10 @@
         <v>0.76719250723117294</v>
       </c>
       <c r="N10">
-        <v>0.92988327071286347</v>
+        <v>0.88700537267171775</v>
       </c>
       <c r="O10">
-        <v>0.115508031163023</v>
+        <v>0.1536606316418464</v>
       </c>
       <c r="P10">
         <v>0.81052631578947365</v>
@@ -1510,10 +1510,10 @@
         <v>0.43423217684087251</v>
       </c>
       <c r="R10">
-        <v>0.82730710008312858</v>
+        <v>0.31029127487251168</v>
       </c>
       <c r="S10">
-        <v>0.18410523306550869</v>
+        <v>0.78522800580854479</v>
       </c>
       <c r="T10">
         <v>950</v>
@@ -1525,10 +1525,10 @@
         <v>0.7233520426341532</v>
       </c>
       <c r="W10">
-        <v>0.8928195952711423</v>
+        <v>0.85638646620950754</v>
       </c>
       <c r="X10">
-        <v>0.14281014264436981</v>
+        <v>0.17541576437134371</v>
       </c>
       <c r="Y10">
         <v>0.79473684210526319</v>
@@ -1537,10 +1537,10 @@
         <v>0.48781203488092501</v>
       </c>
       <c r="AA10">
-        <v>0.84688253749606579</v>
+        <v>0.40252480889753139</v>
       </c>
       <c r="AB10">
-        <v>0.1733569484588009</v>
+        <v>0.72210897543175467</v>
       </c>
       <c r="AC10">
         <v>950</v>
@@ -1552,10 +1552,10 @@
         <v>0.68017365261077745</v>
       </c>
       <c r="AF10">
-        <v>0.90194721683514834</v>
+        <v>0.611431650319055</v>
       </c>
       <c r="AG10">
-        <v>0.13659390446444561</v>
+        <v>0.38368999468352</v>
       </c>
       <c r="AH10">
         <v>0.76315789473684215</v>
@@ -1564,10 +1564,10 @@
         <v>0.42187668454987609</v>
       </c>
       <c r="AJ10">
-        <v>0.81363110956176143</v>
+        <v>0.79017335801005772</v>
       </c>
       <c r="AK10">
-        <v>0.19125623484849069</v>
+        <v>0.2129624007941591</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -1584,10 +1584,10 @@
         <v>0.71785302191407108</v>
       </c>
       <c r="E11">
-        <v>0.90751019226418161</v>
+        <v>0.61664825266908618</v>
       </c>
       <c r="F11">
-        <v>0.13209844813622909</v>
+        <v>0.37216577505548609</v>
       </c>
       <c r="G11">
         <v>0.80500000000000005</v>
@@ -1596,10 +1596,10 @@
         <v>0.49051996711439438</v>
       </c>
       <c r="I11">
-        <v>0.83464996194120422</v>
+        <v>0.77317693871797522</v>
       </c>
       <c r="J11">
-        <v>0.17930421077041109</v>
+        <v>0.23317837800859809</v>
       </c>
       <c r="K11">
         <v>1000</v>
@@ -1611,10 +1611,10 @@
         <v>0.65435862674335632</v>
       </c>
       <c r="N11">
-        <v>0.89763842911759362</v>
+        <v>0.61574143337689646</v>
       </c>
       <c r="O11">
-        <v>0.13896942109687291</v>
+        <v>0.37620524674137551</v>
       </c>
       <c r="P11">
         <v>0.75</v>
@@ -1623,10 +1623,10 @@
         <v>0.37659713149386698</v>
       </c>
       <c r="R11">
-        <v>0.75338929004916788</v>
+        <v>0.68782470146013641</v>
       </c>
       <c r="S11">
-        <v>0.2189748844045819</v>
+        <v>0.25702589693370342</v>
       </c>
       <c r="T11">
         <v>1000</v>
@@ -1638,10 +1638,10 @@
         <v>0.6863194887969376</v>
       </c>
       <c r="W11">
-        <v>0.91029283690952856</v>
+        <v>0.62117980126028338</v>
       </c>
       <c r="X11">
-        <v>0.13009611831257689</v>
+        <v>0.36917008914676758</v>
       </c>
       <c r="Y11">
         <v>0.78500000000000003</v>
@@ -1650,10 +1650,10 @@
         <v>0.36895895136578122</v>
       </c>
       <c r="AA11">
-        <v>0.76393260507313465</v>
+        <v>0.64403082446780124</v>
       </c>
       <c r="AB11">
-        <v>0.2142428528562855</v>
+        <v>0.29573356427563979</v>
       </c>
       <c r="AC11">
         <v>1000</v>
@@ -1665,10 +1665,10 @@
         <v>0.72160472492273531</v>
       </c>
       <c r="AF11">
-        <v>0.89379572936925733</v>
+        <v>0.61302678842309744</v>
       </c>
       <c r="AG11">
-        <v>0.14155387666892061</v>
+        <v>0.37659509722342371</v>
       </c>
       <c r="AH11">
         <v>0.755</v>
@@ -1677,10 +1677,10 @@
         <v>0.41344571475403119</v>
       </c>
       <c r="AJ11">
-        <v>0.8189635664177416</v>
+        <v>0.78753434599622618</v>
       </c>
       <c r="AK11">
-        <v>0.18761663039293719</v>
+        <v>0.21566738116747969</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -1697,10 +1697,10 @@
         <v>0.70739869784726483</v>
       </c>
       <c r="E12">
-        <v>0.89063826047737704</v>
+        <v>0.82586123606045769</v>
       </c>
       <c r="F12">
-        <v>0.14650694766558239</v>
+        <v>0.20595165538275309</v>
       </c>
       <c r="G12">
         <v>0.76190476190476186</v>
@@ -1709,10 +1709,10 @@
         <v>0.40838455636088389</v>
       </c>
       <c r="I12">
-        <v>0.77491777056730415</v>
+        <v>0.39587208265434998</v>
       </c>
       <c r="J12">
-        <v>0.20885173597326789</v>
+        <v>0.69223844400940793</v>
       </c>
       <c r="K12">
         <v>1050</v>
@@ -1724,10 +1724,10 @@
         <v>0.62361295227767011</v>
       </c>
       <c r="N12">
-        <v>0.87341211847825062</v>
+        <v>0.60514280707969448</v>
       </c>
       <c r="O12">
-        <v>0.1576237231359483</v>
+        <v>0.39133844527248179</v>
       </c>
       <c r="P12">
         <v>0.77619047619047621</v>
@@ -1736,10 +1736,10 @@
         <v>0.38611194551003031</v>
       </c>
       <c r="R12">
-        <v>0.8476517661045071</v>
+        <v>0.83657578895290086</v>
       </c>
       <c r="S12">
-        <v>0.17182493859684489</v>
+        <v>0.188244557298618</v>
       </c>
       <c r="T12">
         <v>1050</v>
@@ -1751,10 +1751,10 @@
         <v>0.62507670931134851</v>
       </c>
       <c r="W12">
-        <v>0.86740723095038608</v>
+        <v>0.60680280936051822</v>
       </c>
       <c r="X12">
-        <v>0.16131896827034789</v>
+        <v>0.38933572542952349</v>
       </c>
       <c r="Y12">
         <v>0.81904761904761902</v>
@@ -1763,10 +1763,10 @@
         <v>0.42820511501122799</v>
       </c>
       <c r="AA12">
-        <v>0.82234230144122367</v>
+        <v>0.71858560421513773</v>
       </c>
       <c r="AB12">
-        <v>0.18554937733275051</v>
+        <v>0.2525221932145264</v>
       </c>
       <c r="AC12">
         <v>1050</v>
@@ -1778,10 +1778,10 @@
         <v>0.66777657397250745</v>
       </c>
       <c r="AF12">
-        <v>0.91411191172266548</v>
+        <v>0.82978790070447583</v>
       </c>
       <c r="AG12">
-        <v>0.12983506020002011</v>
+        <v>0.20331459243206121</v>
       </c>
       <c r="AH12">
         <v>0.75714285714285712</v>
@@ -1790,10 +1790,10 @@
         <v>0.43619874264157382</v>
       </c>
       <c r="AJ12">
-        <v>0.77098620324096889</v>
+        <v>0.40493415682178679</v>
       </c>
       <c r="AK12">
-        <v>0.2106678722087266</v>
+        <v>0.68823814952512297</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
@@ -1810,10 +1810,10 @@
         <v>0.71232420503008165</v>
       </c>
       <c r="E13">
-        <v>0.92786088066235783</v>
+        <v>0.65338990176019718</v>
       </c>
       <c r="F13">
-        <v>0.1195636004202556</v>
+        <v>0.35431625834513941</v>
       </c>
       <c r="G13">
         <v>0.81818181818181823</v>
@@ -1822,10 +1822,10 @@
         <v>0.54481077945497425</v>
       </c>
       <c r="I13">
-        <v>0.79672264925481884</v>
+        <v>0.65528792608427744</v>
       </c>
       <c r="J13">
-        <v>0.1972538742562257</v>
+        <v>0.31876536532273642</v>
       </c>
       <c r="K13">
         <v>1100</v>
@@ -1837,10 +1837,10 @@
         <v>0.72341478836435458</v>
       </c>
       <c r="N13">
-        <v>0.92556710898230565</v>
+        <v>0.64564058870050678</v>
       </c>
       <c r="O13">
-        <v>0.1214495780149112</v>
+        <v>0.36686757498149219</v>
       </c>
       <c r="P13">
         <v>0.76363636363636367</v>
@@ -1849,10 +1849,10 @@
         <v>0.40198712737127368</v>
       </c>
       <c r="R13">
-        <v>0.79577275509245826</v>
+        <v>0.74013670688698951</v>
       </c>
       <c r="S13">
-        <v>0.19771421064483219</v>
+        <v>0.24124525277022521</v>
       </c>
       <c r="T13">
         <v>1100</v>
@@ -1864,10 +1864,10 @@
         <v>0.76401150480368507</v>
       </c>
       <c r="W13">
-        <v>0.93067075097042185</v>
+        <v>0.84637458376607289</v>
       </c>
       <c r="X13">
-        <v>0.1172119292718807</v>
+        <v>0.19206756484074439</v>
       </c>
       <c r="Y13">
         <v>0.79090909090909089</v>
@@ -1876,10 +1876,10 @@
         <v>0.50313202206535546</v>
       </c>
       <c r="AA13">
-        <v>0.80099717298544182</v>
+        <v>0.42498981221309279</v>
       </c>
       <c r="AB13">
-        <v>0.19516892450108211</v>
+        <v>0.67082748776851975</v>
       </c>
       <c r="AC13">
         <v>1100</v>
@@ -1891,10 +1891,10 @@
         <v>0.62909928133830195</v>
       </c>
       <c r="AF13">
-        <v>0.90721693554188787</v>
+        <v>0.64389216518700865</v>
       </c>
       <c r="AG13">
-        <v>0.135596326043015</v>
+        <v>0.36046427102519107</v>
       </c>
       <c r="AH13">
         <v>0.80909090909090908</v>
@@ -1903,10 +1903,10 @@
         <v>0.39869696384160369</v>
       </c>
       <c r="AJ13">
-        <v>0.77724981892642531</v>
+        <v>0.62769640949153827</v>
       </c>
       <c r="AK13">
-        <v>0.20648574681164711</v>
+        <v>0.32520121758785631</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -1923,10 +1923,10 @@
         <v>0.70781306079989958</v>
       </c>
       <c r="E14">
-        <v>0.92549052382691288</v>
+        <v>0.64769652576739634</v>
       </c>
       <c r="F14">
-        <v>0.1209563341979604</v>
+        <v>0.36124747739315499</v>
       </c>
       <c r="G14">
         <v>0.8</v>
@@ -1935,10 +1935,10 @@
         <v>0.43320383254037398</v>
       </c>
       <c r="I14">
-        <v>0.82442307788761993</v>
+        <v>0.74068043131540262</v>
       </c>
       <c r="J14">
-        <v>0.1818982037342291</v>
+        <v>0.23737582443505639</v>
       </c>
       <c r="K14">
         <v>1150</v>
@@ -1950,10 +1950,10 @@
         <v>0.72294408606019922</v>
       </c>
       <c r="N14">
-        <v>0.91464070411671594</v>
+        <v>0.65183297450292321</v>
       </c>
       <c r="O14">
-        <v>0.1294637770390521</v>
+        <v>0.35240085478755012</v>
       </c>
       <c r="P14">
         <v>0.78695652173913044</v>
@@ -1962,10 +1962,10 @@
         <v>0.42105889473965818</v>
       </c>
       <c r="R14">
-        <v>0.81450217427285998</v>
+        <v>0.67428565044246946</v>
       </c>
       <c r="S14">
-        <v>0.1869666326891791</v>
+        <v>0.29785963070090288</v>
       </c>
       <c r="T14">
         <v>1150</v>
@@ -1977,10 +1977,10 @@
         <v>0.6769067271125323</v>
       </c>
       <c r="W14">
-        <v>0.90207484149317152</v>
+        <v>0.64326436818519284</v>
       </c>
       <c r="X14">
-        <v>0.1386660047364357</v>
+        <v>0.3544277428525448</v>
       </c>
       <c r="Y14">
         <v>0.8</v>
@@ -1989,10 +1989,10 @@
         <v>0.45501892202790789</v>
       </c>
       <c r="AA14">
-        <v>0.83849691789925618</v>
+        <v>0.65742452326718026</v>
       </c>
       <c r="AB14">
-        <v>0.17445567519772939</v>
+        <v>0.31565153790133132</v>
       </c>
       <c r="AC14">
         <v>1150</v>
@@ -2004,10 +2004,10 @@
         <v>0.68771050796566491</v>
       </c>
       <c r="AF14">
-        <v>0.92554588004992411</v>
+        <v>0.65355770182053075</v>
       </c>
       <c r="AG14">
-        <v>0.1209113940759567</v>
+        <v>0.34866829211208988</v>
       </c>
       <c r="AH14">
         <v>0.81304347826086953</v>
@@ -2016,10 +2016,10 @@
         <v>0.41872089438064702</v>
       </c>
       <c r="AJ14">
-        <v>0.83065248248293433</v>
+        <v>0.65082780930880446</v>
       </c>
       <c r="AK14">
-        <v>0.1786422219920612</v>
+        <v>0.32131414553136711</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
@@ -2036,10 +2036,10 @@
         <v>0.75814359118761288</v>
       </c>
       <c r="E15">
-        <v>0.94293795245324707</v>
+        <v>0.66287796787965036</v>
       </c>
       <c r="F15">
-        <v>0.1060660171779821</v>
+        <v>0.35233802526357838</v>
       </c>
       <c r="G15">
         <v>0.77916666666666667</v>
@@ -2048,10 +2048,10 @@
         <v>0.39613304093567248</v>
       </c>
       <c r="I15">
-        <v>0.78603155734705232</v>
+        <v>0.77786941930474485</v>
       </c>
       <c r="J15">
-        <v>0.20524375751773791</v>
+        <v>0.21242669135395911</v>
       </c>
       <c r="K15">
         <v>1200</v>
@@ -2063,10 +2063,10 @@
         <v>0.70344871140756549</v>
       </c>
       <c r="N15">
-        <v>0.93422013963360417</v>
+        <v>0.65740472685597151</v>
       </c>
       <c r="O15">
-        <v>0.1138804197393037</v>
+        <v>0.35439682505410658</v>
       </c>
       <c r="P15">
         <v>0.77916666666666667</v>
@@ -2075,10 +2075,10 @@
         <v>0.40062324929971987</v>
       </c>
       <c r="R15">
-        <v>0.80190458721744906</v>
+        <v>0.77021922375822982</v>
       </c>
       <c r="S15">
-        <v>0.19748417658131501</v>
+        <v>0.21950858089208311</v>
       </c>
       <c r="T15">
         <v>1200</v>
@@ -2090,10 +2090,10 @@
         <v>0.7073105645386577</v>
       </c>
       <c r="W15">
-        <v>0.90965175805097442</v>
+        <v>0.64715890895871242</v>
       </c>
       <c r="X15">
-        <v>0.13346347815039139</v>
+        <v>0.35889274296328783</v>
       </c>
       <c r="Y15">
         <v>0.82916666666666672</v>
@@ -2102,10 +2102,10 @@
         <v>0.52667521606980894</v>
       </c>
       <c r="AA15">
-        <v>0.86455014510594808</v>
+        <v>0.82878561514601201</v>
       </c>
       <c r="AB15">
-        <v>0.16329931618554519</v>
+        <v>0.19232812551789161</v>
       </c>
       <c r="AC15">
         <v>1200</v>
@@ -2117,10 +2117,10 @@
         <v>0.70405161526848903</v>
       </c>
       <c r="AF15">
-        <v>0.91694301968194847</v>
+        <v>0.65173273701545742</v>
       </c>
       <c r="AG15">
-        <v>0.12796483892069729</v>
+        <v>0.35537834340473029</v>
       </c>
       <c r="AH15">
         <v>0.8208333333333333</v>
@@ -2129,10 +2129,10 @@
         <v>0.51413614018130749</v>
       </c>
       <c r="AJ15">
-        <v>0.8524866424044466</v>
+        <v>0.7782857699913146</v>
       </c>
       <c r="AK15">
-        <v>0.1704161572934523</v>
+        <v>0.22360898036866511</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
@@ -2149,10 +2149,10 @@
         <v>0.74551684379591598</v>
       </c>
       <c r="E16">
-        <v>0.92905800114853765</v>
+        <v>0.67378286330749959</v>
       </c>
       <c r="F16">
-        <v>0.11970797801316339</v>
+        <v>0.33742446679766858</v>
       </c>
       <c r="G16">
         <v>0.78400000000000003</v>
@@ -2161,10 +2161,10 @@
         <v>0.42083887219871391</v>
       </c>
       <c r="I16">
-        <v>0.86427104722792614</v>
+        <v>0.70888783395300847</v>
       </c>
       <c r="J16">
-        <v>0.16260381299342269</v>
+        <v>0.27848397231073319</v>
       </c>
       <c r="K16">
         <v>1250</v>
@@ -2176,10 +2176,10 @@
         <v>0.70945585621000862</v>
       </c>
       <c r="N16">
-        <v>0.92062351719284174</v>
+        <v>0.66022370537474018</v>
       </c>
       <c r="O16">
-        <v>0.12633289357883001</v>
+        <v>0.34909958489734189</v>
       </c>
       <c r="P16">
         <v>0.78400000000000003</v>
@@ -2188,10 +2188,10 @@
         <v>0.4234499280579655</v>
       </c>
       <c r="R16">
-        <v>0.81583585937758163</v>
+        <v>0.7650570667908434</v>
       </c>
       <c r="S16">
-        <v>0.19120669444347391</v>
+        <v>0.23128966189205671</v>
       </c>
       <c r="T16">
         <v>1250</v>
@@ -2203,10 +2203,10 @@
         <v>0.71786430003592816</v>
       </c>
       <c r="W16">
-        <v>0.91405770411295273</v>
+        <v>0.66654872542855947</v>
       </c>
       <c r="X16">
-        <v>0.13175735273600481</v>
+        <v>0.34060932284980938</v>
       </c>
       <c r="Y16">
         <v>0.80800000000000005</v>
@@ -2215,10 +2215,10 @@
         <v>0.45103138591006681</v>
       </c>
       <c r="AA16">
-        <v>0.84312114989733056</v>
+        <v>0.69594179837540837</v>
       </c>
       <c r="AB16">
-        <v>0.17481418706729729</v>
+        <v>0.28693276396907091</v>
       </c>
       <c r="AC16">
         <v>1250</v>
@@ -2230,10 +2230,10 @@
         <v>0.71630005639213823</v>
       </c>
       <c r="AF16">
-        <v>0.91494881086754187</v>
+        <v>0.86364647635457192</v>
       </c>
       <c r="AG16">
-        <v>0.13107249902248749</v>
+        <v>0.17954427818382651</v>
       </c>
       <c r="AH16">
         <v>0.78</v>
@@ -2242,10 +2242,10 @@
         <v>0.45626548400579608</v>
       </c>
       <c r="AJ16">
-        <v>0.83983572895277203</v>
+        <v>0.44545169149789732</v>
       </c>
       <c r="AK16">
-        <v>0.1766352173265569</v>
+        <v>0.63009130125295221</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
@@ -2262,10 +2262,10 @@
         <v>0.7346847539080642</v>
       </c>
       <c r="E17">
-        <v>0.92937400408707882</v>
+        <v>0.66826188314766566</v>
       </c>
       <c r="F17">
-        <v>0.1174242800210482</v>
+        <v>0.34092596409337028</v>
       </c>
       <c r="G17">
         <v>0.84615384615384615</v>
@@ -2274,10 +2274,10 @@
         <v>0.47436643561273628</v>
       </c>
       <c r="I17">
-        <v>0.84901043912109453</v>
+        <v>0.78861985641852317</v>
       </c>
       <c r="J17">
-        <v>0.17409104602963449</v>
+        <v>0.21211642232076791</v>
       </c>
       <c r="K17">
         <v>1300</v>
@@ -2289,10 +2289,10 @@
         <v>0.75131176311151093</v>
       </c>
       <c r="N17">
-        <v>0.92538466958990551</v>
+        <v>0.66760542127022915</v>
       </c>
       <c r="O17">
-        <v>0.12069510218856309</v>
+        <v>0.34053491263198998</v>
       </c>
       <c r="P17">
         <v>0.83461538461538465</v>
@@ -2301,10 +2301,10 @@
         <v>0.45965100396679348</v>
       </c>
       <c r="R17">
-        <v>0.816053326848034</v>
+        <v>0.772341977943797</v>
       </c>
       <c r="S17">
-        <v>0.19215378456610449</v>
+        <v>0.22317060439380701</v>
       </c>
       <c r="T17">
         <v>1300</v>
@@ -2316,10 +2316,10 @@
         <v>0.69960881490914928</v>
       </c>
       <c r="W17">
-        <v>0.92735471131690472</v>
+        <v>0.65046525572708691</v>
       </c>
       <c r="X17">
-        <v>0.1190911092722387</v>
+        <v>0.34995941332456032</v>
       </c>
       <c r="Y17">
         <v>0.7961538461538461</v>
@@ -2328,10 +2328,10 @@
         <v>0.44024075713209448</v>
       </c>
       <c r="AA17">
-        <v>0.82850804950936496</v>
+        <v>0.83200977676808241</v>
       </c>
       <c r="AB17">
-        <v>0.18553457069526669</v>
+        <v>0.18902304998338179</v>
       </c>
       <c r="AC17">
         <v>1300</v>
@@ -2343,10 +2343,10 @@
         <v>0.72682154949977928</v>
       </c>
       <c r="AF17">
-        <v>0.92341462786290629</v>
+        <v>0.65883922018714824</v>
       </c>
       <c r="AG17">
-        <v>0.1222780563998425</v>
+        <v>0.3450126380686615</v>
       </c>
       <c r="AH17">
         <v>0.86153846153846159</v>
@@ -2355,10 +2355,10 @@
         <v>0.49118239377008488</v>
       </c>
       <c r="AJ17">
-        <v>0.86280643960749204</v>
+        <v>0.80219706041918626</v>
       </c>
       <c r="AK17">
-        <v>0.1659471649003427</v>
+        <v>0.2079579616142877</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
@@ -2375,10 +2375,10 @@
         <v>0.73469223554431462</v>
       </c>
       <c r="E18">
-        <v>0.9399294170650514</v>
+        <v>0.67127645831191463</v>
       </c>
       <c r="F18">
-        <v>0.10801234497346431</v>
+        <v>0.33322753028431767</v>
       </c>
       <c r="G18">
         <v>0.81851851851851853</v>
@@ -2387,10 +2387,10 @@
         <v>0.43193550749312559</v>
       </c>
       <c r="I18">
-        <v>0.85318453520214366</v>
+        <v>0.69267371900117958</v>
       </c>
       <c r="J18">
-        <v>0.17543596489254351</v>
+        <v>0.29930398184661933</v>
       </c>
       <c r="K18">
         <v>1350</v>
@@ -2402,10 +2402,10 @@
         <v>0.75346323757290912</v>
       </c>
       <c r="N18">
-        <v>0.93034672883495251</v>
+        <v>0.85770042671012758</v>
       </c>
       <c r="O18">
-        <v>0.1163089754824527</v>
+        <v>0.18301839257354419</v>
       </c>
       <c r="P18">
         <v>0.84074074074074079</v>
@@ -2414,10 +2414,10 @@
         <v>0.51241168955454675</v>
       </c>
       <c r="R18">
-        <v>0.88551573864138278</v>
+        <v>0.46777764117105081</v>
       </c>
       <c r="S18">
-        <v>0.15491933384829659</v>
+        <v>0.61033975923004147</v>
       </c>
       <c r="T18">
         <v>1350</v>
@@ -2429,10 +2429,10 @@
         <v>0.73540839511999478</v>
       </c>
       <c r="W18">
-        <v>0.92739087475402648</v>
+        <v>0.87823629216836963</v>
       </c>
       <c r="X18">
-        <v>0.11875121831733711</v>
+        <v>0.16412772515214299</v>
       </c>
       <c r="Y18">
         <v>0.82592592592592595</v>
@@ -2441,10 +2441,10 @@
         <v>0.52879514603044009</v>
       </c>
       <c r="AA18">
-        <v>0.85919142545861427</v>
+        <v>0.45215676793660198</v>
       </c>
       <c r="AB18">
-        <v>0.1718095414071015</v>
+        <v>0.64356160791249595</v>
       </c>
       <c r="AC18">
         <v>1350</v>
@@ -2456,10 +2456,10 @@
         <v>0.70470706816857509</v>
       </c>
       <c r="AF18">
-        <v>0.92963160284763169</v>
+        <v>0.6654084389717605</v>
       </c>
       <c r="AG18">
-        <v>0.1169045194450012</v>
+        <v>0.34353078293750672</v>
       </c>
       <c r="AH18">
         <v>0.82222222222222219</v>
@@ -2468,10 +2468,10 @@
         <v>0.45687151870828879</v>
       </c>
       <c r="AJ18">
-        <v>0.86537498895792231</v>
+        <v>0.81913538995761459</v>
       </c>
       <c r="AK18">
-        <v>0.16799470891138871</v>
+        <v>0.20478025609317069</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -2488,10 +2488,10 @@
         <v>0.76809575873096492</v>
       </c>
       <c r="E19">
-        <v>0.93758554994026744</v>
+        <v>0.68257277301985941</v>
       </c>
       <c r="F19">
-        <v>0.111483502943581</v>
+        <v>0.33394001610853907</v>
       </c>
       <c r="G19">
         <v>0.79642857142857137</v>
@@ -2500,10 +2500,10 @@
         <v>0.44289648803482001</v>
       </c>
       <c r="I19">
-        <v>0.78136871601191737</v>
+        <v>0.74339015364515015</v>
       </c>
       <c r="J19">
-        <v>0.2007130147392398</v>
+        <v>0.22956117690429501</v>
       </c>
       <c r="K19">
         <v>1400</v>
@@ -2515,10 +2515,10 @@
         <v>0.69440476457153222</v>
       </c>
       <c r="N19">
-        <v>0.92969406774880703</v>
+        <v>0.6796026100994057</v>
       </c>
       <c r="O19">
-        <v>0.1183215956619923</v>
+        <v>0.3371417375485784</v>
       </c>
       <c r="P19">
         <v>0.78928571428571426</v>
@@ -2527,10 +2527,10 @@
         <v>0.43514920494843029</v>
       </c>
       <c r="R19">
-        <v>0.75830389083941574</v>
+        <v>0.75487663852849074</v>
       </c>
       <c r="S19">
-        <v>0.2110348650951171</v>
+        <v>0.2166929002419275</v>
       </c>
       <c r="T19">
         <v>1400</v>
@@ -2542,10 +2542,10 @@
         <v>0.7639595816535637</v>
       </c>
       <c r="W19">
-        <v>0.93207047999964454</v>
+        <v>0.67918515382796518</v>
       </c>
       <c r="X19">
-        <v>0.1163047106280984</v>
+        <v>0.33638426428320373</v>
       </c>
       <c r="Y19">
         <v>0.84642857142857142</v>
@@ -2554,10 +2554,10 @@
         <v>0.49275543148059131</v>
       </c>
       <c r="AA19">
-        <v>0.86219251514580963</v>
+        <v>0.84103987900694122</v>
       </c>
       <c r="AB19">
-        <v>0.15935136379352749</v>
+        <v>0.17817172381701649</v>
       </c>
       <c r="AC19">
         <v>1400</v>
@@ -2569,10 +2569,10 @@
         <v>0.76873259692623663</v>
       </c>
       <c r="AF19">
-        <v>0.93363980884453723</v>
+        <v>0.86768804314401704</v>
       </c>
       <c r="AG19">
-        <v>0.114953406710222</v>
+        <v>0.1778605000856178</v>
       </c>
       <c r="AH19">
         <v>0.86785714285714288</v>
@@ -2581,10 +2581,10 @@
         <v>0.5303484765553732</v>
       </c>
       <c r="AJ19">
-        <v>0.88971524770459309</v>
+        <v>0.44665607295260468</v>
       </c>
       <c r="AK19">
-        <v>0.14255324819669521</v>
+        <v>0.60179693957433511</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
@@ -2601,10 +2601,10 @@
         <v>0.71774253585986858</v>
       </c>
       <c r="E20">
-        <v>0.93301120554438755</v>
+        <v>0.86505484098132779</v>
       </c>
       <c r="F20">
-        <v>0.11435727439431451</v>
+        <v>0.17779148622223731</v>
       </c>
       <c r="G20">
         <v>0.80689655172413788</v>
@@ -2613,10 +2613,10 @@
         <v>0.4806088335260762</v>
       </c>
       <c r="I20">
-        <v>0.85953756632713696</v>
+        <v>0.4571270688874407</v>
       </c>
       <c r="J20">
-        <v>0.16640208884630561</v>
+        <v>0.59249103763949262</v>
       </c>
       <c r="K20">
         <v>1450</v>
@@ -2628,10 +2628,10 @@
         <v>0.70115378078418089</v>
       </c>
       <c r="N20">
-        <v>0.93411517381161913</v>
+        <v>0.69036077263276585</v>
       </c>
       <c r="O20">
-        <v>0.1134110619186561</v>
+        <v>0.31562381771440129</v>
       </c>
       <c r="P20">
         <v>0.81034482758620685</v>
@@ -2640,10 +2640,10 @@
         <v>0.4196300032294159</v>
       </c>
       <c r="R20">
-        <v>0.86583476136103865</v>
+        <v>0.67832078203451007</v>
       </c>
       <c r="S20">
-        <v>0.16262925893598901</v>
+        <v>0.30943713952968149</v>
       </c>
       <c r="T20">
         <v>1450</v>
@@ -2655,10 +2655,10 @@
         <v>0.78527292495144752</v>
       </c>
       <c r="W20">
-        <v>0.93177476108508817</v>
+        <v>0.68834618859330376</v>
       </c>
       <c r="X20">
-        <v>0.11540782259986269</v>
+        <v>0.32114009509966179</v>
       </c>
       <c r="Y20">
         <v>0.83448275862068966</v>
@@ -2667,10 +2667,10 @@
         <v>0.43537227872492901</v>
       </c>
       <c r="AA20">
-        <v>0.85376513754606032</v>
+        <v>0.71723136568989609</v>
       </c>
       <c r="AB20">
-        <v>0.1697868846728055</v>
+        <v>0.2716133226887279</v>
       </c>
       <c r="AC20">
         <v>1450</v>
@@ -2682,10 +2682,10 @@
         <v>0.75518763314943704</v>
       </c>
       <c r="AF20">
-        <v>0.93371774523541573</v>
+        <v>0.68073484967578368</v>
       </c>
       <c r="AG20">
-        <v>0.11375260512363571</v>
+        <v>0.32887244192174631</v>
       </c>
       <c r="AH20">
         <v>0.8413793103448276</v>
@@ -2694,10 +2694,10 @@
         <v>0.44662783256306487</v>
       </c>
       <c r="AJ20">
-        <v>0.80863523980309804</v>
+        <v>0.73299667069180119</v>
       </c>
       <c r="AK20">
-        <v>0.1942270267780323</v>
+        <v>0.24744206010497169</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
@@ -2714,10 +2714,10 @@
         <v>0.72866626043708871</v>
       </c>
       <c r="E21">
-        <v>0.94174912629903729</v>
+        <v>0.69003092961878965</v>
       </c>
       <c r="F21">
-        <v>0.10673175097723581</v>
+        <v>0.32430098164127641</v>
       </c>
       <c r="G21">
         <v>0.82666666666666666</v>
@@ -2726,10 +2726,10 @@
         <v>0.45398501847055223</v>
       </c>
       <c r="I21">
-        <v>0.85554777188442688</v>
+        <v>0.80040444105921682</v>
       </c>
       <c r="J21">
-        <v>0.16753109164172081</v>
+        <v>0.20160831622746361</v>
       </c>
       <c r="K21">
         <v>1500</v>
@@ -2741,10 +2741,10 @@
         <v>0.73574905304212934</v>
       </c>
       <c r="N21">
-        <v>0.92858195733517668</v>
+        <v>0.68473805888237149</v>
       </c>
       <c r="O21">
-        <v>0.1181806526749056</v>
+        <v>0.32019157389165992</v>
       </c>
       <c r="P21">
         <v>0.8</v>
@@ -2753,10 +2753,10 @@
         <v>0.42550463488374202</v>
       </c>
       <c r="R21">
-        <v>0.84216621156018134</v>
+        <v>0.71942347683538932</v>
       </c>
       <c r="S21">
-        <v>0.1751190071541826</v>
+        <v>0.27011351913999659</v>
       </c>
       <c r="T21">
         <v>1500</v>
@@ -2768,10 +2768,10 @@
         <v>0.76021564385153273</v>
       </c>
       <c r="W21">
-        <v>0.92555649132729934</v>
+        <v>0.67866088651821443</v>
       </c>
       <c r="X21">
-        <v>0.1206579186515884</v>
+        <v>0.32940435746844388</v>
       </c>
       <c r="Y21">
         <v>0.83</v>
@@ -2780,10 +2780,10 @@
         <v>0.44746900787926958</v>
       </c>
       <c r="AA21">
-        <v>0.83993595150614042</v>
+        <v>0.78844605300178672</v>
       </c>
       <c r="AB21">
-        <v>0.17635192088548399</v>
+        <v>0.21079435722831141</v>
       </c>
       <c r="AC21">
         <v>1500</v>
@@ -2795,10 +2795,10 @@
         <v>0.73752504775393457</v>
       </c>
       <c r="AF21">
-        <v>0.94132300432609683</v>
+        <v>0.69080904638636675</v>
       </c>
       <c r="AG21">
-        <v>0.10712142642814269</v>
+        <v>0.31975643129403308</v>
       </c>
       <c r="AH21">
         <v>0.83333333333333337</v>
@@ -2807,10 +2807,10 @@
         <v>0.4754809991877334</v>
       </c>
       <c r="AJ21">
-        <v>0.88282556793000411</v>
+        <v>0.82376124299612186</v>
       </c>
       <c r="AK21">
-        <v>0.15088627063675031</v>
+        <v>0.20479810218336381</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
@@ -2827,10 +2827,10 @@
         <v>0.72574910536435955</v>
       </c>
       <c r="E22">
-        <v>0.93073705351165092</v>
+        <v>0.86389988969671716</v>
       </c>
       <c r="F22">
-        <v>0.1154933317443884</v>
+        <v>0.1776574736563328</v>
       </c>
       <c r="G22">
         <v>0.8354838709677419</v>
@@ -2839,10 +2839,10 @@
         <v>0.4981771175364213</v>
       </c>
       <c r="I22">
-        <v>0.88088549090940893</v>
+        <v>0.46520403405080157</v>
       </c>
       <c r="J22">
-        <v>0.15059023658537329</v>
+        <v>0.56517086742978506</v>
       </c>
       <c r="K22">
         <v>1550</v>
@@ -2854,10 +2854,10 @@
         <v>0.67208660226164585</v>
       </c>
       <c r="N22">
-        <v>0.92558630235199735</v>
+        <v>0.66788431778160584</v>
       </c>
       <c r="O22">
-        <v>0.1197106727125461</v>
+        <v>0.32741064684304488</v>
       </c>
       <c r="P22">
         <v>0.85806451612903223</v>
@@ -2866,10 +2866,10 @@
         <v>0.56440952894830654</v>
       </c>
       <c r="R22">
-        <v>0.82293789189236455</v>
+        <v>0.73776618380489245</v>
       </c>
       <c r="S22">
-        <v>0.1836019537460177</v>
+        <v>0.2479953758473723</v>
       </c>
       <c r="T22">
         <v>1550</v>
@@ -2881,10 +2881,10 @@
         <v>0.72310760367252358</v>
       </c>
       <c r="W22">
-        <v>0.93693470531351042</v>
+        <v>0.69209555543811718</v>
       </c>
       <c r="X22">
-        <v>0.110205087406719</v>
+        <v>0.31562161089223351</v>
       </c>
       <c r="Y22">
         <v>0.85483870967741937</v>
@@ -2893,10 +2893,10 @@
         <v>0.45123755896932022</v>
       </c>
       <c r="AA22">
-        <v>0.82497114098068203</v>
+        <v>0.72371862110519258</v>
       </c>
       <c r="AB22">
-        <v>0.18254473601054971</v>
+        <v>0.25287386564997472</v>
       </c>
       <c r="AC22">
         <v>1550</v>
@@ -2908,10 +2908,10 @@
         <v>0.72905021458275565</v>
       </c>
       <c r="AF22">
-        <v>0.92780573171347414</v>
+        <v>0.68290458696996414</v>
       </c>
       <c r="AG22">
-        <v>0.1179119408985011</v>
+        <v>0.32390936601185111</v>
       </c>
       <c r="AH22">
         <v>0.8354838709677419</v>
@@ -2920,10 +2920,10 @@
         <v>0.48400065939549469</v>
       </c>
       <c r="AJ22">
-        <v>0.82971538885342244</v>
+        <v>0.77877310428641588</v>
       </c>
       <c r="AK22">
-        <v>0.18005375541406979</v>
+        <v>0.2114487553704899</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
@@ -2940,10 +2940,10 @@
         <v>0.73611107060488601</v>
       </c>
       <c r="E23">
-        <v>0.94331660672033946</v>
+        <v>0.68469785192855026</v>
       </c>
       <c r="F23">
-        <v>0.1036822067666386</v>
+        <v>0.31867377140023118</v>
       </c>
       <c r="G23">
         <v>0.83750000000000002</v>
@@ -2952,10 +2952,10 @@
         <v>0.50975037407732227</v>
       </c>
       <c r="I23">
-        <v>0.87828321768182982</v>
+        <v>0.85409176386464702</v>
       </c>
       <c r="J23">
-        <v>0.15206906325745551</v>
+        <v>0.17397406492455941</v>
       </c>
       <c r="K23">
         <v>1600</v>
@@ -2967,10 +2967,10 @@
         <v>0.74681351827093967</v>
       </c>
       <c r="N23">
-        <v>0.93903239676315575</v>
+        <v>0.8732616571638675</v>
       </c>
       <c r="O23">
-        <v>0.1075290658380328</v>
+        <v>0.16847872675999501</v>
       </c>
       <c r="P23">
         <v>0.859375</v>
@@ -2979,10 +2979,10 @@
         <v>0.51534973889655755</v>
       </c>
       <c r="R23">
-        <v>0.8904548959136469</v>
+        <v>0.46840392527550451</v>
       </c>
       <c r="S23">
-        <v>0.14426538046253509</v>
+        <v>0.56464636337450314</v>
       </c>
       <c r="T23">
         <v>1600</v>
@@ -2994,10 +2994,10 @@
         <v>0.74694620631351349</v>
       </c>
       <c r="W23">
-        <v>0.94698290177985234</v>
+        <v>0.69764639653931904</v>
       </c>
       <c r="X23">
-        <v>0.10027306467840701</v>
+        <v>0.30813429801344649</v>
       </c>
       <c r="Y23">
         <v>0.85312500000000002</v>
@@ -3006,10 +3006,10 @@
         <v>0.48179792429792428</v>
       </c>
       <c r="AA23">
-        <v>0.82943202261629401</v>
+        <v>0.72336853173755133</v>
       </c>
       <c r="AB23">
-        <v>0.18001736027394691</v>
+        <v>0.2574740888498222</v>
       </c>
       <c r="AC23">
         <v>1600</v>
@@ -3021,10 +3021,10 @@
         <v>0.73882078395680817</v>
       </c>
       <c r="AF23">
-        <v>0.94203958259848664</v>
+        <v>0.87246133536641146</v>
       </c>
       <c r="AG23">
-        <v>0.1048436335692349</v>
+        <v>0.17064949323789791</v>
       </c>
       <c r="AH23">
         <v>0.86875000000000002</v>
@@ -3033,10 +3033,10 @@
         <v>0.54730668024785678</v>
       </c>
       <c r="AJ23">
-        <v>0.92071960935492159</v>
+        <v>0.48241524592876012</v>
       </c>
       <c r="AK23">
-        <v>0.1227293770863358</v>
+        <v>0.54875113921196295</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
@@ -3053,10 +3053,10 @@
         <v>0.74846085927208406</v>
       </c>
       <c r="E24">
-        <v>0.93914284549997129</v>
+        <v>0.69153425949976599</v>
       </c>
       <c r="F24">
-        <v>0.106848802832164</v>
+        <v>0.30853679198452538</v>
       </c>
       <c r="G24">
         <v>0.85757575757575755</v>
@@ -3065,10 +3065,10 @@
         <v>0.533864402435831</v>
       </c>
       <c r="I24">
-        <v>0.84897906580326377</v>
+        <v>0.77692134728145312</v>
       </c>
       <c r="J24">
-        <v>0.16886429911367151</v>
+        <v>0.22823146905200439</v>
       </c>
       <c r="K24">
         <v>1650</v>
@@ -3080,10 +3080,10 @@
         <v>0.78493034217823887</v>
       </c>
       <c r="N24">
-        <v>0.94003127111311047</v>
+        <v>0.68674014141555584</v>
       </c>
       <c r="O24">
-        <v>0.1060660171779821</v>
+        <v>0.31492781991612773</v>
       </c>
       <c r="P24">
         <v>0.84848484848484851</v>
@@ -3092,10 +3092,10 @@
         <v>0.46800271533386162</v>
       </c>
       <c r="R24">
-        <v>0.87770674616587352</v>
+        <v>0.83175716054800386</v>
       </c>
       <c r="S24">
-        <v>0.15195693169746841</v>
+        <v>0.18412240628018131</v>
       </c>
       <c r="T24">
         <v>1650</v>
@@ -3107,10 +3107,10 @@
         <v>0.69073472115383705</v>
       </c>
       <c r="W24">
-        <v>0.93587182392432278</v>
+        <v>0.86988242326539722</v>
       </c>
       <c r="X24">
-        <v>0.1096827380689552</v>
+        <v>0.17034166749540311</v>
       </c>
       <c r="Y24">
         <v>0.82121212121212117</v>
@@ -3119,10 +3119,10 @@
         <v>0.50725043016744908</v>
       </c>
       <c r="AA24">
-        <v>0.83373253153260496</v>
+        <v>0.45894926847486389</v>
       </c>
       <c r="AB24">
-        <v>0.177183349652103</v>
+        <v>0.55800670008356112</v>
       </c>
       <c r="AC24">
         <v>1650</v>
@@ -3134,10 +3134,10 @@
         <v>0.74821286892525785</v>
       </c>
       <c r="AF24">
-        <v>0.93906207953514054</v>
+        <v>0.6933768977518846</v>
       </c>
       <c r="AG24">
-        <v>0.1069196809844576</v>
+        <v>0.31220941752432652</v>
       </c>
       <c r="AH24">
         <v>0.8545454545454545</v>
@@ -3146,10 +3146,10 @@
         <v>0.48930078384261633</v>
       </c>
       <c r="AJ24">
-        <v>0.88749662606598079</v>
+        <v>0.85344479607102453</v>
       </c>
       <c r="AK24">
-        <v>0.14574781042068599</v>
+        <v>0.16963199141689711</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
@@ -3166,10 +3166,10 @@
         <v>0.75338393700521622</v>
       </c>
       <c r="E25">
-        <v>0.93712040927900919</v>
+        <v>0.69901857417829849</v>
       </c>
       <c r="F25">
-        <v>0.1091410312663498</v>
+        <v>0.30990980321574613</v>
       </c>
       <c r="G25">
         <v>0.8294117647058824</v>
@@ -3178,10 +3178,10 @@
         <v>0.44407257581500981</v>
       </c>
       <c r="I25">
-        <v>0.86477355814343904</v>
+        <v>0.8043097657132583</v>
       </c>
       <c r="J25">
-        <v>0.1590412451128915</v>
+        <v>0.20012965454140641</v>
       </c>
       <c r="K25">
         <v>1700</v>
@@ -3193,10 +3193,10 @@
         <v>0.70468128678359476</v>
       </c>
       <c r="N25">
-        <v>0.94523265277326052</v>
+        <v>0.7007326138148402</v>
       </c>
       <c r="O25">
-        <v>0.10185774393731679</v>
+        <v>0.31011501859735058</v>
       </c>
       <c r="P25">
         <v>0.83529411764705885</v>
@@ -3205,10 +3205,10 @@
         <v>0.46584722638680659</v>
       </c>
       <c r="R25">
-        <v>0.84779163288703363</v>
+        <v>0.80876963726255524</v>
       </c>
       <c r="S25">
-        <v>0.16873229754642149</v>
+        <v>0.1933244174960598</v>
       </c>
       <c r="T25">
         <v>1700</v>
@@ -3220,10 +3220,10 @@
         <v>0.72354428753943556</v>
       </c>
       <c r="W25">
-        <v>0.94038083250157911</v>
+        <v>0.69792479039492195</v>
       </c>
       <c r="X25">
-        <v>0.1062737862648114</v>
+        <v>0.30696025572812913</v>
       </c>
       <c r="Y25">
         <v>0.83529411764705885</v>
@@ -3232,10 +3232,10 @@
         <v>0.45408643878732152</v>
       </c>
       <c r="AA25">
-        <v>0.86367287780274604</v>
+        <v>0.73673443340099198</v>
       </c>
       <c r="AB25">
-        <v>0.1596871942267131</v>
+        <v>0.24787368492973361</v>
       </c>
       <c r="AC25">
         <v>1700</v>
@@ -3247,10 +3247,10 @@
         <v>0.7544719225475085</v>
       </c>
       <c r="AF25">
-        <v>0.9470957517575862</v>
+        <v>0.87160333917813992</v>
       </c>
       <c r="AG25">
-        <v>0.10011023336067799</v>
+        <v>0.1718769319321323</v>
       </c>
       <c r="AH25">
         <v>0.8529411764705882</v>
@@ -3259,10 +3259,10 @@
         <v>0.52271099332072923</v>
       </c>
       <c r="AJ25">
-        <v>0.83851447001547896</v>
+        <v>0.46338076271203599</v>
       </c>
       <c r="AK25">
-        <v>0.1737983957145208</v>
+        <v>0.5483756372526758</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.3">
@@ -3279,10 +3279,10 @@
         <v>0.75891296525397678</v>
       </c>
       <c r="E26">
-        <v>0.93937078908677407</v>
+        <v>0.70433408293915667</v>
       </c>
       <c r="F26">
-        <v>0.1075705748400954</v>
+        <v>0.30459369715802742</v>
       </c>
       <c r="G26">
         <v>0.84857142857142853</v>
@@ -3291,10 +3291,10 @@
         <v>0.47197409756324621</v>
       </c>
       <c r="I26">
-        <v>0.86206823779958808</v>
+        <v>0.78419058884886839</v>
       </c>
       <c r="J26">
-        <v>0.1566616007286315</v>
+        <v>0.20973264738652411</v>
       </c>
       <c r="K26">
         <v>1750</v>
@@ -3306,10 +3306,10 @@
         <v>0.71120415760117939</v>
       </c>
       <c r="N26">
-        <v>0.93895910925958559</v>
+        <v>0.70262738674474978</v>
       </c>
       <c r="O26">
-        <v>0.10793516572461451</v>
+        <v>0.30605038966813142</v>
       </c>
       <c r="P26">
         <v>0.82</v>
@@ -3318,10 +3318,10 @@
         <v>0.4868334624832717</v>
       </c>
       <c r="R26">
-        <v>0.872987166588445</v>
+        <v>0.83264407780536975</v>
       </c>
       <c r="S26">
-        <v>0.1503329637837291</v>
+        <v>0.18241347839104649</v>
       </c>
       <c r="T26">
         <v>1750</v>
@@ -3333,10 +3333,10 @@
         <v>0.73692234009766622</v>
       </c>
       <c r="W26">
-        <v>0.93959534171978609</v>
+        <v>0.70555270463373254</v>
       </c>
       <c r="X26">
-        <v>0.1073711852806489</v>
+        <v>0.30402594330588267</v>
       </c>
       <c r="Y26">
         <v>0.83714285714285719</v>
@@ -3345,10 +3345,10 @@
         <v>0.46959757857417761</v>
       </c>
       <c r="AA26">
-        <v>0.79254035301172043</v>
+        <v>0.71651868493467097</v>
       </c>
       <c r="AB26">
-        <v>0.1921309077537649</v>
+        <v>0.2399561731404124</v>
       </c>
       <c r="AC26">
         <v>1750</v>
@@ -3360,10 +3360,10 @@
         <v>0.73219586743570719</v>
       </c>
       <c r="AF26">
-        <v>0.94262680226544737</v>
+        <v>0.70343012185694109</v>
       </c>
       <c r="AG26">
-        <v>0.1046422476822817</v>
+        <v>0.30823751443986591</v>
       </c>
       <c r="AH26">
         <v>0.84285714285714286</v>
@@ -3372,10 +3372,10 @@
         <v>0.46882095404541252</v>
       </c>
       <c r="AJ26">
-        <v>0.83252290107679916</v>
+        <v>0.83245086445874628</v>
       </c>
       <c r="AK26">
-        <v>0.17262676501632071</v>
+        <v>0.17224567056857989</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
@@ -3392,10 +3392,10 @@
         <v>0.75167314689071651</v>
       </c>
       <c r="E27">
-        <v>0.93617193215969829</v>
+        <v>0.69465876371483137</v>
       </c>
       <c r="F27">
-        <v>0.1097977939466707</v>
+        <v>0.31418407579593072</v>
       </c>
       <c r="G27">
         <v>0.84444444444444444</v>
@@ -3404,10 +3404,10 @@
         <v>0.51185366106332642</v>
       </c>
       <c r="I27">
-        <v>0.88298286534814019</v>
+        <v>0.78873590173604913</v>
       </c>
       <c r="J27">
-        <v>0.1508310312899836</v>
+        <v>0.22468904306826651</v>
       </c>
       <c r="K27">
         <v>1800</v>
@@ -3419,10 +3419,10 @@
         <v>0.73655454045890867</v>
       </c>
       <c r="N27">
-        <v>0.94959200402704291</v>
+        <v>0.84747026720896157</v>
       </c>
       <c r="O27">
-        <v>9.757475766474305E-2</v>
+        <v>0.19418077800235711</v>
       </c>
       <c r="P27">
         <v>0.85277777777777775</v>
@@ -3431,10 +3431,10 @@
         <v>0.53843039900315026</v>
       </c>
       <c r="R27">
-        <v>0.8985565743555306</v>
+        <v>0.49434143202316588</v>
       </c>
       <c r="S27">
-        <v>0.14043582955293929</v>
+        <v>0.52392707954886286</v>
       </c>
       <c r="T27">
         <v>1800</v>
@@ -3446,10 +3446,10 @@
         <v>0.75675406228948761</v>
       </c>
       <c r="W27">
-        <v>0.93962806025704182</v>
+        <v>0.70644960641874677</v>
       </c>
       <c r="X27">
-        <v>0.1067837898642756</v>
+        <v>0.29672005654514738</v>
       </c>
       <c r="Y27">
         <v>0.85555555555555551</v>
@@ -3458,10 +3458,10 @@
         <v>0.52907449372216986</v>
       </c>
       <c r="AA27">
-        <v>0.88812647566250769</v>
+        <v>0.69270090398076223</v>
       </c>
       <c r="AB27">
-        <v>0.14747881203752619</v>
+        <v>0.31958198106670732</v>
       </c>
       <c r="AC27">
         <v>1800</v>
@@ -3473,10 +3473,10 @@
         <v>0.7550112650715427</v>
       </c>
       <c r="AF27">
-        <v>0.94389306939844453</v>
+        <v>0.69698969319300774</v>
       </c>
       <c r="AG27">
-        <v>0.10294281044454839</v>
+        <v>0.31305975634491717</v>
       </c>
       <c r="AH27">
         <v>0.85</v>
@@ -3485,10 +3485,10 @@
         <v>0.50557506739393143</v>
       </c>
       <c r="AJ27">
-        <v>0.82425998092577846</v>
+        <v>0.71440045672795294</v>
       </c>
       <c r="AK27">
-        <v>0.18484227510682361</v>
+        <v>0.26091958113090091</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
@@ -3505,10 +3505,10 @@
         <v>0.77180953894384274</v>
       </c>
       <c r="E28">
-        <v>0.94873225351671964</v>
+        <v>0.70010405136210374</v>
       </c>
       <c r="F28">
-        <v>9.8193135665849335E-2</v>
+        <v>0.30990497543530848</v>
       </c>
       <c r="G28">
         <v>0.84864864864864864</v>
@@ -3517,10 +3517,10 @@
         <v>0.49938862396988942</v>
       </c>
       <c r="I28">
-        <v>0.87768646460569988</v>
+        <v>0.81841625229898851</v>
       </c>
       <c r="J28">
-        <v>0.1528998965937465</v>
+        <v>0.20334818934751669</v>
       </c>
       <c r="K28">
         <v>1850</v>
@@ -3532,10 +3532,10 @@
         <v>0.77030121687864805</v>
       </c>
       <c r="N28">
-        <v>0.9434509930170405</v>
+        <v>0.69721852357576908</v>
       </c>
       <c r="O28">
-        <v>0.1031267915487296</v>
+        <v>0.314458274006778</v>
       </c>
       <c r="P28">
         <v>0.85945945945945945</v>
@@ -3544,10 +3544,10 @@
         <v>0.52496247041709876</v>
       </c>
       <c r="R28">
-        <v>0.89889690426945135</v>
+        <v>0.84723948057270893</v>
       </c>
       <c r="S28">
-        <v>0.13901195748684469</v>
+        <v>0.17574986428946829</v>
       </c>
       <c r="T28">
         <v>1850</v>
@@ -3559,10 +3559,10 @@
         <v>0.78643697729758455</v>
       </c>
       <c r="W28">
-        <v>0.95498354145511544</v>
+        <v>0.70315521377141121</v>
       </c>
       <c r="X28">
-        <v>9.2012043865008317E-2</v>
+        <v>0.30963482394516512</v>
       </c>
       <c r="Y28">
         <v>0.8405405405405405</v>
@@ -3571,10 +3571,10 @@
         <v>0.4522728206029914</v>
       </c>
       <c r="AA28">
-        <v>0.88037312029644166</v>
+        <v>0.81639974765415757</v>
       </c>
       <c r="AB28">
-        <v>0.1512113251871858</v>
+        <v>0.19950793592755009</v>
       </c>
       <c r="AC28">
         <v>1850</v>
@@ -3586,10 +3586,10 @@
         <v>0.76962156527989367</v>
       </c>
       <c r="AF28">
-        <v>0.94927115764934</v>
+        <v>0.69727274986284682</v>
       </c>
       <c r="AG28">
-        <v>9.7675690632524015E-2</v>
+        <v>0.30859003974107613</v>
       </c>
       <c r="AH28">
         <v>0.85675675675675678</v>
@@ -3598,10 +3598,10 @@
         <v>0.47730103199060442</v>
       </c>
       <c r="AJ28">
-        <v>0.83950767321094721</v>
+        <v>0.7040823598858954</v>
       </c>
       <c r="AK28">
-        <v>0.17514472779868559</v>
+        <v>0.27222768572139772</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.3">
@@ -3618,10 +3618,10 @@
         <v>0.79457794457919495</v>
       </c>
       <c r="E29">
-        <v>0.94939065721716065</v>
+        <v>0.7206156674058406</v>
       </c>
       <c r="F29">
-        <v>9.820762109991904E-2</v>
+        <v>0.29391160716432929</v>
       </c>
       <c r="G29">
         <v>0.88684210526315788</v>
@@ -3630,10 +3630,10 @@
         <v>0.56445065639755199</v>
       </c>
       <c r="I29">
-        <v>0.88752318600990143</v>
+        <v>0.74805509746629006</v>
       </c>
       <c r="J29">
-        <v>0.14599927901768631</v>
+        <v>0.2639766698053248</v>
       </c>
       <c r="K29">
         <v>1900</v>
@@ -3645,10 +3645,10 @@
         <v>0.80297729663216588</v>
       </c>
       <c r="N29">
-        <v>0.9506077402277775</v>
+        <v>0.72118024278493864</v>
       </c>
       <c r="O29">
-        <v>9.6858551235130597E-2</v>
+        <v>0.29525489526003518</v>
       </c>
       <c r="P29">
         <v>0.83421052631578951</v>
@@ -3657,10 +3657,10 @@
         <v>0.51099694054169764</v>
       </c>
       <c r="R29">
-        <v>0.87270191289698162</v>
+        <v>0.76124118053051282</v>
       </c>
       <c r="S29">
-        <v>0.15635654262311069</v>
+        <v>0.25043589662487009</v>
       </c>
       <c r="T29">
         <v>1900</v>
@@ -3672,10 +3672,10 @@
         <v>0.72911951681169751</v>
       </c>
       <c r="W29">
-        <v>0.94193389184124443</v>
+        <v>0.70383663372257388</v>
       </c>
       <c r="X29">
-        <v>0.1051940562659517</v>
+        <v>0.30548031759261968</v>
       </c>
       <c r="Y29">
         <v>0.86842105263157898</v>
@@ -3684,10 +3684,10 @@
         <v>0.57882739246898007</v>
       </c>
       <c r="AA29">
-        <v>0.90738020378840034</v>
+        <v>0.80233000257295539</v>
       </c>
       <c r="AB29">
-        <v>0.13248634487730179</v>
+        <v>0.22362741141947379</v>
       </c>
       <c r="AC29">
         <v>1900</v>
@@ -3699,10 +3699,10 @@
         <v>0.78947463786264493</v>
       </c>
       <c r="AF29">
-        <v>0.95446540032021487</v>
+        <v>0.8523366366394779</v>
       </c>
       <c r="AG29">
-        <v>9.3153806035756626E-2</v>
+        <v>0.18977923378419281</v>
       </c>
       <c r="AH29">
         <v>0.85</v>
@@ -3711,10 +3711,10 @@
         <v>0.53320445518221904</v>
       </c>
       <c r="AJ29">
-        <v>0.88960608997268109</v>
+        <v>0.50655766239885702</v>
       </c>
       <c r="AK29">
-        <v>0.14464111667011889</v>
+        <v>0.51502067793538753</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
@@ -3731,10 +3731,10 @@
         <v>0.79749276645941147</v>
       </c>
       <c r="E30">
-        <v>0.95285073289340927</v>
+        <v>0.88858921813466274</v>
       </c>
       <c r="F30">
-        <v>9.4360193693348013E-2</v>
+        <v>0.1572990388190447</v>
       </c>
       <c r="G30">
         <v>0.8487179487179487</v>
@@ -3743,10 +3743,10 @@
         <v>0.55509623567736954</v>
       </c>
       <c r="I30">
-        <v>0.91133440025094237</v>
+        <v>0.51503459507731553</v>
       </c>
       <c r="J30">
-        <v>0.13018724188152209</v>
+        <v>0.54106431998876625</v>
       </c>
       <c r="K30">
         <v>1950</v>
@@ -3758,10 +3758,10 @@
         <v>0.79999374786875221</v>
       </c>
       <c r="N30">
-        <v>0.95308834619056271</v>
+        <v>0.71223280187364968</v>
       </c>
       <c r="O30">
-        <v>9.4122124704951057E-2</v>
+        <v>0.30260795801691642</v>
       </c>
       <c r="P30">
         <v>0.86153846153846159</v>
@@ -3770,10 +3770,10 @@
         <v>0.57462017866052828</v>
       </c>
       <c r="R30">
-        <v>0.90274953128885504</v>
+        <v>0.86812316996542149</v>
       </c>
       <c r="S30">
-        <v>0.13634420996046581</v>
+        <v>0.17029507918647729</v>
       </c>
       <c r="T30">
         <v>1950</v>
@@ -3785,10 +3785,10 @@
         <v>0.73006447698409394</v>
       </c>
       <c r="W30">
-        <v>0.95193422446153175</v>
+        <v>0.71686650581325095</v>
       </c>
       <c r="X30">
-        <v>9.5272887417790983E-2</v>
+        <v>0.29434457086205262</v>
       </c>
       <c r="Y30">
         <v>0.84615384615384615</v>
@@ -3797,10 +3797,10 @@
         <v>0.4857559856237807</v>
       </c>
       <c r="AA30">
-        <v>0.8677393625528429</v>
+        <v>0.71450736546529892</v>
       </c>
       <c r="AB30">
-        <v>0.15900330588403269</v>
+        <v>0.27700006667983029</v>
       </c>
       <c r="AC30">
         <v>1950</v>
@@ -3812,10 +3812,10 @@
         <v>0.76351145043565982</v>
       </c>
       <c r="AF30">
-        <v>0.94629939484332148</v>
+        <v>0.70825566612920565</v>
       </c>
       <c r="AG30">
-        <v>0.1007026595528919</v>
+        <v>0.30272412159491668</v>
       </c>
       <c r="AH30">
         <v>0.85384615384615381</v>
@@ -3824,10 +3824,10 @@
         <v>0.53068210945178973</v>
       </c>
       <c r="AJ30">
-        <v>0.85942277074582085</v>
+        <v>0.80872638478163461</v>
       </c>
       <c r="AK30">
-        <v>0.16392618726669289</v>
+        <v>0.21258296596139981</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.3">
@@ -3844,10 +3844,10 @@
         <v>0.79170393946786133</v>
       </c>
       <c r="E31">
-        <v>0.95400904555715327</v>
+        <v>0.71677452398646313</v>
       </c>
       <c r="F31">
-        <v>9.2668764964253192E-2</v>
+        <v>0.29559055113640698</v>
       </c>
       <c r="G31">
         <v>0.875</v>
@@ -3856,10 +3856,10 @@
         <v>0.54424123983631512</v>
       </c>
       <c r="I31">
-        <v>0.90750827491969266</v>
+        <v>0.77685333629409536</v>
       </c>
       <c r="J31">
-        <v>0.13190905958272919</v>
+        <v>0.2277672026034267</v>
       </c>
       <c r="K31">
         <v>2000</v>
@@ -3871,10 +3871,10 @@
         <v>0.7775172154817247</v>
       </c>
       <c r="N31">
-        <v>0.94651124803517539</v>
+        <v>0.70751314536092669</v>
       </c>
       <c r="O31">
-        <v>9.9937480456533417E-2</v>
+        <v>0.30450114853527938</v>
       </c>
       <c r="P31">
         <v>0.87250000000000005</v>
@@ -3883,10 +3883,10 @@
         <v>0.60890711471815695</v>
       </c>
       <c r="R31">
-        <v>0.9093687406540667</v>
+        <v>0.89838899058226385</v>
       </c>
       <c r="S31">
-        <v>0.13057564857200599</v>
+        <v>0.14198778153046071</v>
       </c>
       <c r="T31">
         <v>2000</v>
@@ -3898,10 +3898,10 @@
         <v>0.77983115121516877</v>
       </c>
       <c r="W31">
-        <v>0.9451054109998045</v>
+        <v>0.70760872750206638</v>
       </c>
       <c r="X31">
-        <v>0.1012422836565829</v>
+        <v>0.30281911811333367</v>
       </c>
       <c r="Y31">
         <v>0.875</v>
@@ -3910,10 +3910,10 @@
         <v>0.57552409745985034</v>
       </c>
       <c r="AA31">
-        <v>0.87534879579694214</v>
+        <v>0.84406243077415555</v>
       </c>
       <c r="AB31">
-        <v>0.15313392831113551</v>
+        <v>0.18182016058662531</v>
       </c>
       <c r="AC31">
         <v>2000</v>
@@ -3925,10 +3925,10 @@
         <v>0.74295815831578982</v>
       </c>
       <c r="AF31">
-        <v>0.94754888965652051</v>
+        <v>0.85559040432366729</v>
       </c>
       <c r="AG31">
-        <v>9.8963377064447425E-2</v>
+        <v>0.18383569635027569</v>
       </c>
       <c r="AH31">
         <v>0.86499999999999999</v>
@@ -3937,10 +3937,10 @@
         <v>0.5597743910232007</v>
       </c>
       <c r="AJ31">
-        <v>0.89833883665742087</v>
+        <v>0.49804026493328157</v>
       </c>
       <c r="AK31">
-        <v>0.1382931668593933</v>
+        <v>0.5157904134126815</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
@@ -3957,10 +3957,10 @@
         <v>0.75695386458590652</v>
       </c>
       <c r="E32">
-        <v>0.94683971126778266</v>
+        <v>0.72193420622608295</v>
       </c>
       <c r="F32">
-        <v>9.9327003672398093E-2</v>
+        <v>0.28487357757224369</v>
       </c>
       <c r="G32">
         <v>0.84634146341463412</v>
@@ -3969,10 +3969,10 @@
         <v>0.48166122573742209</v>
       </c>
       <c r="I32">
-        <v>0.88287735577752646</v>
+        <v>0.73749187580605235</v>
       </c>
       <c r="J32">
-        <v>0.14766474883593739</v>
+        <v>0.27125028594106809</v>
       </c>
       <c r="K32">
         <v>2050</v>
@@ -3984,10 +3984,10 @@
         <v>0.7705248283377284</v>
       </c>
       <c r="N32">
-        <v>0.94588690015947963</v>
+        <v>0.71241043183057684</v>
       </c>
       <c r="O32">
-        <v>0.1002131873898304</v>
+        <v>0.29684947354367819</v>
       </c>
       <c r="P32">
         <v>0.84878048780487803</v>
@@ -3996,10 +3996,10 @@
         <v>0.5313169754851611</v>
       </c>
       <c r="R32">
-        <v>0.88562855882973213</v>
+        <v>0.82990193249904332</v>
       </c>
       <c r="S32">
-        <v>0.14592012516040839</v>
+        <v>0.19432434741521629</v>
       </c>
       <c r="T32">
         <v>2050</v>
@@ -4011,10 +4011,10 @@
         <v>0.77127549554137675</v>
       </c>
       <c r="W32">
-        <v>0.95446220013420691</v>
+        <v>0.72055986033511432</v>
       </c>
       <c r="X32">
-        <v>9.1930514586806927E-2</v>
+        <v>0.29158639302308959</v>
       </c>
       <c r="Y32">
         <v>0.85853658536585364</v>
@@ -4023,10 +4023,10 @@
         <v>0.45631827101716471</v>
       </c>
       <c r="AA32">
-        <v>0.85615138327038476</v>
+        <v>0.73504464847805817</v>
       </c>
       <c r="AB32">
-        <v>0.1636474497353321</v>
+        <v>0.2471921938835959</v>
       </c>
       <c r="AC32">
         <v>2050</v>
@@ -4038,10 +4038,10 @@
         <v>0.73651446672825815</v>
       </c>
       <c r="AF32">
-        <v>0.94628116682498442</v>
+        <v>0.72265991919033756</v>
       </c>
       <c r="AG32">
-        <v>9.9847444609874464E-2</v>
+        <v>0.286197674513953</v>
       </c>
       <c r="AH32">
         <v>0.85609756097560974</v>
@@ -4050,10 +4050,10 @@
         <v>0.55096957836683857</v>
       </c>
       <c r="AJ32">
-        <v>0.90213577714296667</v>
+        <v>0.78358517466217814</v>
       </c>
       <c r="AK32">
-        <v>0.13497967326646609</v>
+        <v>0.2400758864746502</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.3">
@@ -4070,10 +4070,10 @@
         <v>0.82610783116919551</v>
       </c>
       <c r="E33">
-        <v>0.95505564232901186</v>
+        <v>0.72267299351987424</v>
       </c>
       <c r="F33">
-        <v>9.1156589501383875E-2</v>
+        <v>0.28820314647869871</v>
       </c>
       <c r="G33">
         <v>0.86428571428571432</v>
@@ -4082,10 +4082,10 @@
         <v>0.51109801983734993</v>
       </c>
       <c r="I33">
-        <v>0.88998338808843647</v>
+        <v>0.76008701288943448</v>
       </c>
       <c r="J33">
-        <v>0.14384184436552591</v>
+        <v>0.23817134428971759</v>
       </c>
       <c r="K33">
         <v>2100</v>
@@ -4097,10 +4097,10 @@
         <v>0.78190815470212272</v>
       </c>
       <c r="N33">
-        <v>0.95483027663868458</v>
+        <v>0.73074205841262718</v>
       </c>
       <c r="O33">
-        <v>9.1384848176218336E-2</v>
+        <v>0.28098553728978642</v>
       </c>
       <c r="P33">
         <v>0.84523809523809523</v>
@@ -4109,10 +4109,10 @@
         <v>0.53980217914915518</v>
       </c>
       <c r="R33">
-        <v>0.88226070301754422</v>
+        <v>0.76852723185771554</v>
       </c>
       <c r="S33">
-        <v>0.148804761828569</v>
+        <v>0.24604895204918539</v>
       </c>
       <c r="T33">
         <v>2100</v>
@@ -4124,10 +4124,10 @@
         <v>0.77580211088006057</v>
       </c>
       <c r="W33">
-        <v>0.94951808536668381</v>
+        <v>0.71039731483788759</v>
       </c>
       <c r="X33">
-        <v>9.6609178307929588E-2</v>
+        <v>0.29906153852829281</v>
       </c>
       <c r="Y33">
         <v>0.86904761904761907</v>
@@ -4136,10 +4136,10 @@
         <v>0.6045196200787617</v>
       </c>
       <c r="AA33">
-        <v>0.91656968095544267</v>
+        <v>0.90349251666917363</v>
       </c>
       <c r="AB33">
-        <v>0.12526163095887019</v>
+        <v>0.13862493214029889</v>
       </c>
       <c r="AC33">
         <v>2100</v>
@@ -4151,10 +4151,10 @@
         <v>0.77878239561019691</v>
       </c>
       <c r="AF33">
-        <v>0.95779222571155764</v>
+        <v>0.72489520555016695</v>
       </c>
       <c r="AG33">
-        <v>8.833782558208815E-2</v>
+        <v>0.28818058380556089</v>
       </c>
       <c r="AH33">
         <v>0.87142857142857144</v>
@@ -4163,10 +4163,10 @@
         <v>0.49939656967327312</v>
       </c>
       <c r="AJ33">
-        <v>0.84466008881992127</v>
+        <v>0.72643113306559748</v>
       </c>
       <c r="AK33">
-        <v>0.1709218702047392</v>
+        <v>0.24918374190686871</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.3">
@@ -4183,10 +4183,10 @@
         <v>0.8137136147842563</v>
       </c>
       <c r="E34">
-        <v>0.95110485731783245</v>
+        <v>0.72837368723943618</v>
       </c>
       <c r="F34">
-        <v>9.6508825961007794E-2</v>
+        <v>0.2886894826282641</v>
       </c>
       <c r="G34">
         <v>0.86744186046511629</v>
@@ -4195,10 +4195,10 @@
         <v>0.51975029035988718</v>
       </c>
       <c r="I34">
-        <v>0.87411279417345034</v>
+        <v>0.75845255999590955</v>
       </c>
       <c r="J34">
-        <v>0.1534866102788244</v>
+        <v>0.2382480695330001</v>
       </c>
       <c r="K34">
         <v>2150</v>
@@ -4210,10 +4210,10 @@
         <v>0.78804683697929456</v>
       </c>
       <c r="N34">
-        <v>0.95467585088450768</v>
+        <v>0.72847501033236961</v>
       </c>
       <c r="O34">
-        <v>9.2917818152561879E-2</v>
+        <v>0.29046664928103549</v>
       </c>
       <c r="P34">
         <v>0.8651162790697674</v>
@@ -4222,10 +4222,10 @@
         <v>0.57803133974090415</v>
       </c>
       <c r="R34">
-        <v>0.8942448053717732</v>
+        <v>0.81984310268010963</v>
       </c>
       <c r="S34">
-        <v>0.14067941453680641</v>
+        <v>0.19887908978543201</v>
       </c>
       <c r="T34">
         <v>2150</v>
@@ -4237,10 +4237,10 @@
         <v>0.78099079609260635</v>
       </c>
       <c r="W34">
-        <v>0.95488950007225748</v>
+        <v>0.72383662545279703</v>
       </c>
       <c r="X34">
-        <v>9.2698561239179716E-2</v>
+        <v>0.29131680305579027</v>
       </c>
       <c r="Y34">
         <v>0.89302325581395348</v>
@@ -4249,10 +4249,10 @@
         <v>0.56967901647733943</v>
       </c>
       <c r="AA34">
-        <v>0.91512244661447839</v>
+        <v>0.77933549441065586</v>
       </c>
       <c r="AB34">
-        <v>0.12603063488784211</v>
+        <v>0.22686474996616449</v>
       </c>
       <c r="AC34">
         <v>2150</v>
@@ -4264,10 +4264,10 @@
         <v>0.81871584253511576</v>
       </c>
       <c r="AF34">
-        <v>0.95818580182611146</v>
+        <v>0.86074876850821036</v>
       </c>
       <c r="AG34">
-        <v>8.9247500127845408E-2</v>
+        <v>0.18461805723050101</v>
       </c>
       <c r="AH34">
         <v>0.85813953488372097</v>
@@ -4276,10 +4276,10 @@
         <v>0.56819167869167875</v>
       </c>
       <c r="AJ34">
-        <v>0.91201565476288526</v>
+        <v>0.52430578667085492</v>
       </c>
       <c r="AK34">
-        <v>0.12831646924331169</v>
+        <v>0.479467060062226</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.3">
@@ -4296,10 +4296,10 @@
         <v>0.8002947991374979</v>
       </c>
       <c r="E35">
-        <v>0.94847270390571226</v>
+        <v>0.74163762160367008</v>
       </c>
       <c r="F35">
-        <v>9.8280674138362056E-2</v>
+        <v>0.27013923169301551</v>
       </c>
       <c r="G35">
         <v>0.86136363636363633</v>
@@ -4308,10 +4308,10 @@
         <v>0.53719040382563665</v>
       </c>
       <c r="I35">
-        <v>0.90979658734347413</v>
+        <v>0.72359749489267688</v>
       </c>
       <c r="J35">
-        <v>0.1319435140849709</v>
+        <v>0.29457337264081879</v>
       </c>
       <c r="K35">
         <v>2200</v>
@@ -4323,10 +4323,10 @@
         <v>0.80730850720689884</v>
       </c>
       <c r="N35">
-        <v>0.95956622765307065</v>
+        <v>0.73121530404254931</v>
       </c>
       <c r="O35">
-        <v>8.7060584965559781E-2</v>
+        <v>0.28245685798426651</v>
       </c>
       <c r="P35">
         <v>0.85681818181818181</v>
@@ -4335,10 +4335,10 @@
         <v>0.54854910937885526</v>
       </c>
       <c r="R35">
-        <v>0.88094562637630858</v>
+        <v>0.7612330568149126</v>
       </c>
       <c r="S35">
-        <v>0.15158256076235391</v>
+        <v>0.24747853555869409</v>
       </c>
       <c r="T35">
         <v>2200</v>
@@ -4350,10 +4350,10 @@
         <v>0.80260845773700051</v>
       </c>
       <c r="W35">
-        <v>0.95044286522696442</v>
+        <v>0.72498583780703485</v>
       </c>
       <c r="X35">
-        <v>9.6383467084727378E-2</v>
+        <v>0.28923605141818121</v>
       </c>
       <c r="Y35">
         <v>0.875</v>
@@ -4362,10 +4362,10 @@
         <v>0.65046656597456054</v>
       </c>
       <c r="AA35">
-        <v>0.91215176783058971</v>
+        <v>0.85022249461014598</v>
       </c>
       <c r="AB35">
-        <v>0.13020962120575211</v>
+        <v>0.184404268085853</v>
       </c>
       <c r="AC35">
         <v>2200</v>
@@ -4377,10 +4377,10 @@
         <v>0.75828211267956724</v>
       </c>
       <c r="AF35">
-        <v>0.95041255505279132</v>
+        <v>0.74330475322688694</v>
       </c>
       <c r="AG35">
-        <v>9.6412937645600993E-2</v>
+        <v>0.26967016519776749</v>
       </c>
       <c r="AH35">
         <v>0.86590909090909096</v>
@@ -4389,10 +4389,10 @@
         <v>0.54308399767225635</v>
       </c>
       <c r="AJ35">
-        <v>0.90025810637065617</v>
+        <v>0.70404278505953699</v>
       </c>
       <c r="AK35">
-        <v>0.13874436925511599</v>
+        <v>0.30314832113060558</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.3">
@@ -4409,10 +4409,10 @@
         <v>0.80224072315286021</v>
       </c>
       <c r="E36">
-        <v>0.9599397979225045</v>
+        <v>0.730735667889999</v>
       </c>
       <c r="F36">
-        <v>8.6474145140485653E-2</v>
+        <v>0.28613417636423599</v>
       </c>
       <c r="G36">
         <v>0.87777777777777777</v>
@@ -4421,10 +4421,10 @@
         <v>0.56238476495688838</v>
       </c>
       <c r="I36">
-        <v>0.87926498053291546</v>
+        <v>0.84464733704781536</v>
       </c>
       <c r="J36">
-        <v>0.15275252316519469</v>
+        <v>0.18188884263739841</v>
       </c>
       <c r="K36">
         <v>2250</v>
@@ -4436,10 +4436,10 @@
         <v>0.76823383618261443</v>
       </c>
       <c r="N36">
-        <v>0.94812412167825066</v>
+        <v>0.72459906010827169</v>
       </c>
       <c r="O36">
-        <v>9.8403929460836745E-2</v>
+        <v>0.29064860167821971</v>
       </c>
       <c r="P36">
         <v>0.85777777777777775</v>
@@ -4448,10 +4448,10 @@
         <v>0.56007504703212851</v>
       </c>
       <c r="R36">
-        <v>0.89869756938047474</v>
+        <v>0.88377448920910018</v>
       </c>
       <c r="S36">
-        <v>0.13992061241210241</v>
+        <v>0.1533259846077076</v>
       </c>
       <c r="T36">
         <v>2250</v>
@@ -4463,10 +4463,10 @@
         <v>0.80671909552037957</v>
       </c>
       <c r="W36">
-        <v>0.95321349356179574</v>
+        <v>0.72923926178718257</v>
       </c>
       <c r="X36">
-        <v>9.345230512584124E-2</v>
+        <v>0.28478615340027741</v>
       </c>
       <c r="Y36">
         <v>0.85777777777777775</v>
@@ -4475,10 +4475,10 @@
         <v>0.48624079021764272</v>
       </c>
       <c r="AA36">
-        <v>0.89191341114375289</v>
+        <v>0.81431810404460037</v>
       </c>
       <c r="AB36">
-        <v>0.14452988925785859</v>
+        <v>0.2071437182525295</v>
       </c>
       <c r="AC36">
         <v>2250</v>
@@ -4490,10 +4490,10 @@
         <v>0.80924640205518406</v>
       </c>
       <c r="AF36">
-        <v>0.95684450742023142</v>
+        <v>0.72927586852726911</v>
       </c>
       <c r="AG36">
-        <v>8.9752746785575072E-2</v>
+        <v>0.28491551181325991</v>
       </c>
       <c r="AH36">
         <v>0.87555555555555553</v>
@@ -4502,10 +4502,10 @@
         <v>0.52091200979501906</v>
       </c>
       <c r="AJ36">
-        <v>0.8892687392887596</v>
+        <v>0.80359309507359267</v>
       </c>
       <c r="AK36">
-        <v>0.1462873883832779</v>
+        <v>0.21246502289872629</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.3">
@@ -4522,10 +4522,10 @@
         <v>0.80896700413098743</v>
       </c>
       <c r="E37">
-        <v>0.95567838457678522</v>
+        <v>0.7363363035951056</v>
       </c>
       <c r="F37">
-        <v>9.2342698211842822E-2</v>
+        <v>0.28347006258035429</v>
       </c>
       <c r="G37">
         <v>0.86521739130434783</v>
@@ -4534,10 +4534,10 @@
         <v>0.66039032832253475</v>
       </c>
       <c r="I37">
-        <v>0.8958690495414684</v>
+        <v>0.87017117808080346</v>
       </c>
       <c r="J37">
-        <v>0.14149819479567499</v>
+        <v>0.16987243040764571</v>
       </c>
       <c r="K37">
         <v>2300</v>
@@ -4549,10 +4549,10 @@
         <v>0.81689015122457109</v>
       </c>
       <c r="N37">
-        <v>0.95485918327195851</v>
+        <v>0.73559540587080274</v>
       </c>
       <c r="O37">
-        <v>9.3192181049139802E-2</v>
+        <v>0.28636730160406138</v>
       </c>
       <c r="P37">
         <v>0.84565217391304348</v>
@@ -4561,10 +4561,10 @@
         <v>0.58001456387284023</v>
       </c>
       <c r="R37">
-        <v>0.89259022482561889</v>
+        <v>0.88366160102728286</v>
       </c>
       <c r="S37">
-        <v>0.14370864244381221</v>
+        <v>0.1528034622170811</v>
       </c>
       <c r="T37">
         <v>2300</v>
@@ -4576,10 +4576,10 @@
         <v>0.83467351393516243</v>
       </c>
       <c r="W37">
-        <v>0.95437896181740489</v>
+        <v>0.73497315010856112</v>
       </c>
       <c r="X37">
-        <v>9.3686572746810831E-2</v>
+        <v>0.28521624629206732</v>
       </c>
       <c r="Y37">
         <v>0.89130434782608692</v>
@@ -4588,10 +4588,10 @@
         <v>0.59931852645948425</v>
       </c>
       <c r="AA37">
-        <v>0.9257176607478228</v>
+        <v>0.87985668902820813</v>
       </c>
       <c r="AB37">
-        <v>0.1195098686119777</v>
+        <v>0.1601698367393096</v>
       </c>
       <c r="AC37">
         <v>2300</v>
@@ -4603,10 +4603,10 @@
         <v>0.78171130979627912</v>
       </c>
       <c r="AF37">
-        <v>0.95483093495110238</v>
+        <v>0.73966593524869684</v>
       </c>
       <c r="AG37">
-        <v>9.3221335494104288E-2</v>
+        <v>0.27985341758050603</v>
       </c>
       <c r="AH37">
         <v>0.88478260869565217</v>
@@ -4615,10 +4615,10 @@
         <v>0.58199702189149327</v>
       </c>
       <c r="AJ37">
-        <v>0.90106994391833317</v>
+        <v>0.80741165809893167</v>
       </c>
       <c r="AK37">
-        <v>0.1379193210918426</v>
+        <v>0.21409194516434471</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.3">
@@ -4635,10 +4635,10 @@
         <v>0.7918665285074411</v>
       </c>
       <c r="E38">
-        <v>0.9510174907874932</v>
+        <v>0.73417236933848873</v>
       </c>
       <c r="F38">
-        <v>9.667339179345609E-2</v>
+        <v>0.28391659740161512</v>
       </c>
       <c r="G38">
         <v>0.86595744680851061</v>
@@ -4647,10 +4647,10 @@
         <v>0.59370832235545623</v>
       </c>
       <c r="I38">
-        <v>0.91825095057034223</v>
+        <v>0.8962077367726633</v>
       </c>
       <c r="J38">
-        <v>0.12471243518335171</v>
+        <v>0.14786270102600441</v>
       </c>
       <c r="K38">
         <v>2350</v>
@@ -4662,10 +4662,10 @@
         <v>0.81036001697800764</v>
       </c>
       <c r="N38">
-        <v>0.95539441392145086</v>
+        <v>0.86871571304621442</v>
       </c>
       <c r="O38">
-        <v>9.2253120802888514E-2</v>
+        <v>0.1754945392087231</v>
       </c>
       <c r="P38">
         <v>0.82553191489361699</v>
@@ -4674,10 +4674,10 @@
         <v>0.4887987392507675</v>
       </c>
       <c r="R38">
-        <v>0.87161708789979864</v>
+        <v>0.52684231230285417</v>
       </c>
       <c r="S38">
-        <v>0.15628669781812399</v>
+        <v>0.47901582911431678</v>
       </c>
       <c r="T38">
         <v>2350</v>
@@ -4689,10 +4689,10 @@
         <v>0.80048640334847965</v>
       </c>
       <c r="W38">
-        <v>0.95308049914362614</v>
+        <v>0.74933080980050115</v>
       </c>
       <c r="X38">
-        <v>9.4615684004156875E-2</v>
+        <v>0.26906502394622861</v>
       </c>
       <c r="Y38">
         <v>0.88085106382978728</v>
@@ -4701,10 +4701,10 @@
         <v>0.53143172437819575</v>
       </c>
       <c r="AA38">
-        <v>0.89722657123685978</v>
+        <v>0.77084453967267907</v>
       </c>
       <c r="AB38">
-        <v>0.13983272681801531</v>
+        <v>0.24800199538006079</v>
       </c>
       <c r="AC38">
         <v>2350</v>
@@ -4716,10 +4716,10 @@
         <v>0.81494039285482656</v>
       </c>
       <c r="AF38">
-        <v>0.95854468343824839</v>
+        <v>0.74031722861217708</v>
       </c>
       <c r="AG38">
-        <v>8.8935788454845927E-2</v>
+        <v>0.28018254421815247</v>
       </c>
       <c r="AH38">
         <v>0.8936170212765957</v>
@@ -4728,10 +4728,10 @@
         <v>0.570923324678273</v>
       </c>
       <c r="AJ38">
-        <v>0.90527846119436373</v>
+        <v>0.85596581481329381</v>
       </c>
       <c r="AK38">
-        <v>0.13424334842272331</v>
+        <v>0.1757316005963796</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.3">
@@ -4748,10 +4748,10 @@
         <v>0.81872700571959867</v>
       </c>
       <c r="E39">
-        <v>0.95793066828556506</v>
+        <v>0.74220045234867404</v>
       </c>
       <c r="F39">
-        <v>8.9209491273817568E-2</v>
+        <v>0.27509559914740073</v>
       </c>
       <c r="G39">
         <v>0.86458333333333337</v>
@@ -4760,10 +4760,10 @@
         <v>0.54266432673756004</v>
       </c>
       <c r="I39">
-        <v>0.89362171695824477</v>
+        <v>0.83038594699090718</v>
       </c>
       <c r="J39">
-        <v>0.14134768008943999</v>
+        <v>0.1976475146948308</v>
       </c>
       <c r="K39">
         <v>2400</v>
@@ -4775,10 +4775,10 @@
         <v>0.76524433668882696</v>
       </c>
       <c r="N39">
-        <v>0.9488725464700879</v>
+        <v>0.86194315297798396</v>
       </c>
       <c r="O39">
-        <v>9.8345691313854719E-2</v>
+        <v>0.17965313155038201</v>
       </c>
       <c r="P39">
         <v>0.87916666666666665</v>
@@ -4787,10 +4787,10 @@
         <v>0.71490264739567067</v>
       </c>
       <c r="R39">
-        <v>0.92035494554329489</v>
+        <v>0.55150488100779671</v>
       </c>
       <c r="S39">
-        <v>0.12230426539304889</v>
+        <v>0.45869117866740772</v>
       </c>
       <c r="T39">
         <v>2400</v>
@@ -4802,10 +4802,10 @@
         <v>0.80698977396989735</v>
       </c>
       <c r="W39">
-        <v>0.95008396701683862</v>
+        <v>0.7423950392268488</v>
       </c>
       <c r="X39">
-        <v>9.7173598952253151E-2</v>
+        <v>0.27378877339749569</v>
       </c>
       <c r="Y39">
         <v>0.875</v>
@@ -4814,10 +4814,10 @@
         <v>0.58336014920352275</v>
       </c>
       <c r="AA39">
-        <v>0.88164168091183237</v>
+        <v>0.74457677144111734</v>
       </c>
       <c r="AB39">
-        <v>0.14909448905531911</v>
+        <v>0.24787981934537651</v>
       </c>
       <c r="AC39">
         <v>2400</v>
@@ -4829,10 +4829,10 @@
         <v>0.76638156410198222</v>
       </c>
       <c r="AF39">
-        <v>0.95352550266101688</v>
+        <v>0.86154781971546401</v>
       </c>
       <c r="AG39">
-        <v>9.3763887860234693E-2</v>
+        <v>0.1806350888121869</v>
       </c>
       <c r="AH39">
         <v>0.875</v>
@@ -4841,10 +4841,10 @@
         <v>0.62093757717756148</v>
       </c>
       <c r="AJ39">
-        <v>0.9117026972875526</v>
+        <v>0.54513345475044339</v>
       </c>
       <c r="AK39">
-        <v>0.12877629181387901</v>
+        <v>0.45827867519246618</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.3">
@@ -4861,10 +4861,10 @@
         <v>0.80643482993341709</v>
       </c>
       <c r="E40">
-        <v>0.95565781443479036</v>
+        <v>0.73832522831994007</v>
       </c>
       <c r="F40">
-        <v>9.1249825272407492E-2</v>
+        <v>0.27701456276504111</v>
       </c>
       <c r="G40">
         <v>0.8510204081632653</v>
@@ -4873,10 +4873,10 @@
         <v>0.53300842003178861</v>
       </c>
       <c r="I40">
-        <v>0.89447922957124237</v>
+        <v>0.85747194890449119</v>
       </c>
       <c r="J40">
-        <v>0.14257114228428169</v>
+        <v>0.17754602072053349</v>
       </c>
       <c r="K40">
         <v>2450</v>
@@ -4888,10 +4888,10 @@
         <v>0.82517021273413493</v>
       </c>
       <c r="N40">
-        <v>0.96277647412724443</v>
+        <v>0.74280739585978783</v>
       </c>
       <c r="O40">
-        <v>8.3604999362283036E-2</v>
+        <v>0.27503350026576162</v>
       </c>
       <c r="P40">
         <v>0.85510204081632657</v>
@@ -4900,10 +4900,10 @@
         <v>0.50148953420255338</v>
       </c>
       <c r="R40">
-        <v>0.85909375033107671</v>
+        <v>0.82195564759017936</v>
       </c>
       <c r="S40">
-        <v>0.1647508942095828</v>
+        <v>0.1968915499381986</v>
       </c>
       <c r="T40">
         <v>2450</v>
@@ -4915,10 +4915,10 @@
         <v>0.7928298803468754</v>
       </c>
       <c r="W40">
-        <v>0.95617405311477754</v>
+        <v>0.74084297791327525</v>
       </c>
       <c r="X40">
-        <v>9.0717097819180109E-2</v>
+        <v>0.2772450277673556</v>
       </c>
       <c r="Y40">
         <v>0.87142857142857144</v>
@@ -4927,10 +4927,10 @@
         <v>0.57010162754108573</v>
       </c>
       <c r="AA40">
-        <v>0.85983536217143952</v>
+        <v>0.83935354738795898</v>
       </c>
       <c r="AB40">
-        <v>0.16431676725154981</v>
+        <v>0.182700780164327</v>
       </c>
       <c r="AC40">
         <v>2450</v>
@@ -4942,10 +4942,10 @@
         <v>0.809935057246159</v>
       </c>
       <c r="AF40">
-        <v>0.95783145098210454</v>
+        <v>0.74038151169070776</v>
       </c>
       <c r="AG40">
-        <v>8.8985208585128206E-2</v>
+        <v>0.27611422272508412</v>
       </c>
       <c r="AH40">
         <v>0.87346938775510208</v>
@@ -4954,10 +4954,10 @@
         <v>0.57537657697809108</v>
       </c>
       <c r="AJ40">
-        <v>0.89871701151617245</v>
+        <v>0.84823919466019548</v>
       </c>
       <c r="AK40">
-        <v>0.1396789321323465</v>
+        <v>0.18253461182766861</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.3">
@@ -4974,10 +4974,10 @@
         <v>0.78528270394938038</v>
       </c>
       <c r="E41">
-        <v>0.9526201099253534</v>
+        <v>0.86425126458188595</v>
       </c>
       <c r="F41">
-        <v>9.415412895885128E-2</v>
+        <v>0.17686132533722379</v>
       </c>
       <c r="G41">
         <v>0.86799999999999999</v>
@@ -4986,10 +4986,10 @@
         <v>0.60250995635927251</v>
       </c>
       <c r="I41">
-        <v>0.92538660866883937</v>
+        <v>0.56373159941519968</v>
       </c>
       <c r="J41">
-        <v>0.1203328716519306</v>
+        <v>0.44788726596641459</v>
       </c>
       <c r="K41">
         <v>2500</v>
@@ -5001,10 +5001,10 @@
         <v>0.79760282000387916</v>
       </c>
       <c r="N41">
-        <v>0.95259338691910711</v>
+        <v>0.73956487200789023</v>
       </c>
       <c r="O41">
-        <v>9.418067742376883E-2</v>
+        <v>0.27642583892172912</v>
       </c>
       <c r="P41">
         <v>0.85799999999999998</v>
@@ -5013,10 +5013,10 @@
         <v>0.57107336498141892</v>
       </c>
       <c r="R41">
-        <v>0.90075594495592859</v>
+        <v>0.86624175968595007</v>
       </c>
       <c r="S41">
-        <v>0.13878040207464451</v>
+        <v>0.1668813836079642</v>
       </c>
       <c r="T41">
         <v>2500</v>
@@ -5028,10 +5028,10 @@
         <v>0.7795791422543582</v>
       </c>
       <c r="W41">
-        <v>0.95045554641940511</v>
+        <v>0.73672161922820512</v>
       </c>
       <c r="X41">
-        <v>9.6280839215287267E-2</v>
+        <v>0.27629190227832018</v>
       </c>
       <c r="Y41">
         <v>0.89200000000000002</v>
@@ -5040,10 +5040,10 @@
         <v>0.61998879032339216</v>
       </c>
       <c r="AA41">
-        <v>0.91600840616727086</v>
+        <v>0.87113804819633256</v>
       </c>
       <c r="AB41">
-        <v>0.12767145334803701</v>
+        <v>0.16914034717002371</v>
       </c>
       <c r="AC41">
         <v>2500</v>
@@ -5055,10 +5055,10 @@
         <v>0.78423438951968494</v>
       </c>
       <c r="AF41">
-        <v>0.95526568754373475</v>
+        <v>0.90340977972533998</v>
       </c>
       <c r="AG41">
-        <v>9.1487704091861438E-2</v>
+        <v>0.14249410813833649</v>
       </c>
       <c r="AH41">
         <v>0.874</v>
@@ -5067,10 +5067,10 @@
         <v>0.63169287656877204</v>
       </c>
       <c r="AJ41">
-        <v>0.90456906025876416</v>
+        <v>0.52496309091726179</v>
       </c>
       <c r="AK41">
-        <v>0.13608820668963201</v>
+        <v>0.50645460239750772</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.3">
@@ -5087,10 +5087,10 @@
         <v>0.81599303659124001</v>
       </c>
       <c r="E42">
-        <v>0.95836258486966364</v>
+        <v>0.87584025079798267</v>
       </c>
       <c r="F42">
-        <v>8.8533808763193098E-2</v>
+        <v>0.1672206663205974</v>
       </c>
       <c r="G42">
         <v>0.8666666666666667</v>
@@ -5099,10 +5099,10 @@
         <v>0.59798114559396554</v>
       </c>
       <c r="I42">
-        <v>0.88071988197040429</v>
+        <v>0.53722847357994918</v>
       </c>
       <c r="J42">
-        <v>0.14944341180973261</v>
+        <v>0.46636005114948997</v>
       </c>
       <c r="K42">
         <v>2550</v>
@@ -5114,10 +5114,10 @@
         <v>0.79009909131638967</v>
       </c>
       <c r="N42">
-        <v>0.95818030725495928</v>
+        <v>0.75249537374863307</v>
       </c>
       <c r="O42">
-        <v>8.8727385961764049E-2</v>
+        <v>0.26477233045300369</v>
       </c>
       <c r="P42">
         <v>0.85686274509803917</v>
@@ -5126,10 +5126,10 @@
         <v>0.58816066229154007</v>
       </c>
       <c r="R42">
-        <v>0.89004027749686088</v>
+        <v>0.78495948049937581</v>
       </c>
       <c r="S42">
-        <v>0.14348601079588791</v>
+        <v>0.2264025822221028</v>
       </c>
       <c r="T42">
         <v>2550</v>
@@ -5141,10 +5141,10 @@
         <v>0.83649173558015255</v>
       </c>
       <c r="W42">
-        <v>0.95758139509235907</v>
+        <v>0.74591342491005619</v>
       </c>
       <c r="X42">
-        <v>8.9360472904114932E-2</v>
+        <v>0.27068358242550888</v>
       </c>
       <c r="Y42">
         <v>0.8901960784313725</v>
@@ -5153,10 +5153,10 @@
         <v>0.61161878212558418</v>
       </c>
       <c r="AA42">
-        <v>0.87988209360847569</v>
+        <v>0.83386888134126935</v>
       </c>
       <c r="AB42">
-        <v>0.1499673167007777</v>
+        <v>0.190275914526988</v>
       </c>
       <c r="AC42">
         <v>2550</v>
@@ -5168,10 +5168,10 @@
         <v>0.768254115824339</v>
       </c>
       <c r="AF42">
-        <v>0.95052464743737397</v>
+        <v>0.74983747932938427</v>
       </c>
       <c r="AG42">
-        <v>9.6507644724115382E-2</v>
+        <v>0.26438215106776852</v>
       </c>
       <c r="AH42">
         <v>0.88235294117647056</v>
@@ -5180,10 +5180,10 @@
         <v>0.67507204421845246</v>
       </c>
       <c r="AJ42">
-        <v>0.9199912114358112</v>
+        <v>0.79053345026775945</v>
       </c>
       <c r="AK42">
-        <v>0.12239441227794159</v>
+        <v>0.23054111126203561</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.3">
@@ -5200,10 +5200,10 @@
         <v>0.79660607859740395</v>
       </c>
       <c r="E43">
-        <v>0.95724878837249405</v>
+        <v>0.74291584109184039</v>
       </c>
       <c r="F43">
-        <v>8.9362055275586202E-2</v>
+        <v>0.27091645892959942</v>
       </c>
       <c r="G43">
         <v>0.87115384615384617</v>
@@ -5212,10 +5212,10 @@
         <v>0.62759762351005455</v>
       </c>
       <c r="I43">
-        <v>0.86844119926887853</v>
+        <v>0.81184960051550248</v>
       </c>
       <c r="J43">
-        <v>0.15621730427147359</v>
+        <v>0.20053406926350331</v>
       </c>
       <c r="K43">
         <v>2600</v>
@@ -5227,10 +5227,10 @@
         <v>0.78582897577106847</v>
       </c>
       <c r="N43">
-        <v>0.95850996198462401</v>
+        <v>0.74735893546970877</v>
       </c>
       <c r="O43">
-        <v>8.8034084308295041E-2</v>
+        <v>0.26891799718224391</v>
       </c>
       <c r="P43">
         <v>0.87115384615384617</v>
@@ -5239,10 +5239,10 @@
         <v>0.62295399089068171</v>
       </c>
       <c r="R43">
-        <v>0.9097023519016495</v>
+        <v>0.86125315924716006</v>
       </c>
       <c r="S43">
-        <v>0.12942179105544779</v>
+        <v>0.170994444876958</v>
       </c>
       <c r="T43">
         <v>2600</v>
@@ -5254,10 +5254,10 @@
         <v>0.80368866781668447</v>
       </c>
       <c r="W43">
-        <v>0.95627073536716878</v>
+        <v>0.75719903070010008</v>
       </c>
       <c r="X43">
-        <v>9.0378477696679699E-2</v>
+        <v>0.25715567573137449</v>
       </c>
       <c r="Y43">
         <v>0.90384615384615385</v>
@@ -5266,10 +5266,10 @@
         <v>0.63893413553925205</v>
       </c>
       <c r="AA43">
-        <v>0.93769358609976039</v>
+        <v>0.80684001299026142</v>
       </c>
       <c r="AB43">
-        <v>0.1075067081985692</v>
+        <v>0.22678807361361289</v>
       </c>
       <c r="AC43">
         <v>2600</v>
@@ -5281,10 +5281,10 @@
         <v>0.80020464242965983</v>
       </c>
       <c r="AF43">
-        <v>0.95668254715888468</v>
+        <v>0.74962606735341974</v>
       </c>
       <c r="AG43">
-        <v>8.995191022900044E-2</v>
+        <v>0.26809228564271742</v>
       </c>
       <c r="AH43">
         <v>0.9</v>
@@ -5293,10 +5293,10 @@
         <v>0.60992075500970366</v>
       </c>
       <c r="AJ43">
-        <v>0.92431999642732965</v>
+        <v>0.83765970963183167</v>
       </c>
       <c r="AK43">
-        <v>0.1184840138519182</v>
+        <v>0.18351444788776741</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.3">
@@ -5313,10 +5313,10 @@
         <v>0.82619840266106692</v>
       </c>
       <c r="E44">
-        <v>0.95945654261681856</v>
+        <v>0.74971256406477083</v>
       </c>
       <c r="F44">
-        <v>8.7118440306914555E-2</v>
+        <v>0.26790673552027422</v>
       </c>
       <c r="G44">
         <v>0.86603773584905663</v>
@@ -5325,10 +5325,10 @@
         <v>0.52756270446455589</v>
       </c>
       <c r="I44">
-        <v>0.91247501976906875</v>
+        <v>0.88414659054431599</v>
       </c>
       <c r="J44">
-        <v>0.12878239654695581</v>
+        <v>0.15396930270399969</v>
       </c>
       <c r="K44">
         <v>2650</v>
@@ -5340,10 +5340,10 @@
         <v>0.82453889651045942</v>
       </c>
       <c r="N44">
-        <v>0.96197633487183287</v>
+        <v>0.75022385173785999</v>
       </c>
       <c r="O44">
-        <v>8.4367793193267107E-2</v>
+        <v>0.26605329709947928</v>
       </c>
       <c r="P44">
         <v>0.86226415094339626</v>
@@ -5352,10 +5352,10 @@
         <v>0.56220531255538675</v>
       </c>
       <c r="R44">
-        <v>0.89365565541907321</v>
+        <v>0.85055118976638955</v>
       </c>
       <c r="S44">
-        <v>0.14195401859837009</v>
+        <v>0.1805581223002985</v>
       </c>
       <c r="T44">
         <v>2650</v>
@@ -5367,10 +5367,10 @@
         <v>0.83678055016387776</v>
       </c>
       <c r="W44">
-        <v>0.95834783402461221</v>
+        <v>0.86536775239094177</v>
       </c>
       <c r="X44">
-        <v>8.8301584421349735E-2</v>
+        <v>0.17569054921670449</v>
       </c>
       <c r="Y44">
         <v>0.90943396226415096</v>
@@ -5379,10 +5379,10 @@
         <v>0.65685149235678741</v>
       </c>
       <c r="AA44">
-        <v>0.93288755782065114</v>
+        <v>0.56619713098393032</v>
       </c>
       <c r="AB44">
-        <v>0.1127695931183378</v>
+        <v>0.43413490595764043</v>
       </c>
       <c r="AC44">
         <v>2650</v>
@@ -5394,10 +5394,10 @@
         <v>0.83975993712649866</v>
       </c>
       <c r="AF44">
-        <v>0.96401736659839454</v>
+        <v>0.75896815627479286</v>
       </c>
       <c r="AG44">
-        <v>8.2072218543206038E-2</v>
+        <v>0.25832837004012732</v>
       </c>
       <c r="AH44">
         <v>0.88113207547169814</v>
@@ -5406,10 +5406,10 @@
         <v>0.4716273928252499</v>
       </c>
       <c r="AJ44">
-        <v>0.90172109728335703</v>
+        <v>0.74643057023755466</v>
       </c>
       <c r="AK44">
-        <v>0.1364647995251301</v>
+        <v>0.2488631790083618</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.3">
@@ -5426,10 +5426,10 @@
         <v>0.85669144359101213</v>
       </c>
       <c r="E45">
-        <v>0.96652412684645028</v>
+        <v>0.75464755668470673</v>
       </c>
       <c r="F45">
-        <v>7.8939733224032888E-2</v>
+        <v>0.26436189783918679</v>
       </c>
       <c r="G45">
         <v>0.87592592592592589</v>
@@ -5438,10 +5438,10 @@
         <v>0.54121170279479747</v>
       </c>
       <c r="I45">
-        <v>0.90163771872586318</v>
+        <v>0.87143974256074408</v>
       </c>
       <c r="J45">
-        <v>0.13628673476928729</v>
+        <v>0.1603429842667963</v>
       </c>
       <c r="K45">
         <v>2700</v>
@@ -5453,10 +5453,10 @@
         <v>0.80826366391362536</v>
       </c>
       <c r="N45">
-        <v>0.95988366761019639</v>
+        <v>0.77088600763192838</v>
       </c>
       <c r="O45">
-        <v>8.6415233567887745E-2</v>
+        <v>0.2471813073265198</v>
       </c>
       <c r="P45">
         <v>0.8574074074074074</v>
@@ -5465,10 +5465,10 @@
         <v>0.50705606562749417</v>
       </c>
       <c r="R45">
-        <v>0.88457387332037984</v>
+        <v>0.73413920933596177</v>
       </c>
       <c r="S45">
-        <v>0.14763568774620961</v>
+        <v>0.26925773730311398</v>
       </c>
       <c r="T45">
         <v>2700</v>
@@ -5480,10 +5480,10 @@
         <v>0.80519617499813967</v>
       </c>
       <c r="W45">
-        <v>0.96281840240374672</v>
+        <v>0.75029028150601929</v>
       </c>
       <c r="X45">
-        <v>8.3194328510399651E-2</v>
+        <v>0.26542837021661991</v>
       </c>
       <c r="Y45">
         <v>0.88518518518518519</v>
@@ -5492,10 +5492,10 @@
         <v>0.5722236715960618</v>
       </c>
       <c r="AA45">
-        <v>0.90134351449473415</v>
+        <v>0.8552684372948739</v>
       </c>
       <c r="AB45">
-        <v>0.1364904012362394</v>
+        <v>0.17469257520375639</v>
       </c>
       <c r="AC45">
         <v>2700</v>
@@ -5507,10 +5507,10 @@
         <v>0.82161933639564422</v>
       </c>
       <c r="AF45">
-        <v>0.96314172064371417</v>
+        <v>0.89863540193902181</v>
       </c>
       <c r="AG45">
-        <v>8.2831824265261172E-2</v>
+        <v>0.14763663363305471</v>
       </c>
       <c r="AH45">
         <v>0.86111111111111116</v>
@@ -5519,10 +5519,10 @@
         <v>0.51606586474221416</v>
       </c>
       <c r="AJ45">
-        <v>0.89418454487059462</v>
+        <v>0.53977256703165688</v>
       </c>
       <c r="AK45">
-        <v>0.1413558682244267</v>
+        <v>0.46939609907161622</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
@@ -5539,10 +5539,10 @@
         <v>0.83203536413348156</v>
       </c>
       <c r="E46">
-        <v>0.96177504699914995</v>
+        <v>0.75393345698411585</v>
       </c>
       <c r="F46">
-        <v>8.4153539330310875E-2</v>
+        <v>0.26086642419462042</v>
       </c>
       <c r="G46">
         <v>0.87454545454545451</v>
@@ -5551,10 +5551,10 @@
         <v>0.5497967849961426</v>
       </c>
       <c r="I46">
-        <v>0.87899947116158417</v>
+        <v>0.78638995161031056</v>
       </c>
       <c r="J46">
-        <v>0.15153757409842741</v>
+        <v>0.2184490532541174</v>
       </c>
       <c r="K46">
         <v>2750</v>
@@ -5566,10 +5566,10 @@
         <v>0.81448981820707278</v>
       </c>
       <c r="N46">
-        <v>0.96059738477576051</v>
+        <v>0.76786711835649968</v>
       </c>
       <c r="O46">
-        <v>8.5440037453175313E-2</v>
+        <v>0.25145605023454792</v>
       </c>
       <c r="P46">
         <v>0.86</v>
@@ -5578,10 +5578,10 @@
         <v>0.6108310609551868</v>
       </c>
       <c r="R46">
-        <v>0.89883091175505381</v>
+        <v>0.80154426293731285</v>
       </c>
       <c r="S46">
-        <v>0.13856406460551021</v>
+        <v>0.2182751014931458</v>
       </c>
       <c r="T46">
         <v>2750</v>
@@ -5593,10 +5593,10 @@
         <v>0.78727881936216337</v>
       </c>
       <c r="W46">
-        <v>0.95878182218136832</v>
+        <v>0.7500245876544942</v>
       </c>
       <c r="X46">
-        <v>8.7386289750530297E-2</v>
+        <v>0.26390755886185202</v>
       </c>
       <c r="Y46">
         <v>0.88</v>
@@ -5605,10 +5605,10 @@
         <v>0.5754413978409576</v>
       </c>
       <c r="AA46">
-        <v>0.90170503358019427</v>
+        <v>0.85779314261456341</v>
       </c>
       <c r="AB46">
-        <v>0.1365816439150791</v>
+        <v>0.17491993603340611</v>
       </c>
       <c r="AC46">
         <v>2750</v>
@@ -5620,10 +5620,10 @@
         <v>0.85021699763194136</v>
       </c>
       <c r="AF46">
-        <v>0.96498908348381707</v>
+        <v>0.75791257823204938</v>
       </c>
       <c r="AG46">
-        <v>8.0537963944736252E-2</v>
+        <v>0.26150475146210223</v>
       </c>
       <c r="AH46">
         <v>0.88545454545454549</v>
@@ -5632,10 +5632,10 @@
         <v>0.58976858737769189</v>
       </c>
       <c r="AJ46">
-        <v>0.91051900717729184</v>
+        <v>0.87771049219293762</v>
       </c>
       <c r="AK46">
-        <v>0.13031430536137689</v>
+        <v>0.15627276704867329</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.3">
@@ -5652,10 +5652,10 @@
         <v>0.83130748908120788</v>
       </c>
       <c r="E47">
-        <v>0.96392751645800112</v>
+        <v>0.77103424812973365</v>
       </c>
       <c r="F47">
-        <v>8.2022427246629157E-2</v>
+        <v>0.24872724865057089</v>
       </c>
       <c r="G47">
         <v>0.88571428571428568</v>
@@ -5664,10 +5664,10 @@
         <v>0.57548034174546181</v>
       </c>
       <c r="I47">
-        <v>0.91044340904959464</v>
+        <v>0.78593953385023785</v>
       </c>
       <c r="J47">
-        <v>0.1303155510948055</v>
+        <v>0.2351722406534901</v>
       </c>
       <c r="K47">
         <v>2800</v>
@@ -5679,10 +5679,10 @@
         <v>0.82677087641788405</v>
       </c>
       <c r="N47">
-        <v>0.96227588980611134</v>
+        <v>0.76075325753512035</v>
       </c>
       <c r="O47">
-        <v>8.387916478908386E-2</v>
+        <v>0.25658434070109321</v>
       </c>
       <c r="P47">
         <v>0.85535714285714282</v>
@@ -5691,10 +5691,10 @@
         <v>0.54942468963016911</v>
       </c>
       <c r="R47">
-        <v>0.88200377659215778</v>
+        <v>0.78055635912633736</v>
       </c>
       <c r="S47">
-        <v>0.14958275301651591</v>
+        <v>0.22873962956029109</v>
       </c>
       <c r="T47">
         <v>2800</v>
@@ -5706,10 +5706,10 @@
         <v>0.82801562414261576</v>
       </c>
       <c r="W47">
-        <v>0.96653660783562412</v>
+        <v>0.76096630854931047</v>
       </c>
       <c r="X47">
-        <v>7.9000452078272498E-2</v>
+        <v>0.25675590519958841</v>
       </c>
       <c r="Y47">
         <v>0.87857142857142856</v>
@@ -5718,10 +5718,10 @@
         <v>0.60040175049987754</v>
       </c>
       <c r="AA47">
-        <v>0.92673498658315945</v>
+        <v>0.86958926826027227</v>
       </c>
       <c r="AB47">
-        <v>0.1178679648711097</v>
+        <v>0.17542417093614029</v>
       </c>
       <c r="AC47">
         <v>2800</v>
@@ -5733,10 +5733,10 @@
         <v>0.83360945935457009</v>
       </c>
       <c r="AF47">
-        <v>0.95899657312047515</v>
+        <v>0.88198695304863117</v>
       </c>
       <c r="AG47">
-        <v>8.7448964708402507E-2</v>
+        <v>0.16088566692440109</v>
       </c>
       <c r="AH47">
         <v>0.8839285714285714</v>
@@ -5745,10 +5745,10 @@
         <v>0.54870374242095765</v>
       </c>
       <c r="AJ47">
-        <v>0.9088425025867588</v>
+        <v>0.54849983877315989</v>
       </c>
       <c r="AK47">
-        <v>0.13147514702678331</v>
+        <v>0.45627299343055028</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.3">
@@ -5765,10 +5765,10 @@
         <v>0.84384766409623668</v>
       </c>
       <c r="E48">
-        <v>0.96648293626335413</v>
+        <v>0.77559426424155142</v>
       </c>
       <c r="F48">
-        <v>7.9084675917097114E-2</v>
+        <v>0.24612266671918609</v>
       </c>
       <c r="G48">
         <v>0.86842105263157898</v>
@@ -5777,10 +5777,10 @@
         <v>0.58090058032782488</v>
       </c>
       <c r="I48">
-        <v>0.90854552955096368</v>
+        <v>0.80497437120448323</v>
       </c>
       <c r="J48">
-        <v>0.13185584898775141</v>
+        <v>0.22196501852809331</v>
       </c>
       <c r="K48">
         <v>2850</v>
@@ -5792,10 +5792,10 @@
         <v>0.81204748484358102</v>
       </c>
       <c r="N48">
-        <v>0.96413251103638042</v>
+        <v>0.75331405921205929</v>
       </c>
       <c r="O48">
-        <v>8.1810650016610614E-2</v>
+        <v>0.26218082171345719</v>
       </c>
       <c r="P48">
         <v>0.87192982456140355</v>
@@ -5804,10 +5804,10 @@
         <v>0.60891910958958351</v>
       </c>
       <c r="R48">
-        <v>0.89470277418531741</v>
+        <v>0.83761471952091004</v>
       </c>
       <c r="S48">
-        <v>0.14148336955150989</v>
+        <v>0.18806253209675219</v>
       </c>
       <c r="T48">
         <v>2850</v>
@@ -5819,10 +5819,10 @@
         <v>0.81573161257131999</v>
       </c>
       <c r="W48">
-        <v>0.96091242847542635</v>
+        <v>0.7648223552722182</v>
       </c>
       <c r="X48">
-        <v>8.5404096208102381E-2</v>
+        <v>0.2534533398757281</v>
       </c>
       <c r="Y48">
         <v>0.88245614035087716</v>
@@ -5831,10 +5831,10 @@
         <v>0.57618716573545026</v>
       </c>
       <c r="AA48">
-        <v>0.91214464594603173</v>
+        <v>0.76783687140892409</v>
       </c>
       <c r="AB48">
-        <v>0.12923526757802961</v>
+        <v>0.23594824893688279</v>
       </c>
       <c r="AC48">
         <v>2850</v>
@@ -5846,10 +5846,10 @@
         <v>0.84299176689398547</v>
       </c>
       <c r="AF48">
-        <v>0.96366242599098562</v>
+        <v>0.77100466776387799</v>
       </c>
       <c r="AG48">
-        <v>8.2345016572868357E-2</v>
+        <v>0.248094260667057</v>
       </c>
       <c r="AH48">
         <v>0.88245614035087716</v>
@@ -5858,10 +5858,10 @@
         <v>0.61248316872844133</v>
       </c>
       <c r="AJ48">
-        <v>0.92118857945158727</v>
+        <v>0.80224726143738578</v>
       </c>
       <c r="AK48">
-        <v>0.1224028436775505</v>
+        <v>0.22551900585419041</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.3">
@@ -5878,10 +5878,10 @@
         <v>0.827441800220442</v>
       </c>
       <c r="E49">
-        <v>0.96228193126950168</v>
+        <v>0.76065209870102857</v>
       </c>
       <c r="F49">
-        <v>8.4102769645648209E-2</v>
+        <v>0.25957013206364921</v>
       </c>
       <c r="G49">
         <v>0.88275862068965516</v>
@@ -5890,10 +5890,10 @@
         <v>0.61780475754520625</v>
       </c>
       <c r="I49">
-        <v>0.92022912396174084</v>
+        <v>0.90159808114611795</v>
       </c>
       <c r="J49">
-        <v>0.1228259211101294</v>
+        <v>0.14083260023067359</v>
       </c>
       <c r="K49">
         <v>2900</v>
@@ -5905,10 +5905,10 @@
         <v>0.79800122950914143</v>
       </c>
       <c r="N49">
-        <v>0.96317833875304193</v>
+        <v>0.7650306530835288</v>
       </c>
       <c r="O49">
-        <v>8.3097367068957748E-2</v>
+        <v>0.25446599565960992</v>
       </c>
       <c r="P49">
         <v>0.8603448275862069</v>
@@ -5917,10 +5917,10 @@
         <v>0.62261219440963234</v>
       </c>
       <c r="R49">
-        <v>0.90536894933975653</v>
+        <v>0.85002860260615065</v>
       </c>
       <c r="S49">
-        <v>0.13377799416996031</v>
+        <v>0.18379415271673019</v>
       </c>
       <c r="T49">
         <v>2900</v>
@@ -5932,10 +5932,10 @@
         <v>0.78710225279915391</v>
       </c>
       <c r="W49">
-        <v>0.9632932627893932</v>
+        <v>0.8739588578648918</v>
       </c>
       <c r="X49">
-        <v>8.2967588187527613E-2</v>
+        <v>0.17007415437238321</v>
       </c>
       <c r="Y49">
         <v>0.90689655172413797</v>
@@ -5944,10 +5944,10 @@
         <v>0.71518218925804433</v>
       </c>
       <c r="AA49">
-        <v>0.92405812601157722</v>
+        <v>0.57280626579860194</v>
       </c>
       <c r="AB49">
-        <v>0.1198418498084757</v>
+        <v>0.41828163731153961</v>
       </c>
       <c r="AC49">
         <v>2900</v>
@@ -5959,10 +5959,10 @@
         <v>0.82274308860483281</v>
       </c>
       <c r="AF49">
-        <v>0.96715471041079704</v>
+        <v>0.7627794878754377</v>
       </c>
       <c r="AG49">
-        <v>7.8482372279516946E-2</v>
+        <v>0.25845834355056269</v>
       </c>
       <c r="AH49">
         <v>0.8896551724137931</v>
@@ -5971,10 +5971,10 @@
         <v>0.60197486537741141</v>
       </c>
       <c r="AJ49">
-        <v>0.9190439566606009</v>
+        <v>0.88032920363634271</v>
       </c>
       <c r="AK49">
-        <v>0.1237349781896219</v>
+        <v>0.1551578044367001</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.3">
@@ -5991,10 +5991,10 @@
         <v>0.81913417872352701</v>
       </c>
       <c r="E50">
-        <v>0.96547523529101564</v>
+        <v>0.89140072223534039</v>
       </c>
       <c r="F50">
-        <v>8.1198647396265478E-2</v>
+        <v>0.156245004016553</v>
       </c>
       <c r="G50">
         <v>0.88474576271186445</v>
@@ -6003,10 +6003,10 @@
         <v>0.62193014990888928</v>
       </c>
       <c r="I50">
-        <v>0.90557350006161963</v>
+        <v>0.55668678118250314</v>
       </c>
       <c r="J50">
-        <v>0.13410089801137659</v>
+        <v>0.45456138754886488</v>
       </c>
       <c r="K50">
         <v>2950</v>
@@ -6018,10 +6018,10 @@
         <v>0.81233050366770454</v>
       </c>
       <c r="N50">
-        <v>0.96463208551020496</v>
+        <v>0.76393291023310628</v>
       </c>
       <c r="O50">
-        <v>8.2184166894454763E-2</v>
+        <v>0.26261898586945759</v>
       </c>
       <c r="P50">
         <v>0.88474576271186445</v>
@@ -6030,10 +6030,10 @@
         <v>0.63701826732446842</v>
       </c>
       <c r="R50">
-        <v>0.90530650713059679</v>
+        <v>0.87518734814438659</v>
       </c>
       <c r="S50">
-        <v>0.13429035075196111</v>
+        <v>0.15674464174554811</v>
       </c>
       <c r="T50">
         <v>2950</v>
@@ -6045,10 +6045,10 @@
         <v>0.82056463424294623</v>
       </c>
       <c r="W50">
-        <v>0.96188075464650691</v>
+        <v>0.76577054222529084</v>
       </c>
       <c r="X50">
-        <v>8.5320929536363777E-2</v>
+        <v>0.25747065217660409</v>
       </c>
       <c r="Y50">
         <v>0.88305084745762707</v>
@@ -6057,10 +6057,10 @@
         <v>0.57054728930994247</v>
       </c>
       <c r="AA50">
-        <v>0.90228058724567228</v>
+        <v>0.84997888788271525</v>
       </c>
       <c r="AB50">
-        <v>0.13641909503997379</v>
+        <v>0.18714420192083139</v>
       </c>
       <c r="AC50">
         <v>2950</v>
@@ -6072,10 +6072,10 @@
         <v>0.83897948519403498</v>
       </c>
       <c r="AF50">
-        <v>0.96634057322395295</v>
+        <v>0.78157609184273136</v>
       </c>
       <c r="AG50">
-        <v>8.0174597608562492E-2</v>
+        <v>0.24455161890912161</v>
       </c>
       <c r="AH50">
         <v>0.8728813559322034</v>
@@ -6084,10 +6084,10 @@
         <v>0.54786842540284542</v>
       </c>
       <c r="AJ50">
-        <v>0.92061410184256798</v>
+        <v>0.79534546909996418</v>
       </c>
       <c r="AK50">
-        <v>0.12295789550816411</v>
+        <v>0.23518081778998151</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.3">
@@ -6104,10 +6104,10 @@
         <v>0.83363770529550174</v>
       </c>
       <c r="E51">
-        <v>0.9691699017986819</v>
+        <v>0.76882856109011521</v>
       </c>
       <c r="F51">
-        <v>7.6539750021366884E-2</v>
+        <v>0.25657320693679142</v>
       </c>
       <c r="G51">
         <v>0.89166666666666672</v>
@@ -6116,10 +6116,10 @@
         <v>0.6170415777091377</v>
       </c>
       <c r="I51">
-        <v>0.9281827847753279</v>
+        <v>0.89169751577384215</v>
       </c>
       <c r="J51">
-        <v>0.11754431788336971</v>
+        <v>0.15378643320090499</v>
       </c>
       <c r="K51">
         <v>3000</v>
@@ -6131,10 +6131,10 @@
         <v>0.82717968542034725</v>
       </c>
       <c r="N51">
-        <v>0.96717449714980563</v>
+        <v>0.7748945191219585</v>
       </c>
       <c r="O51">
-        <v>7.8977844994656571E-2</v>
+        <v>0.24994422905961719</v>
       </c>
       <c r="P51">
         <v>0.88</v>
@@ -6143,10 +6143,10 @@
         <v>0.58906938518782148</v>
       </c>
       <c r="R51">
-        <v>0.90193354929514014</v>
+        <v>0.82707066574102928</v>
       </c>
       <c r="S51">
-        <v>0.13735598518691011</v>
+        <v>0.20681471520830991</v>
       </c>
       <c r="T51">
         <v>3000</v>
@@ -6158,10 +6158,10 @@
         <v>0.81687835976078138</v>
       </c>
       <c r="W51">
-        <v>0.96428006403275446</v>
+        <v>0.7792306295547573</v>
       </c>
       <c r="X51">
-        <v>8.2386285266420403E-2</v>
+        <v>0.24689875125763211</v>
       </c>
       <c r="Y51">
         <v>0.88666666666666671</v>
@@ -6170,10 +6170,10 @@
         <v>0.60726757289696942</v>
       </c>
       <c r="AA51">
-        <v>0.90435922122070211</v>
+        <v>0.80481831555689931</v>
       </c>
       <c r="AB51">
-        <v>0.13564659966250539</v>
+        <v>0.22220010977939539</v>
       </c>
       <c r="AC51">
         <v>3000</v>
@@ -6185,10 +6185,10 @@
         <v>0.78606010658835856</v>
       </c>
       <c r="AF51">
-        <v>0.96436777412721053</v>
+        <v>0.77681112628395965</v>
       </c>
       <c r="AG51">
-        <v>8.2285073575547915E-2</v>
+        <v>0.24566506506224539</v>
       </c>
       <c r="AH51">
         <v>0.87</v>
@@ -6197,10 +6197,10 @@
         <v>0.5562478153206506</v>
       </c>
       <c r="AJ51">
-        <v>0.89283727957428305</v>
+        <v>0.73572364049790473</v>
       </c>
       <c r="AK51">
-        <v>0.14358505028959889</v>
+        <v>0.26997611931638971</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.3">
@@ -6217,10 +6217,10 @@
         <v>0.8187050860959999</v>
       </c>
       <c r="E52">
-        <v>0.9633205282045898</v>
+        <v>0.77275881185968109</v>
       </c>
       <c r="F52">
-        <v>8.3690491459040534E-2</v>
+        <v>0.25152754039952657</v>
       </c>
       <c r="G52">
         <v>0.87213114754098364</v>
@@ -6229,10 +6229,10 @@
         <v>0.53002574769367394</v>
       </c>
       <c r="I52">
-        <v>0.90737775140947818</v>
+        <v>0.80500795884451704</v>
       </c>
       <c r="J52">
-        <v>0.13299821273296841</v>
+        <v>0.21578168316555349</v>
       </c>
       <c r="K52">
         <v>3050</v>
@@ -6244,10 +6244,10 @@
         <v>0.7968421840608515</v>
       </c>
       <c r="N52">
-        <v>0.95716078074684674</v>
+        <v>0.76960820128607155</v>
       </c>
       <c r="O52">
-        <v>9.0445164983278453E-2</v>
+        <v>0.25362424299889952</v>
       </c>
       <c r="P52">
         <v>0.88196721311475412</v>
@@ -6256,10 +6256,10 @@
         <v>0.59557147054862525</v>
       </c>
       <c r="R52">
-        <v>0.92239989552749613</v>
+        <v>0.82126759028748852</v>
       </c>
       <c r="S52">
-        <v>0.121736075717708</v>
+        <v>0.20521750894428861</v>
       </c>
       <c r="T52">
         <v>3050</v>
@@ -6271,10 +6271,10 @@
         <v>0.82291744348075802</v>
       </c>
       <c r="W52">
-        <v>0.96662575854776889</v>
+        <v>0.77133740918154325</v>
       </c>
       <c r="X52">
-        <v>7.9830763616992484E-2</v>
+        <v>0.25409331175235089</v>
       </c>
       <c r="Y52">
         <v>0.88032786885245906</v>
@@ -6283,10 +6283,10 @@
         <v>0.55686367297299366</v>
       </c>
       <c r="AA52">
-        <v>0.89269897058558645</v>
+        <v>0.82160231922949345</v>
       </c>
       <c r="AB52">
-        <v>0.14314958357846699</v>
+        <v>0.19944217350297189</v>
       </c>
       <c r="AC52">
         <v>3050</v>
@@ -6298,10 +6298,10 @@
         <v>0.82902221834485257</v>
       </c>
       <c r="AF52">
-        <v>0.96669014615185678</v>
+        <v>0.77376072998710588</v>
       </c>
       <c r="AG52">
-        <v>7.9753719271924359E-2</v>
+        <v>0.25052990635437422</v>
       </c>
       <c r="AH52">
         <v>0.88688524590163931</v>
@@ -6310,10 +6310,10 @@
         <v>0.58694854349876946</v>
       </c>
       <c r="AJ52">
-        <v>0.91639103788028897</v>
+        <v>0.85336040366188337</v>
       </c>
       <c r="AK52">
-        <v>0.12636143840093819</v>
+        <v>0.18865614986782681</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.3">
@@ -6330,10 +6330,10 @@
         <v>0.83387230911163335</v>
       </c>
       <c r="E53">
-        <v>0.96665139322321258</v>
+        <v>0.76932804515326603</v>
       </c>
       <c r="F53">
-        <v>7.9463929735649613E-2</v>
+        <v>0.2543752870489987</v>
       </c>
       <c r="G53">
         <v>0.8725806451612903</v>
@@ -6342,10 +6342,10 @@
         <v>0.5428548833422393</v>
       </c>
       <c r="I53">
-        <v>0.88932407438208516</v>
+        <v>0.84146125404859029</v>
       </c>
       <c r="J53">
-        <v>0.14502502564907929</v>
+        <v>0.18574547306974401</v>
       </c>
       <c r="K53">
         <v>3100</v>
@@ -6357,10 +6357,10 @@
         <v>0.83113486240730539</v>
       </c>
       <c r="N53">
-        <v>0.9667791656629704</v>
+        <v>0.77720092906296045</v>
       </c>
       <c r="O53">
-        <v>7.9311553891253203E-2</v>
+        <v>0.24759392085723231</v>
       </c>
       <c r="P53">
         <v>0.88225806451612898</v>
@@ -6369,10 +6369,10 @@
         <v>0.63213411246992535</v>
       </c>
       <c r="R53">
-        <v>0.92632921515617328</v>
+        <v>0.81612738232839188</v>
       </c>
       <c r="S53">
-        <v>0.1183215956619923</v>
+        <v>0.2096642256909603</v>
       </c>
       <c r="T53">
         <v>3100</v>
@@ -6384,10 +6384,10 @@
         <v>0.80641589356563159</v>
       </c>
       <c r="W53">
-        <v>0.96539496423226079</v>
+        <v>0.78497921532574189</v>
       </c>
       <c r="X53">
-        <v>8.0947015725341659E-2</v>
+        <v>0.23766550320148469</v>
       </c>
       <c r="Y53">
         <v>0.88709677419354838</v>
@@ -6396,10 +6396,10 @@
         <v>0.64330379488459621</v>
       </c>
       <c r="AA53">
-        <v>0.92938468549531816</v>
+        <v>0.80421359538496251</v>
       </c>
       <c r="AB53">
-        <v>0.11584193903206939</v>
+        <v>0.23782867840733221</v>
       </c>
       <c r="AC53">
         <v>3100</v>
@@ -6411,10 +6411,10 @@
         <v>0.82330801802976838</v>
       </c>
       <c r="AF53">
-        <v>0.96626807590393915</v>
+        <v>0.77145280941020355</v>
       </c>
       <c r="AG53">
-        <v>7.9919314149919651E-2</v>
+        <v>0.25428514256784379</v>
       </c>
       <c r="AH53">
         <v>0.90322580645161288</v>
@@ -6423,10 +6423,10 @@
         <v>0.74076701145898893</v>
       </c>
       <c r="AJ53">
-        <v>0.9169081816104766</v>
+        <v>0.88927470201829328</v>
       </c>
       <c r="AK53">
-        <v>0.12565955029620771</v>
+        <v>0.1517589500069656</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.3">
@@ -6443,10 +6443,10 @@
         <v>0.82940892444467718</v>
       </c>
       <c r="E54">
-        <v>0.96739330803505508</v>
+        <v>0.77202897198379394</v>
       </c>
       <c r="F54">
-        <v>7.8401692563524389E-2</v>
+        <v>0.25221238798857171</v>
       </c>
       <c r="G54">
         <v>0.88412698412698409</v>
@@ -6455,10 +6455,10 @@
         <v>0.57926990287161773</v>
       </c>
       <c r="I54">
-        <v>0.92559575739172506</v>
+        <v>0.89560712357658234</v>
       </c>
       <c r="J54">
-        <v>0.11998677175766249</v>
+        <v>0.15012046102773999</v>
       </c>
       <c r="K54">
         <v>3150</v>
@@ -6470,10 +6470,10 @@
         <v>0.80243380017298271</v>
       </c>
       <c r="N54">
-        <v>0.96442523600984065</v>
+        <v>0.77107782838631844</v>
       </c>
       <c r="O54">
-        <v>8.1892302485332566E-2</v>
+        <v>0.25363646878806878</v>
       </c>
       <c r="P54">
         <v>0.87777777777777777</v>
@@ -6482,10 +6482,10 @@
         <v>0.60165439751211636</v>
       </c>
       <c r="R54">
-        <v>0.89220818656309464</v>
+        <v>0.8641199175949863</v>
       </c>
       <c r="S54">
-        <v>0.14442002235542981</v>
+        <v>0.1680831441610395</v>
       </c>
       <c r="T54">
         <v>3150</v>
@@ -6497,10 +6497,10 @@
         <v>0.83880564529610879</v>
       </c>
       <c r="W54">
-        <v>0.97019297881061206</v>
+        <v>0.77795355093633156</v>
       </c>
       <c r="X54">
-        <v>7.4960306956732906E-2</v>
+        <v>0.24580487533692191</v>
       </c>
       <c r="Y54">
         <v>0.89047619047619042</v>
@@ -6509,10 +6509,10 @@
         <v>0.61107650734606844</v>
       </c>
       <c r="AA54">
-        <v>0.87998521837276056</v>
+        <v>0.77625262446656695</v>
       </c>
       <c r="AB54">
-        <v>0.15238839267549939</v>
+        <v>0.23345316217176751</v>
       </c>
       <c r="AC54">
         <v>3150</v>
@@ -6524,10 +6524,10 @@
         <v>0.81164840472568522</v>
       </c>
       <c r="AF54">
-        <v>0.9676669600657487</v>
+        <v>0.78877853597094272</v>
       </c>
       <c r="AG54">
-        <v>7.8072005835882655E-2</v>
+        <v>0.23565170561752541</v>
       </c>
       <c r="AH54">
         <v>0.90476190476190477</v>
@@ -6536,10 +6536,10 @@
         <v>0.67183735827384949</v>
       </c>
       <c r="AJ54">
-        <v>0.91025552214613814</v>
+        <v>0.79437410020604737</v>
       </c>
       <c r="AK54">
-        <v>0.13177662677834551</v>
+        <v>0.24005721611714631</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.3">
@@ -6556,10 +6556,10 @@
         <v>0.83545091545425065</v>
       </c>
       <c r="E55">
-        <v>0.96772534538220978</v>
+        <v>0.77546247203037377</v>
       </c>
       <c r="F55">
-        <v>7.8012418883149623E-2</v>
+        <v>0.24930606418440529</v>
       </c>
       <c r="G55">
         <v>0.9</v>
@@ -6568,10 +6568,10 @@
         <v>0.70766469559516443</v>
       </c>
       <c r="I55">
-        <v>0.91927944171758658</v>
+        <v>0.878591826344163</v>
       </c>
       <c r="J55">
-        <v>0.1229201976893952</v>
+        <v>0.16078352062314449</v>
       </c>
       <c r="K55">
         <v>3200</v>
@@ -6583,10 +6583,10 @@
         <v>0.82825178072414685</v>
       </c>
       <c r="N55">
-        <v>0.96609735679700637</v>
+        <v>0.88020508743639303</v>
       </c>
       <c r="O55">
-        <v>7.9819131478612318E-2</v>
+        <v>0.16556634916680751</v>
       </c>
       <c r="P55">
         <v>0.88906249999999998</v>
@@ -6595,10 +6595,10 @@
         <v>0.66616522408982637</v>
       </c>
       <c r="R55">
-        <v>0.92424436390547582</v>
+        <v>0.59589738902129596</v>
       </c>
       <c r="S55">
-        <v>0.11989578808281801</v>
+        <v>0.40433513248865682</v>
       </c>
       <c r="T55">
         <v>3200</v>
@@ -6610,10 +6610,10 @@
         <v>0.80068107098643249</v>
       </c>
       <c r="W55">
-        <v>0.96291936343655671</v>
+        <v>0.77248159585471832</v>
       </c>
       <c r="X55">
-        <v>8.361930100162282E-2</v>
+        <v>0.24981182044204539</v>
       </c>
       <c r="Y55">
         <v>0.89531249999999996</v>
@@ -6622,10 +6622,10 @@
         <v>0.66492156130532309</v>
       </c>
       <c r="AA55">
-        <v>0.91911249123509964</v>
+        <v>0.8755427671205811</v>
       </c>
       <c r="AB55">
-        <v>0.1230472470232471</v>
+        <v>0.16659905373196571</v>
       </c>
       <c r="AC55">
         <v>3200</v>
@@ -6637,10 +6637,10 @@
         <v>0.81787473077243023</v>
       </c>
       <c r="AF55">
-        <v>0.96755962186684241</v>
+        <v>0.77725962311833774</v>
       </c>
       <c r="AG55">
-        <v>7.8212451054803275E-2</v>
+        <v>0.24777615216971571</v>
       </c>
       <c r="AH55">
         <v>0.89218750000000002</v>
@@ -6649,10 +6649,10 @@
         <v>0.58437776952507714</v>
       </c>
       <c r="AJ55">
-        <v>0.90333567064008813</v>
+        <v>0.8520083786521373</v>
       </c>
       <c r="AK55">
-        <v>0.13451301052314599</v>
+        <v>0.17948014805522011</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.3">
@@ -6669,10 +6669,10 @@
         <v>0.84223901058384065</v>
       </c>
       <c r="E56">
-        <v>0.96957902068414648</v>
+        <v>0.77708437937070007</v>
       </c>
       <c r="F56">
-        <v>7.5574721048366836E-2</v>
+        <v>0.25045899295376939</v>
       </c>
       <c r="G56">
         <v>0.87846153846153852</v>
@@ -6681,10 +6681,10 @@
         <v>0.52813223308812729</v>
       </c>
       <c r="I56">
-        <v>0.90046449900464498</v>
+        <v>0.88453671730580863</v>
       </c>
       <c r="J56">
-        <v>0.13587324409735149</v>
+        <v>0.1455343798874536</v>
       </c>
       <c r="K56">
         <v>3250</v>
@@ -6696,10 +6696,10 @@
         <v>0.82755826673861943</v>
       </c>
       <c r="N56">
-        <v>0.96916108499170295</v>
+        <v>0.78499229596199593</v>
       </c>
       <c r="O56">
-        <v>7.5904798672669319E-2</v>
+        <v>0.23722113761738031</v>
       </c>
       <c r="P56">
         <v>0.89230769230769236</v>
@@ -6708,10 +6708,10 @@
         <v>0.63796815343449831</v>
       </c>
       <c r="R56">
-        <v>0.90281314499290322</v>
+        <v>0.77538324991784613</v>
       </c>
       <c r="S56">
-        <v>0.1355898793591003</v>
+        <v>0.24266041716477221</v>
       </c>
       <c r="T56">
         <v>3250</v>
@@ -6723,10 +6723,10 @@
         <v>0.81178114310174077</v>
       </c>
       <c r="W56">
-        <v>0.96662910753836673</v>
+        <v>0.77466809762316791</v>
       </c>
       <c r="X56">
-        <v>7.9154182551426908E-2</v>
+        <v>0.24855011413364211</v>
       </c>
       <c r="Y56">
         <v>0.90307692307692311</v>
@@ -6735,10 +6735,10 @@
         <v>0.66158840849804701</v>
       </c>
       <c r="AA56">
-        <v>0.93223291307232914</v>
+        <v>0.8922795736122876</v>
       </c>
       <c r="AB56">
-        <v>0.1121125807803512</v>
+        <v>0.15128539997509449</v>
       </c>
       <c r="AC56">
         <v>3250</v>
@@ -6750,10 +6750,10 @@
         <v>0.82753591914595925</v>
       </c>
       <c r="AF56">
-        <v>0.96740755684072532</v>
+        <v>0.78049669666489618</v>
       </c>
       <c r="AG56">
-        <v>7.8225512265697364E-2</v>
+        <v>0.24344962363454639</v>
       </c>
       <c r="AH56">
         <v>0.88923076923076927</v>
@@ -6762,10 +6762,10 @@
         <v>0.60114302710489864</v>
       </c>
       <c r="AJ56">
-        <v>0.92211347047113468</v>
+        <v>0.818867145209348</v>
       </c>
       <c r="AK56">
-        <v>0.1201921538460554</v>
+        <v>0.20372249021856029</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.3">
@@ -6782,10 +6782,10 @@
         <v>0.81031559173276069</v>
       </c>
       <c r="E57">
-        <v>0.96416587084747418</v>
+        <v>0.77510731888127871</v>
       </c>
       <c r="F57">
-        <v>8.1973757811246939E-2</v>
+        <v>0.24594724869581511</v>
       </c>
       <c r="G57">
         <v>0.89848484848484844</v>
@@ -6794,10 +6794,10 @@
         <v>0.64721561006883888</v>
       </c>
       <c r="I57">
-        <v>0.92440449907769129</v>
+        <v>0.82165479749316062</v>
       </c>
       <c r="J57">
-        <v>0.1196586052826198</v>
+        <v>0.20255651891436319</v>
       </c>
       <c r="K57">
         <v>3300</v>
@@ -6809,10 +6809,10 @@
         <v>0.84314335275977381</v>
       </c>
       <c r="N57">
-        <v>0.96879158424991407</v>
+        <v>0.79328101525502304</v>
       </c>
       <c r="O57">
-        <v>7.6500148544121974E-2</v>
+        <v>0.2323089044270156</v>
       </c>
       <c r="P57">
         <v>0.90303030303030307</v>
@@ -6821,10 +6821,10 @@
         <v>0.59774067452978996</v>
       </c>
       <c r="R57">
-        <v>0.92336456096976527</v>
+        <v>0.80592989824079764</v>
       </c>
       <c r="S57">
-        <v>0.12047884260380121</v>
+        <v>0.2253373679973662</v>
       </c>
       <c r="T57">
         <v>3300</v>
@@ -6836,10 +6836,10 @@
         <v>0.7979829515738579</v>
       </c>
       <c r="W57">
-        <v>0.96529704967077834</v>
+        <v>0.88803754853985506</v>
       </c>
       <c r="X57">
-        <v>8.0669546655325622E-2</v>
+        <v>0.15711471500547569</v>
       </c>
       <c r="Y57">
         <v>0.89848484848484844</v>
@@ -6848,10 +6848,10 @@
         <v>0.60104642743998515</v>
       </c>
       <c r="AA57">
-        <v>0.90576560837409559</v>
+        <v>0.57135458360001956</v>
       </c>
       <c r="AB57">
-        <v>0.13359822172650671</v>
+        <v>0.42627962455524249</v>
       </c>
       <c r="AC57">
         <v>3300</v>
@@ -6863,10 +6863,10 @@
         <v>0.80907597405489307</v>
       </c>
       <c r="AF57">
-        <v>0.96693321904020024</v>
+        <v>0.77751054689644772</v>
       </c>
       <c r="AG57">
-        <v>7.8744889204046611E-2</v>
+        <v>0.24609657022758061</v>
       </c>
       <c r="AH57">
         <v>0.8893939393939394</v>
@@ -6875,10 +6875,10 @@
         <v>0.62982685242407943</v>
       </c>
       <c r="AJ57">
-        <v>0.93904362782772566</v>
+        <v>0.90026231151911107</v>
       </c>
       <c r="AK57">
-        <v>0.107449776851581</v>
+        <v>0.1471544832509348</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.3">
@@ -6895,10 +6895,10 @@
         <v>0.80678753613137155</v>
       </c>
       <c r="E58">
-        <v>0.96942129224709128</v>
+        <v>0.90024696001371796</v>
       </c>
       <c r="F58">
-        <v>7.5828754440515511E-2</v>
+        <v>0.1477918219944761</v>
       </c>
       <c r="G58">
         <v>0.89850746268656712</v>
@@ -6907,10 +6907,10 @@
         <v>0.68746625251547377</v>
       </c>
       <c r="I58">
-        <v>0.93620175698656305</v>
+        <v>0.58958745957213687</v>
       </c>
       <c r="J58">
-        <v>0.1094081772708573</v>
+        <v>0.41706561938452519</v>
       </c>
       <c r="K58">
         <v>3350</v>
@@ -6922,10 +6922,10 @@
         <v>0.80935019036480305</v>
       </c>
       <c r="N58">
-        <v>0.96769491484637549</v>
+        <v>0.77832200937492968</v>
       </c>
       <c r="O58">
-        <v>7.7939892646010492E-2</v>
+        <v>0.24565881146620819</v>
       </c>
       <c r="P58">
         <v>0.91044776119402981</v>
@@ -6934,10 +6934,10 @@
         <v>0.71740041215755235</v>
       </c>
       <c r="R58">
-        <v>0.93389483797485517</v>
+        <v>0.89793736690348536</v>
       </c>
       <c r="S58">
-        <v>0.11136868983079069</v>
+        <v>0.14669742306460809</v>
       </c>
       <c r="T58">
         <v>3350</v>
@@ -6949,10 +6949,10 @@
         <v>0.84147000505863168</v>
       </c>
       <c r="W58">
-        <v>0.97124688673980231</v>
+        <v>0.78001387552770507</v>
       </c>
       <c r="X58">
-        <v>7.3530377517801768E-2</v>
+        <v>0.24395645472596289</v>
       </c>
       <c r="Y58">
         <v>0.9</v>
@@ -6961,10 +6961,10 @@
         <v>0.5973467811938955</v>
       </c>
       <c r="AA58">
-        <v>0.93230385934609117</v>
+        <v>0.87919447244151927</v>
       </c>
       <c r="AB58">
-        <v>0.11270089856480039</v>
+        <v>0.16212160024232031</v>
       </c>
       <c r="AC58">
         <v>3350</v>
@@ -6976,10 +6976,10 @@
         <v>0.8142027414702746</v>
       </c>
       <c r="AF58">
-        <v>0.96924270148150005</v>
+        <v>0.8842861368093613</v>
       </c>
       <c r="AG58">
-        <v>7.604986580890355E-2</v>
+        <v>0.1610831156952309</v>
       </c>
       <c r="AH58">
         <v>0.88656716417910453</v>
@@ -6988,10 +6988,10 @@
         <v>0.63071494834352138</v>
       </c>
       <c r="AJ58">
-        <v>0.91464399656681061</v>
+        <v>0.59978575190539707</v>
       </c>
       <c r="AK58">
-        <v>0.12655009037189319</v>
+        <v>0.40143664817350799</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.3">
@@ -7008,10 +7008,10 @@
         <v>0.82204975296432781</v>
       </c>
       <c r="E59">
-        <v>0.97055516673636411</v>
+        <v>0.79329788772681131</v>
       </c>
       <c r="F59">
-        <v>7.4087587275030717E-2</v>
+        <v>0.23047486210176421</v>
       </c>
       <c r="G59">
         <v>0.91029411764705881</v>
@@ -7020,10 +7020,10 @@
         <v>0.67852094521239681</v>
       </c>
       <c r="I59">
-        <v>0.91518304902582726</v>
+        <v>0.80868847290168</v>
       </c>
       <c r="J59">
-        <v>0.12678142376454329</v>
+        <v>0.22359447962414861</v>
       </c>
       <c r="K59">
         <v>3400</v>
@@ -7035,10 +7035,10 @@
         <v>0.82006412348384872</v>
       </c>
       <c r="N59">
-        <v>0.96881963738124022</v>
+        <v>0.78401372763970456</v>
       </c>
       <c r="O59">
-        <v>7.6239753409884536E-2</v>
+        <v>0.23942850402818461</v>
       </c>
       <c r="P59">
         <v>0.90735294117647058</v>
@@ -7047,10 +7047,10 @@
         <v>0.57911836341460698</v>
       </c>
       <c r="R59">
-        <v>0.92379666435806251</v>
+        <v>0.85572119052573803</v>
       </c>
       <c r="S59">
-        <v>0.1201714461533531</v>
+        <v>0.18120934342644471</v>
       </c>
       <c r="T59">
         <v>3400</v>
@@ -7062,10 +7062,10 @@
         <v>0.81490448267286852</v>
       </c>
       <c r="W59">
-        <v>0.9662360652730444</v>
+        <v>0.78710399501752637</v>
       </c>
       <c r="X59">
-        <v>7.9335475337700107E-2</v>
+        <v>0.2372567147034938</v>
       </c>
       <c r="Y59">
         <v>0.90588235294117647</v>
@@ -7074,10 +7074,10 @@
         <v>0.65108901565759192</v>
       </c>
       <c r="AA59">
-        <v>0.92775427140260314</v>
+        <v>0.82739488603543609</v>
       </c>
       <c r="AB59">
-        <v>0.11700930078668199</v>
+        <v>0.19994435411329209</v>
       </c>
       <c r="AC59">
         <v>3400</v>
@@ -7089,10 +7089,10 @@
         <v>0.84010953842907399</v>
       </c>
       <c r="AF59">
-        <v>0.97018045017105325</v>
+        <v>0.78041752460039793</v>
       </c>
       <c r="AG59">
-        <v>7.4557518262156258E-2</v>
+        <v>0.24451082014705869</v>
       </c>
       <c r="AH59">
         <v>0.88529411764705879</v>
@@ -7101,10 +7101,10 @@
         <v>0.58964095411498729</v>
       </c>
       <c r="AJ59">
-        <v>0.92030465814229145</v>
+        <v>0.89671039516382522</v>
       </c>
       <c r="AK59">
-        <v>0.1228940241690807</v>
+        <v>0.14377799483530179</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.3">
@@ -7121,10 +7121,10 @@
         <v>0.81186370080584191</v>
       </c>
       <c r="E60">
-        <v>0.96673453121189667</v>
+        <v>0.90019913165167431</v>
       </c>
       <c r="F60">
-        <v>7.8781480940195797E-2</v>
+        <v>0.147187206957619</v>
       </c>
       <c r="G60">
         <v>0.91159420289855075</v>
@@ -7133,10 +7133,10 @@
         <v>0.64005875895453801</v>
       </c>
       <c r="I60">
-        <v>0.93663253079375142</v>
+        <v>0.59395090110688098</v>
       </c>
       <c r="J60">
-        <v>0.1093458812170373</v>
+        <v>0.41128219545776618</v>
       </c>
       <c r="K60">
         <v>3450</v>
@@ -7148,10 +7148,10 @@
         <v>0.81451185857624164</v>
       </c>
       <c r="N60">
-        <v>0.96945325020216777</v>
+        <v>0.78499783448718397</v>
       </c>
       <c r="O60">
-        <v>7.5493545169894094E-2</v>
+        <v>0.2385541993273779</v>
       </c>
       <c r="P60">
         <v>0.89565217391304353</v>
@@ -7160,10 +7160,10 @@
         <v>0.60062323412447494</v>
       </c>
       <c r="R60">
-        <v>0.90291335627066882</v>
+        <v>0.82018270987340369</v>
       </c>
       <c r="S60">
-        <v>0.1353471114568395</v>
+        <v>0.20169030983215089</v>
       </c>
       <c r="T60">
         <v>3450</v>
@@ -7175,10 +7175,10 @@
         <v>0.8381767973773927</v>
       </c>
       <c r="W60">
-        <v>0.97213313034972082</v>
+        <v>0.88616535931614526</v>
       </c>
       <c r="X60">
-        <v>7.2106000875924614E-2</v>
+        <v>0.1604706459221098</v>
       </c>
       <c r="Y60">
         <v>0.90579710144927539</v>
@@ -7187,10 +7187,10 @@
         <v>0.58883866073251023</v>
       </c>
       <c r="AA60">
-        <v>0.9261864995064184</v>
+        <v>0.59584374044281185</v>
       </c>
       <c r="AB60">
-        <v>0.1180149830821665</v>
+        <v>0.39194510453047349</v>
       </c>
       <c r="AC60">
         <v>3450</v>
@@ -7202,10 +7202,10 @@
         <v>0.82395166450089175</v>
       </c>
       <c r="AF60">
-        <v>0.9691425394604225</v>
+        <v>0.78592287721111531</v>
       </c>
       <c r="AG60">
-        <v>7.5876520589781893E-2</v>
+        <v>0.23814325399026309</v>
       </c>
       <c r="AH60">
         <v>0.90144927536231889</v>
@@ -7214,10 +7214,10 @@
         <v>0.74429672984697404</v>
       </c>
       <c r="AJ60">
-        <v>0.94254682791966793</v>
+        <v>0.88175817311113414</v>
       </c>
       <c r="AK60">
-        <v>0.1041181046223227</v>
+        <v>0.16322031591598091</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.3">
@@ -7234,10 +7234,10 @@
         <v>0.82631897652109443</v>
       </c>
       <c r="E61">
-        <v>0.96661724627939283</v>
+        <v>0.89563194792524081</v>
       </c>
       <c r="F61">
-        <v>7.8785422872145933E-2</v>
+        <v>0.1501052845760226</v>
       </c>
       <c r="G61">
         <v>0.89857142857142858</v>
@@ -7246,10 +7246,10 @@
         <v>0.63418186057088999</v>
       </c>
       <c r="I61">
-        <v>0.9284128776661793</v>
+        <v>0.57406139314416083</v>
       </c>
       <c r="J61">
-        <v>0.1158200574783388</v>
+        <v>0.41881263929900342</v>
       </c>
       <c r="K61">
         <v>3500</v>
@@ -7261,10 +7261,10 @@
         <v>0.82323343527534121</v>
       </c>
       <c r="N61">
-        <v>0.97245634704525274</v>
+        <v>0.78354966054127695</v>
       </c>
       <c r="O61">
-        <v>7.1564157030098316E-2</v>
+        <v>0.24152088310652239</v>
       </c>
       <c r="P61">
         <v>0.90571428571428569</v>
@@ -7273,10 +7273,10 @@
         <v>0.65205012054130895</v>
       </c>
       <c r="R61">
-        <v>0.92879406575102386</v>
+        <v>0.90417689364319576</v>
       </c>
       <c r="S61">
-        <v>0.1155112857813346</v>
+        <v>0.13754824548064931</v>
       </c>
       <c r="T61">
         <v>3500</v>
@@ -7288,10 +7288,10 @@
         <v>0.83800973162230963</v>
       </c>
       <c r="W61">
-        <v>0.96874928636166402</v>
+        <v>0.79738579462877301</v>
       </c>
       <c r="X61">
-        <v>7.6228041334631472E-2</v>
+        <v>0.2283301373178318</v>
       </c>
       <c r="Y61">
         <v>0.90428571428571425</v>
@@ -7300,10 +7300,10 @@
         <v>0.62628092616429876</v>
       </c>
       <c r="AA61">
-        <v>0.93573168889519609</v>
+        <v>0.81891713744143624</v>
       </c>
       <c r="AB61">
-        <v>0.10973995235490649</v>
+        <v>0.21114681453759551</v>
       </c>
       <c r="AC61">
         <v>3500</v>
@@ -7315,10 +7315,10 @@
         <v>0.82477372009066752</v>
       </c>
       <c r="AF61">
-        <v>0.96817305931240161</v>
+        <v>0.78434854447165969</v>
       </c>
       <c r="AG61">
-        <v>7.6927609756557117E-2</v>
+        <v>0.2383707809372117</v>
       </c>
       <c r="AH61">
         <v>0.9028571428571428</v>
@@ -7327,10 +7327,10 @@
         <v>0.63588346465041468</v>
       </c>
       <c r="AJ61">
-        <v>0.93260594659947005</v>
+        <v>0.88217109813234229</v>
       </c>
       <c r="AK61">
-        <v>0.11237691679598361</v>
+        <v>0.16155560227662019</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.3">
@@ -7347,10 +7347,10 @@
         <v>0.84672666789478312</v>
       </c>
       <c r="E62">
-        <v>0.97141163928246688</v>
+        <v>0.88428896595880446</v>
       </c>
       <c r="F62">
-        <v>7.3254332179732484E-2</v>
+        <v>0.16255767932535711</v>
       </c>
       <c r="G62">
         <v>0.9</v>
@@ -7359,10 +7359,10 @@
         <v>0.64266520002207184</v>
       </c>
       <c r="I62">
-        <v>0.9414313510378719</v>
+        <v>0.61994595408085562</v>
       </c>
       <c r="J62">
-        <v>0.10561690005612159</v>
+        <v>0.37606212212257928</v>
       </c>
       <c r="K62">
         <v>3550</v>
@@ -7374,10 +7374,10 @@
         <v>0.83167460815382932</v>
       </c>
       <c r="N62">
-        <v>0.96989217916559012</v>
+        <v>0.79309301427454448</v>
       </c>
       <c r="O62">
-        <v>7.517585018278293E-2</v>
+        <v>0.23422956949401871</v>
       </c>
       <c r="P62">
         <v>0.90140845070422537</v>
@@ -7386,10 +7386,10 @@
         <v>0.64373103443791024</v>
       </c>
       <c r="R62">
-        <v>0.92856399634164666</v>
+        <v>0.83080587278577911</v>
       </c>
       <c r="S62">
-        <v>0.11664319012620029</v>
+        <v>0.19509890358934889</v>
       </c>
       <c r="T62">
         <v>3550</v>
@@ -7401,10 +7401,10 @@
         <v>0.83194243366209553</v>
       </c>
       <c r="W62">
-        <v>0.970623771073716</v>
+        <v>0.79831200169025629</v>
       </c>
       <c r="X62">
-        <v>7.4256881883380019E-2</v>
+        <v>0.23081046194438609</v>
       </c>
       <c r="Y62">
         <v>0.89718309859154932</v>
@@ -7413,10 +7413,10 @@
         <v>0.65653296858704091</v>
       </c>
       <c r="AA62">
-        <v>0.9389909906644498</v>
+        <v>0.85334349764645345</v>
       </c>
       <c r="AB62">
-        <v>0.1077947972300108</v>
+        <v>0.18325724681738789</v>
       </c>
       <c r="AC62">
         <v>3550</v>
@@ -7428,10 +7428,10 @@
         <v>0.8062989546913506</v>
       </c>
       <c r="AF62">
-        <v>0.96602787318933558</v>
+        <v>0.78401021992213771</v>
       </c>
       <c r="AG62">
-        <v>7.9854621427818948E-2</v>
+        <v>0.2420635575290509</v>
       </c>
       <c r="AH62">
         <v>0.89014084507042257</v>
@@ -7440,10 +7440,10 @@
         <v>0.66629514057700523</v>
       </c>
       <c r="AJ62">
-        <v>0.91687984667495948</v>
+        <v>0.89702608477872126</v>
       </c>
       <c r="AK62">
-        <v>0.12582124588277191</v>
+        <v>0.1436530039430873</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.3">
@@ -7460,10 +7460,10 @@
         <v>0.82853164722930883</v>
       </c>
       <c r="E63">
-        <v>0.9708660266340875</v>
+        <v>0.78992492886046817</v>
       </c>
       <c r="F63">
-        <v>7.4232180802308825E-2</v>
+        <v>0.2383712060730806</v>
       </c>
       <c r="G63">
         <v>0.8930555555555556</v>
@@ -7472,10 +7472,10 @@
         <v>0.56705700573656714</v>
       </c>
       <c r="I63">
-        <v>0.91741458443810164</v>
+        <v>0.84505557727661584</v>
       </c>
       <c r="J63">
-        <v>0.1238278374733781</v>
+        <v>0.18251025825460021</v>
       </c>
       <c r="K63">
         <v>3600</v>
@@ -7487,10 +7487,10 @@
         <v>0.8394676982126198</v>
       </c>
       <c r="N63">
-        <v>0.97268345786485333</v>
+        <v>0.79960161889588943</v>
       </c>
       <c r="O63">
-        <v>7.1879528842826071E-2</v>
+        <v>0.23019823944878029</v>
       </c>
       <c r="P63">
         <v>0.90555555555555556</v>
@@ -7499,10 +7499,10 @@
         <v>0.64901455865060054</v>
       </c>
       <c r="R63">
-        <v>0.90581971178221921</v>
+        <v>0.80657840497789635</v>
       </c>
       <c r="S63">
-        <v>0.13223506006771091</v>
+        <v>0.21510972202087519</v>
       </c>
       <c r="T63">
         <v>3600</v>
@@ -7514,10 +7514,10 @@
         <v>0.82774903184773441</v>
       </c>
       <c r="W63">
-        <v>0.97187571065117961</v>
+        <v>0.79138570132899733</v>
       </c>
       <c r="X63">
-        <v>7.2934521623470208E-2</v>
+        <v>0.23785904115191811</v>
       </c>
       <c r="Y63">
         <v>0.91111111111111109</v>
@@ -7526,10 +7526,10 @@
         <v>0.64803990861349292</v>
       </c>
       <c r="AA63">
-        <v>0.93364740615633712</v>
+        <v>0.8744890822748389</v>
       </c>
       <c r="AB63">
-        <v>0.11099299277181621</v>
+        <v>0.16313680747970499</v>
       </c>
       <c r="AC63">
         <v>3600</v>
@@ -7541,10 +7541,10 @@
         <v>0.83499711296089019</v>
       </c>
       <c r="AF63">
-        <v>0.96991141629065503</v>
+        <v>0.7896904184238881</v>
       </c>
       <c r="AG63">
-        <v>7.5438532741711126E-2</v>
+        <v>0.23904690998335951</v>
       </c>
       <c r="AH63">
         <v>0.8930555555555556</v>
@@ -7553,10 +7553,10 @@
         <v>0.60579239124431472</v>
       </c>
       <c r="AJ63">
-        <v>0.91202857907536916</v>
+        <v>0.86685941752779883</v>
       </c>
       <c r="AK63">
-        <v>0.12780193008453869</v>
+        <v>0.1672376112877304</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.3">
@@ -7573,10 +7573,10 @@
         <v>0.83240499999500062</v>
       </c>
       <c r="E64">
-        <v>0.97376005298718027</v>
+        <v>0.88509370600623116</v>
       </c>
       <c r="F64">
-        <v>7.056523262056548E-2</v>
+        <v>0.16382989002592421</v>
       </c>
       <c r="G64">
         <v>0.89452054794520552</v>
@@ -7585,10 +7585,10 @@
         <v>0.62376503762459623</v>
       </c>
       <c r="I64">
-        <v>0.93511538408074391</v>
+        <v>0.60727885571752349</v>
       </c>
       <c r="J64">
-        <v>0.1095445115010332</v>
+        <v>0.3764102087810336</v>
       </c>
       <c r="K64">
         <v>3650</v>
@@ -7600,10 +7600,10 @@
         <v>0.81862108282598245</v>
       </c>
       <c r="N64">
-        <v>0.96995219272603517</v>
+        <v>0.79471999194720888</v>
       </c>
       <c r="O64">
-        <v>7.5511951335669694E-2</v>
+        <v>0.23409289713673459</v>
       </c>
       <c r="P64">
         <v>0.9123287671232877</v>
@@ -7612,10 +7612,10 @@
         <v>0.68459839494239383</v>
       </c>
       <c r="R64">
-        <v>0.92985647114664904</v>
+        <v>0.86009975975420161</v>
       </c>
       <c r="S64">
-        <v>0.1138973342081632</v>
+        <v>0.17831874931521721</v>
       </c>
       <c r="T64">
         <v>3650</v>
@@ -7627,10 +7627,10 @@
         <v>0.81872615490568312</v>
       </c>
       <c r="W64">
-        <v>0.96865282808716091</v>
+        <v>0.78860410898190714</v>
       </c>
       <c r="X64">
-        <v>7.7127363088506401E-2</v>
+        <v>0.240279024943098</v>
       </c>
       <c r="Y64">
         <v>0.9123287671232877</v>
@@ -7639,10 +7639,10 @@
         <v>0.61239935542826596</v>
       </c>
       <c r="AA64">
-        <v>0.93563386845452801</v>
+        <v>0.89875105700743041</v>
       </c>
       <c r="AB64">
-        <v>0.1091059557908783</v>
+        <v>0.1431716173024089</v>
       </c>
       <c r="AC64">
         <v>3650</v>
@@ -7654,10 +7654,10 @@
         <v>0.86352467978963932</v>
       </c>
       <c r="AF64">
-        <v>0.97616026822287827</v>
+        <v>0.90657269674373653</v>
       </c>
       <c r="AG64">
-        <v>6.7260483218155101E-2</v>
+        <v>0.14345711794928001</v>
       </c>
       <c r="AH64">
         <v>0.88219178082191785</v>
@@ -7666,10 +7666,10 @@
         <v>0.64430404290007259</v>
       </c>
       <c r="AJ64">
-        <v>0.90926523458779829</v>
+        <v>0.59781779637755073</v>
       </c>
       <c r="AK64">
-        <v>0.12954081178458091</v>
+        <v>0.40801699222223031</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.3">
@@ -7686,10 +7686,10 @@
         <v>0.85217100551849456</v>
       </c>
       <c r="E65">
-        <v>0.97402633819424933</v>
+        <v>0.7932973029550815</v>
       </c>
       <c r="F65">
-        <v>7.0038599396371456E-2</v>
+        <v>0.23620723728438531</v>
       </c>
       <c r="G65">
         <v>0.9</v>
@@ -7698,10 +7698,10 @@
         <v>0.6367827933249488</v>
       </c>
       <c r="I65">
-        <v>0.93643696935682841</v>
+        <v>0.89264277735509034</v>
       </c>
       <c r="J65">
-        <v>0.1084908764379303</v>
+        <v>0.14911493560261821</v>
       </c>
       <c r="K65">
         <v>3700</v>
@@ -7713,10 +7713,10 @@
         <v>0.83890596272580864</v>
       </c>
       <c r="N65">
-        <v>0.97235558138194467</v>
+        <v>0.79388490080516783</v>
       </c>
       <c r="O65">
-        <v>7.2246761827742798E-2</v>
+        <v>0.23413876233929229</v>
       </c>
       <c r="P65">
         <v>0.9027027027027027</v>
@@ -7725,10 +7725,10 @@
         <v>0.70410695358190623</v>
       </c>
       <c r="R65">
-        <v>0.95035688194643109</v>
+        <v>0.89381729237828766</v>
       </c>
       <c r="S65">
-        <v>9.5930718243442237E-2</v>
+        <v>0.15388890058319649</v>
       </c>
       <c r="T65">
         <v>3700</v>
@@ -7740,10 +7740,10 @@
         <v>0.83005449421493149</v>
       </c>
       <c r="W65">
-        <v>0.96928596603273154</v>
+        <v>0.79311244077718412</v>
       </c>
       <c r="X65">
-        <v>7.6162166957589095E-2</v>
+        <v>0.23569595489497469</v>
       </c>
       <c r="Y65">
         <v>0.91486486486486485</v>
@@ -7752,10 +7752,10 @@
         <v>0.65796651142781049</v>
       </c>
       <c r="AA65">
-        <v>0.94869711763243436</v>
+        <v>0.89460452502811727</v>
       </c>
       <c r="AB65">
-        <v>9.7467943448089636E-2</v>
+        <v>0.14975245248943239</v>
       </c>
       <c r="AC65">
         <v>3700</v>
@@ -7767,10 +7767,10 @@
         <v>0.85290323834385728</v>
       </c>
       <c r="AF65">
-        <v>0.97468820147717827</v>
+        <v>0.7965242366788059</v>
       </c>
       <c r="AG65">
-        <v>6.9140475883561897E-2</v>
+        <v>0.23354937754187341</v>
       </c>
       <c r="AH65">
         <v>0.88378378378378375</v>
@@ -7779,10 +7779,10 @@
         <v>0.62917859824836442</v>
       </c>
       <c r="AJ65">
-        <v>0.90191881379515193</v>
+        <v>0.84634764358767456</v>
       </c>
       <c r="AK65">
-        <v>0.13476706631132901</v>
+        <v>0.18158097683116051</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.3">
@@ -7799,10 +7799,10 @@
         <v>0.85471381840265237</v>
       </c>
       <c r="E66">
-        <v>0.97490436033435579</v>
+        <v>0.79663351228569601</v>
       </c>
       <c r="F66">
-        <v>6.8750757571583651E-2</v>
+        <v>0.23386096716682239</v>
       </c>
       <c r="G66">
         <v>0.88533333333333331</v>
@@ -7811,10 +7811,10 @@
         <v>0.58423930844466387</v>
       </c>
       <c r="I66">
-        <v>0.90609206721219082</v>
+        <v>0.85764002441267517</v>
       </c>
       <c r="J66">
-        <v>0.13170674495509591</v>
+        <v>0.17054561883650449</v>
       </c>
       <c r="K66">
         <v>3750</v>
@@ -7826,10 +7826,10 @@
         <v>0.84518136781171338</v>
       </c>
       <c r="N66">
-        <v>0.97313456910264606</v>
+        <v>0.79453227586121444</v>
       </c>
       <c r="O66">
-        <v>7.1133676975114954E-2</v>
+        <v>0.2349398538187383</v>
       </c>
       <c r="P66">
         <v>0.90933333333333333</v>
@@ -7838,10 +7838,10 @@
         <v>0.68876896987459268</v>
       </c>
       <c r="R66">
-        <v>0.93936766829995411</v>
+        <v>0.89017293654482821</v>
       </c>
       <c r="S66">
-        <v>0.1058300524425836</v>
+        <v>0.1502474168381828</v>
       </c>
       <c r="T66">
         <v>3750</v>
@@ -7853,10 +7853,10 @@
         <v>0.81843998073541468</v>
       </c>
       <c r="W66">
-        <v>0.96786059123215096</v>
+        <v>0.79544836573670175</v>
       </c>
       <c r="X66">
-        <v>7.7803170458107515E-2</v>
+        <v>0.2319815876988732</v>
       </c>
       <c r="Y66">
         <v>0.91600000000000004</v>
@@ -7865,10 +7865,10 @@
         <v>0.66004700676522177</v>
       </c>
       <c r="AA66">
-        <v>0.9460805335953163</v>
+        <v>0.87177503744335128</v>
       </c>
       <c r="AB66">
-        <v>9.979979959899718E-2</v>
+        <v>0.1708844242984916</v>
       </c>
       <c r="AC66">
         <v>3750</v>
@@ -7880,10 +7880,10 @@
         <v>0.82403015144614267</v>
       </c>
       <c r="AF66">
-        <v>0.96840922651398098</v>
+        <v>0.79249260780137054</v>
       </c>
       <c r="AG66">
-        <v>7.7136243102707572E-2</v>
+        <v>0.23470335894105859</v>
       </c>
       <c r="AH66">
         <v>0.88800000000000001</v>
@@ -7892,10 +7892,10 @@
         <v>0.61978300053879631</v>
       </c>
       <c r="AJ66">
-        <v>0.92197196360982192</v>
+        <v>0.86915357193460352</v>
       </c>
       <c r="AK66">
-        <v>0.1200555427014235</v>
+        <v>0.16899421079780819</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.3">
@@ -7912,10 +7912,10 @@
         <v>0.81743748156046081</v>
       </c>
       <c r="E67">
-        <v>0.97009608793763391</v>
+        <v>0.80311298874101889</v>
       </c>
       <c r="F67">
-        <v>7.4736378797674377E-2</v>
+        <v>0.22414890774472079</v>
       </c>
       <c r="G67">
         <v>0.89736842105263159</v>
@@ -7924,10 +7924,10 @@
         <v>0.67407449322335833</v>
       </c>
       <c r="I67">
-        <v>0.9345443372013158</v>
+        <v>0.82053956165599251</v>
       </c>
       <c r="J67">
-        <v>0.11197979140992589</v>
+        <v>0.2144760861692705</v>
       </c>
       <c r="K67">
         <v>3800</v>
@@ -7939,10 +7939,10 @@
         <v>0.88213427605101313</v>
       </c>
       <c r="N67">
-        <v>0.97552035467215026</v>
+        <v>0.81190102309514423</v>
       </c>
       <c r="O67">
-        <v>6.7619290302787349E-2</v>
+        <v>0.21705929387344111</v>
       </c>
       <c r="P67">
         <v>0.89736842105263159</v>
@@ -7951,10 +7951,10 @@
         <v>0.64287483556894243</v>
       </c>
       <c r="R67">
-        <v>0.94395401800238588</v>
+        <v>0.81809663320776305</v>
       </c>
       <c r="S67">
-        <v>0.103618734335366</v>
+        <v>0.2237122807430823</v>
       </c>
       <c r="T67">
         <v>3800</v>
@@ -7966,10 +7966,10 @@
         <v>0.85929669764365657</v>
       </c>
       <c r="W67">
-        <v>0.972772998793629</v>
+        <v>0.79572600720310671</v>
       </c>
       <c r="X67">
-        <v>7.1312876227154612E-2</v>
+        <v>0.23067398800505401</v>
       </c>
       <c r="Y67">
         <v>0.92500000000000004</v>
@@ -7978,10 +7978,10 @@
         <v>0.66711754707923765</v>
       </c>
       <c r="AA67">
-        <v>0.93955825470845533</v>
+        <v>0.87852136530566149</v>
       </c>
       <c r="AB67">
-        <v>0.107605517369794</v>
+        <v>0.1690044615679068</v>
       </c>
       <c r="AC67">
         <v>3800</v>
@@ -7993,10 +7993,10 @@
         <v>0.85313833884835655</v>
       </c>
       <c r="AF67">
-        <v>0.97027220049394935</v>
+        <v>0.88358140768591276</v>
       </c>
       <c r="AG67">
-        <v>7.4515982037059447E-2</v>
+        <v>0.16334069414584759</v>
       </c>
       <c r="AH67">
         <v>0.89078947368421058</v>
@@ -8005,10 +8005,10 @@
         <v>0.67291292942749259</v>
       </c>
       <c r="AJ67">
-        <v>0.93564327802479852</v>
+        <v>0.62529349071026097</v>
       </c>
       <c r="AK67">
-        <v>0.1110357931858959</v>
+        <v>0.3674513436155098</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.3">
@@ -8025,10 +8025,10 @@
         <v>0.8469748087596537</v>
       </c>
       <c r="E68">
-        <v>0.97561693095204283</v>
+        <v>0.80872855563357082</v>
       </c>
       <c r="F68">
-        <v>6.8019286798843878E-2</v>
+        <v>0.22350972918371181</v>
       </c>
       <c r="G68">
         <v>0.89480519480519483</v>
@@ -8037,10 +8037,10 @@
         <v>0.62258584218279478</v>
       </c>
       <c r="I68">
-        <v>0.93764752646098093</v>
+        <v>0.84710539058469592</v>
       </c>
       <c r="J68">
-        <v>0.1079923037180783</v>
+        <v>0.1888467392382622</v>
       </c>
       <c r="K68">
         <v>3850</v>
@@ -8052,10 +8052,10 @@
         <v>0.80984084340411189</v>
       </c>
       <c r="N68">
-        <v>0.97294762655100331</v>
+        <v>0.80371410725076287</v>
       </c>
       <c r="O68">
-        <v>7.1645773658443268E-2</v>
+        <v>0.22600314579793371</v>
       </c>
       <c r="P68">
         <v>0.90519480519480522</v>
@@ -8064,10 +8064,10 @@
         <v>0.70894339346063806</v>
       </c>
       <c r="R68">
-        <v>0.95021522992485885</v>
+        <v>0.87053768218075844</v>
       </c>
       <c r="S68">
-        <v>9.6497089653980295E-2</v>
+        <v>0.17521636589626111</v>
       </c>
       <c r="T68">
         <v>3850</v>
@@ -8079,10 +8079,10 @@
         <v>0.84136046923704821</v>
       </c>
       <c r="W68">
-        <v>0.96875544976731942</v>
+        <v>0.79550475706373946</v>
       </c>
       <c r="X68">
-        <v>7.699721701835352E-2</v>
+        <v>0.2339820177664203</v>
       </c>
       <c r="Y68">
         <v>0.91688311688311686</v>
@@ -8091,10 +8091,10 @@
         <v>0.60054805885577023</v>
       </c>
       <c r="AA68">
-        <v>0.9438966607800362</v>
+        <v>0.89250187984274321</v>
       </c>
       <c r="AB68">
-        <v>0.1024378176920345</v>
+        <v>0.14917013374589769</v>
       </c>
       <c r="AC68">
         <v>3850</v>
@@ -8106,10 +8106,10 @@
         <v>0.84220371175399755</v>
       </c>
       <c r="AF68">
-        <v>0.9708087608450422</v>
+        <v>0.8899821844968705</v>
       </c>
       <c r="AG68">
-        <v>7.4424196596006589E-2</v>
+        <v>0.1571658973812734</v>
       </c>
       <c r="AH68">
         <v>0.89090909090909087</v>
@@ -8118,10 +8118,10 @@
         <v>0.63398549110588709</v>
       </c>
       <c r="AJ68">
-        <v>0.92827382498239785</v>
+        <v>0.623047908766726</v>
       </c>
       <c r="AK68">
-        <v>0.11582566389010859</v>
+        <v>0.37841418161920132</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.3">
@@ -8138,10 +8138,10 @@
         <v>0.82934600831618677</v>
       </c>
       <c r="E69">
-        <v>0.97210288548311408</v>
+        <v>0.9114639925118917</v>
       </c>
       <c r="F69">
-        <v>7.2633608100114544E-2</v>
+        <v>0.1378765134138204</v>
       </c>
       <c r="G69">
         <v>0.88589743589743586</v>
@@ -8150,10 +8150,10 @@
         <v>0.62794919027067142</v>
       </c>
       <c r="I69">
-        <v>0.92599797624428537</v>
+        <v>0.60929248815171211</v>
       </c>
       <c r="J69">
-        <v>0.1184298992047237</v>
+        <v>0.40236770855832799</v>
       </c>
       <c r="K69">
         <v>3900</v>
@@ -8165,10 +8165,10 @@
         <v>0.83045263571197414</v>
       </c>
       <c r="N69">
-        <v>0.97154664708338734</v>
+        <v>0.79964633308861266</v>
       </c>
       <c r="O69">
-        <v>7.3205015941357185E-2</v>
+        <v>0.22981426916999431</v>
       </c>
       <c r="P69">
         <v>0.90256410256410258</v>
@@ -8177,10 +8177,10 @@
         <v>0.6693985304298532</v>
       </c>
       <c r="R69">
-        <v>0.91712622313706815</v>
+        <v>0.86359868092680125</v>
       </c>
       <c r="S69">
-        <v>0.1263389823512065</v>
+        <v>0.17280357492467821</v>
       </c>
       <c r="T69">
         <v>3900</v>
@@ -8192,10 +8192,10 @@
         <v>0.83909350963794793</v>
       </c>
       <c r="W69">
-        <v>0.97306120952930752</v>
+        <v>0.79776464794641866</v>
       </c>
       <c r="X69">
-        <v>7.1230035439538764E-2</v>
+        <v>0.2315528963026339</v>
       </c>
       <c r="Y69">
         <v>0.92435897435897441</v>
@@ -8204,10 +8204,10 @@
         <v>0.66263136423915747</v>
       </c>
       <c r="AA69">
-        <v>0.95127421312155336</v>
+        <v>0.90929816522213147</v>
       </c>
       <c r="AB69">
-        <v>9.6874224562653308E-2</v>
+        <v>0.13894508598363989</v>
       </c>
       <c r="AC69">
         <v>3900</v>
@@ -8219,10 +8219,10 @@
         <v>0.8510163496583546</v>
       </c>
       <c r="AF69">
-        <v>0.97512033375353602</v>
+        <v>0.81254711204534924</v>
       </c>
       <c r="AG69">
-        <v>6.8453615214226896E-2</v>
+        <v>0.21733202076720171</v>
       </c>
       <c r="AH69">
         <v>0.89871794871794874</v>
@@ -8231,10 +8231,10 @@
         <v>0.63978366960611033</v>
       </c>
       <c r="AJ69">
-        <v>0.9426207263808456</v>
+        <v>0.82936546326194049</v>
       </c>
       <c r="AK69">
-        <v>0.1051250781273529</v>
+        <v>0.2128078427566488</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.3">
@@ -8251,10 +8251,10 @@
         <v>0.83058078443091232</v>
       </c>
       <c r="E70">
-        <v>0.97021228208066468</v>
+        <v>0.80013939003280132</v>
       </c>
       <c r="F70">
-        <v>7.5052724083840311E-2</v>
+        <v>0.22954862536289619</v>
       </c>
       <c r="G70">
         <v>0.88227848101265827</v>
@@ -8263,10 +8263,10 @@
         <v>0.55533040817146817</v>
       </c>
       <c r="I70">
-        <v>0.93007544913096485</v>
+        <v>0.88233460084119975</v>
       </c>
       <c r="J70">
-        <v>0.1149022699757042</v>
+        <v>0.15867992100330491</v>
       </c>
       <c r="K70">
         <v>3950</v>
@@ -8278,10 +8278,10 @@
         <v>0.84342801654021093</v>
       </c>
       <c r="N70">
-        <v>0.97611847922993478</v>
+        <v>0.80348583125494877</v>
       </c>
       <c r="O70">
-        <v>6.7199871910667563E-2</v>
+        <v>0.22766806204182991</v>
       </c>
       <c r="P70">
         <v>0.90886075949367084</v>
@@ -8290,10 +8290,10 @@
         <v>0.67045839116485539</v>
       </c>
       <c r="R70">
-        <v>0.93732765423090303</v>
+        <v>0.87956577572884087</v>
       </c>
       <c r="S70">
-        <v>0.1087908223977312</v>
+        <v>0.1603716542840336</v>
       </c>
       <c r="T70">
         <v>3950</v>
@@ -8305,10 +8305,10 @@
         <v>0.86533557144795581</v>
       </c>
       <c r="W70">
-        <v>0.97342533929443564</v>
+        <v>0.79914448107830438</v>
       </c>
       <c r="X70">
-        <v>7.0889466465027098E-2</v>
+        <v>0.23135865740581291</v>
       </c>
       <c r="Y70">
         <v>0.91518987341772151</v>
@@ -8317,10 +8317,10 @@
         <v>0.63394313248389178</v>
       </c>
       <c r="AA70">
-        <v>0.94207592334530554</v>
+        <v>0.90975438965595057</v>
       </c>
       <c r="AB70">
-        <v>0.10457872087934281</v>
+        <v>0.1351955516205815</v>
       </c>
       <c r="AC70">
         <v>3950</v>
@@ -8332,10 +8332,10 @@
         <v>0.84192241497618991</v>
       </c>
       <c r="AF70">
-        <v>0.97680574323809055</v>
+        <v>0.89647734801937684</v>
       </c>
       <c r="AG70">
-        <v>6.6227456159564879E-2</v>
+        <v>0.15179115270671509</v>
       </c>
       <c r="AH70">
         <v>0.90759493670886071</v>
@@ -8344,10 +8344,10 @@
         <v>0.63966135258927914</v>
       </c>
       <c r="AJ70">
-        <v>0.93476837200808127</v>
+        <v>0.6333888677376357</v>
       </c>
       <c r="AK70">
-        <v>0.11097952827527489</v>
+        <v>0.37235323263831122</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.3">
@@ -8364,10 +8364,10 @@
         <v>0.80776910119728684</v>
       </c>
       <c r="E71">
-        <v>0.97266830818574024</v>
+        <v>0.76680533365694947</v>
       </c>
       <c r="F71">
-        <v>7.1980900244439844E-2</v>
+        <v>0.25858584702047321</v>
       </c>
       <c r="G71">
         <v>0.90500000000000003</v>
@@ -8376,10 +8376,10 @@
         <v>0.62504274419348504</v>
       </c>
       <c r="I71">
-        <v>0.93678385416666665</v>
+        <v>0.89838599451016654</v>
       </c>
       <c r="J71">
-        <v>0.1101703226826535</v>
+        <v>0.14720767794834841</v>
       </c>
       <c r="K71">
         <v>4000</v>
@@ -8391,10 +8391,10 @@
         <v>0.82845396950729755</v>
       </c>
       <c r="N71">
-        <v>0.97460337550969389</v>
+        <v>0.80359494811430909</v>
       </c>
       <c r="O71">
-        <v>6.939470440891006E-2</v>
+        <v>0.22776536128758881</v>
       </c>
       <c r="P71">
         <v>0.90249999999999997</v>
@@ -8403,10 +8403,10 @@
         <v>0.66216453770878636</v>
       </c>
       <c r="R71">
-        <v>0.94395454909438936</v>
+        <v>0.70167639811433491</v>
       </c>
       <c r="S71">
-        <v>0.1036822067666386</v>
+        <v>0.30101373235982631</v>
       </c>
       <c r="T71">
         <v>4000</v>
@@ -8418,10 +8418,10 @@
         <v>0.82323193461238964</v>
       </c>
       <c r="W71">
-        <v>0.97169570877859823</v>
+        <v>0.77318232908007234</v>
       </c>
       <c r="X71">
-        <v>7.3250426619918055E-2</v>
+        <v>0.25171714353420233</v>
       </c>
       <c r="Y71">
         <v>0.90625</v>
@@ -8430,10 +8430,10 @@
         <v>0.62918071741252724</v>
       </c>
       <c r="AA71">
-        <v>0.93710937500000002</v>
+        <v>0.8582621255680245</v>
       </c>
       <c r="AB71">
-        <v>0.10988630487917959</v>
+        <v>0.1855464940562791</v>
       </c>
       <c r="AC71">
         <v>4000</v>
@@ -8445,10 +8445,10 @@
         <v>0.8092062690238826</v>
       </c>
       <c r="AF71">
-        <v>0.97235509820716914</v>
+        <v>0.81964026983441696</v>
       </c>
       <c r="AG71">
-        <v>7.2392161177851286E-2</v>
+        <v>0.21148885657420929</v>
       </c>
       <c r="AH71">
         <v>0.89</v>
@@ -8457,10 +8457,10 @@
         <v>0.62428478853825853</v>
       </c>
       <c r="AJ71">
-        <v>0.93001302083333337</v>
+        <v>0.68305147331102911</v>
       </c>
       <c r="AK71">
-        <v>0.11592023119369629</v>
+        <v>0.34161331533134631</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.3">
@@ -8477,10 +8477,10 @@
         <v>0.81909648659608914</v>
       </c>
       <c r="E72">
-        <v>0.97356816360843434</v>
+        <v>0.76715236019242561</v>
       </c>
       <c r="F72">
-        <v>7.0710678118654752E-2</v>
+        <v>0.25850411437139692</v>
       </c>
       <c r="G72">
         <v>0.9135802469135802</v>
@@ -8489,10 +8489,10 @@
         <v>0.62321078211001102</v>
       </c>
       <c r="I72">
-        <v>0.93717611370922338</v>
+        <v>0.90692271512259426</v>
       </c>
       <c r="J72">
-        <v>0.1095445115010332</v>
+        <v>0.13822276621612889</v>
       </c>
       <c r="K72">
         <v>4050</v>
@@ -8504,10 +8504,10 @@
         <v>0.83198045070449267</v>
       </c>
       <c r="N72">
-        <v>0.97221393989207638</v>
+        <v>0.77402760259594949</v>
       </c>
       <c r="O72">
-        <v>7.2499467856710312E-2</v>
+        <v>0.25164968007801602</v>
       </c>
       <c r="P72">
         <v>0.90123456790123457</v>
@@ -8516,10 +8516,10 @@
         <v>0.65168136022539558</v>
       </c>
       <c r="R72">
-        <v>0.92088843948568866</v>
+        <v>0.85221109050863852</v>
       </c>
       <c r="S72">
-        <v>0.1229272594305718</v>
+        <v>0.1852845384912537</v>
       </c>
       <c r="T72">
         <v>4050</v>
@@ -8531,10 +8531,10 @@
         <v>0.80417697537260646</v>
       </c>
       <c r="W72">
-        <v>0.96911390969800382</v>
+        <v>0.84660508420927139</v>
       </c>
       <c r="X72">
-        <v>7.6436853628289739E-2</v>
+        <v>0.19379694953970031</v>
       </c>
       <c r="Y72">
         <v>0.89382716049382716</v>
@@ -8543,10 +8543,10 @@
         <v>0.595811414208678</v>
       </c>
       <c r="AA72">
-        <v>0.92496035804157239</v>
+        <v>0.61048224418184616</v>
       </c>
       <c r="AB72">
-        <v>0.1197218999737865</v>
+        <v>0.3816047281666155</v>
       </c>
       <c r="AC72">
         <v>4050</v>
@@ -8558,10 +8558,10 @@
         <v>0.82491952237596511</v>
       </c>
       <c r="AF72">
-        <v>0.97182235713071985</v>
+        <v>0.76659106712155611</v>
       </c>
       <c r="AG72">
-        <v>7.3008540004442263E-2</v>
+        <v>0.258390924696904</v>
       </c>
       <c r="AH72">
         <v>0.8925925925925926</v>
@@ -8570,10 +8570,10 @@
         <v>0.62202649211786798</v>
       </c>
       <c r="AJ72">
-        <v>0.93013104827126591</v>
+        <v>0.90577119110721549</v>
       </c>
       <c r="AK72">
-        <v>0.1155234998272892</v>
+        <v>0.14034410229423561</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.3">
@@ -8590,10 +8590,10 @@
         <v>0.85016003764559334</v>
       </c>
       <c r="E73">
-        <v>0.9758776434180757</v>
+        <v>0.86603316731471258</v>
       </c>
       <c r="F73">
-        <v>6.7670291063973764E-2</v>
+        <v>0.17706552092007419</v>
       </c>
       <c r="G73">
         <v>0.90121951219512197</v>
@@ -8602,10 +8602,10 @@
         <v>0.66648357735948616</v>
       </c>
       <c r="I73">
-        <v>0.94463658734823175</v>
+        <v>0.62900411602008632</v>
       </c>
       <c r="J73">
-        <v>0.10264787073219619</v>
+        <v>0.39320936978149901</v>
       </c>
       <c r="K73">
         <v>4100</v>
@@ -8617,10 +8617,10 @@
         <v>0.82966529556038338</v>
       </c>
       <c r="N73">
-        <v>0.97459283081717429</v>
+        <v>0.78547971815567608</v>
       </c>
       <c r="O73">
-        <v>6.9449051337705944E-2</v>
+        <v>0.24196366498135671</v>
       </c>
       <c r="P73">
         <v>0.88902439024390245</v>
@@ -8629,10 +8629,10 @@
         <v>0.62661258882393045</v>
       </c>
       <c r="R73">
-        <v>0.929321939635532</v>
+        <v>0.81435051676035353</v>
       </c>
       <c r="S73">
-        <v>0.1159793926186679</v>
+        <v>0.2202461820505118</v>
       </c>
       <c r="T73">
         <v>4100</v>
@@ -8644,10 +8644,10 @@
         <v>0.83857795830275117</v>
       </c>
       <c r="W73">
-        <v>0.97372558231156581</v>
+        <v>0.77070358919776005</v>
       </c>
       <c r="X73">
-        <v>7.0624392939329261E-2</v>
+        <v>0.25650611565320358</v>
       </c>
       <c r="Y73">
         <v>0.90731707317073174</v>
@@ -8656,10 +8656,10 @@
         <v>0.66723932986346957</v>
       </c>
       <c r="AA73">
-        <v>0.9415608422009113</v>
+        <v>0.90567057090720449</v>
       </c>
       <c r="AB73">
-        <v>0.1054606619527499</v>
+        <v>0.13911026351719261</v>
       </c>
       <c r="AC73">
         <v>4100</v>
@@ -8671,10 +8671,10 @@
         <v>0.82765349302861857</v>
       </c>
       <c r="AF73">
-        <v>0.97210350640292775</v>
+        <v>0.80511511210477815</v>
       </c>
       <c r="AG73">
-        <v>7.2771778233852946E-2</v>
+        <v>0.22591681833190369</v>
       </c>
       <c r="AH73">
         <v>0.89878048780487807</v>
@@ -8683,10 +8683,10 @@
         <v>0.6432458383223425</v>
       </c>
       <c r="AJ73">
-        <v>0.93201321663943737</v>
+        <v>0.73767990782285797</v>
       </c>
       <c r="AK73">
-        <v>0.1137498324844652</v>
+        <v>0.28305095580909251</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.3">
@@ -8703,10 +8703,10 @@
         <v>0.84519819296846932</v>
       </c>
       <c r="E74">
-        <v>0.97605549013768544</v>
+        <v>0.77649207296644884</v>
       </c>
       <c r="F74">
-        <v>6.7551854245817652E-2</v>
+        <v>0.25123527720617589</v>
       </c>
       <c r="G74">
         <v>0.89518072289156625</v>
@@ -8715,10 +8715,10 @@
         <v>0.64644614905226372</v>
       </c>
       <c r="I74">
-        <v>0.91436476206258088</v>
+        <v>0.8728072701972831</v>
       </c>
       <c r="J74">
-        <v>0.12720347043837391</v>
+        <v>0.16849599435820911</v>
       </c>
       <c r="K74">
         <v>4150</v>
@@ -8730,10 +8730,10 @@
         <v>0.82952937123548787</v>
       </c>
       <c r="N74">
-        <v>0.97464884896425574</v>
+        <v>0.84789082591261999</v>
       </c>
       <c r="O74">
-        <v>6.9507735549396363E-2</v>
+        <v>0.19617005270547819</v>
       </c>
       <c r="P74">
         <v>0.89518072289156625</v>
@@ -8742,10 +8742,10 @@
         <v>0.65521876647236199</v>
       </c>
       <c r="R74">
-        <v>0.93317518290512647</v>
+        <v>0.6344286674796844</v>
       </c>
       <c r="S74">
-        <v>0.11236772679064209</v>
+        <v>0.35302519007097288</v>
       </c>
       <c r="T74">
         <v>4150</v>
@@ -8757,10 +8757,10 @@
         <v>0.8355587240484208</v>
       </c>
       <c r="W74">
-        <v>0.97419050521111572</v>
+        <v>0.77306073659493013</v>
       </c>
       <c r="X74">
-        <v>7.0133263853860248E-2</v>
+        <v>0.25542607638815912</v>
       </c>
       <c r="Y74">
         <v>0.89879518072289155</v>
@@ -8769,10 +8769,10 @@
         <v>0.62101303044642442</v>
       </c>
       <c r="AA74">
-        <v>0.93757490845812863</v>
+        <v>0.90724008219692431</v>
       </c>
       <c r="AB74">
-        <v>0.1086056201257171</v>
+        <v>0.13716831018123071</v>
       </c>
       <c r="AC74">
         <v>4150</v>
@@ -8784,10 +8784,10 @@
         <v>0.82638608380866363</v>
       </c>
       <c r="AF74">
-        <v>0.97336864744686458</v>
+        <v>0.77913145169064468</v>
       </c>
       <c r="AG74">
-        <v>7.1241148255901082E-2</v>
+        <v>0.24713504740601711</v>
       </c>
       <c r="AH74">
         <v>0.90602409638554215</v>
@@ -8796,10 +8796,10 @@
         <v>0.69006922035751428</v>
       </c>
       <c r="AJ74">
-        <v>0.93381282428961954</v>
+        <v>0.82175880888924169</v>
       </c>
       <c r="AK74">
-        <v>0.1118303362079608</v>
+        <v>0.20971988549483281</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.3">
@@ -8816,10 +8816,10 @@
         <v>0.80408934965763557</v>
       </c>
       <c r="E75">
-        <v>0.97158822480257123</v>
+        <v>0.77550226913801867</v>
       </c>
       <c r="F75">
-        <v>7.3496841525916706E-2</v>
+        <v>0.25180076315386157</v>
       </c>
       <c r="G75">
         <v>0.89642857142857146</v>
@@ -8828,10 +8828,10 @@
         <v>0.60334942390740764</v>
       </c>
       <c r="I75">
-        <v>0.91940196959256126</v>
+        <v>0.87945605257569093</v>
       </c>
       <c r="J75">
-        <v>0.1237797583267497</v>
+        <v>0.1619443723174237</v>
       </c>
       <c r="K75">
         <v>4200</v>
@@ -8843,10 +8843,10 @@
         <v>0.84877361310214139</v>
       </c>
       <c r="N75">
-        <v>0.97604957793274605</v>
+        <v>0.77635658935756335</v>
       </c>
       <c r="O75">
-        <v>6.7480155813182799E-2</v>
+        <v>0.25226941995740809</v>
       </c>
       <c r="P75">
         <v>0.89047619047619042</v>
@@ -8855,10 +8855,10 @@
         <v>0.64613742403037422</v>
       </c>
       <c r="R75">
-        <v>0.93317941068784993</v>
+        <v>0.90481049688105997</v>
       </c>
       <c r="S75">
-        <v>0.11270483996874731</v>
+        <v>0.14106506656298159</v>
       </c>
       <c r="T75">
         <v>4200</v>
@@ -8870,10 +8870,10 @@
         <v>0.80958344590886155</v>
       </c>
       <c r="W75">
-        <v>0.97100903158918017</v>
+        <v>0.77935215892079945</v>
       </c>
       <c r="X75">
-        <v>7.4242203374527888E-2</v>
+        <v>0.24766088029721439</v>
       </c>
       <c r="Y75">
         <v>0.90238095238095239</v>
@@ -8882,10 +8882,10 @@
         <v>0.6222889275535477</v>
       </c>
       <c r="AA75">
-        <v>0.91213750065140908</v>
+        <v>0.83956415033284659</v>
       </c>
       <c r="AB75">
-        <v>0.12923769168621421</v>
+        <v>0.19432839329413359</v>
       </c>
       <c r="AC75">
         <v>4200</v>
@@ -8897,10 +8897,10 @@
         <v>0.82959090821786163</v>
       </c>
       <c r="AF75">
-        <v>0.97337276605464118</v>
+        <v>0.84660312760274425</v>
       </c>
       <c r="AG75">
-        <v>7.1151247353788527E-2</v>
+        <v>0.19530645881069689</v>
       </c>
       <c r="AH75">
         <v>0.90476190476190477</v>
@@ -8909,10 +8909,10 @@
         <v>0.6159113100704009</v>
       </c>
       <c r="AJ75">
-        <v>0.9267916879982161</v>
+        <v>0.63977965446831908</v>
       </c>
       <c r="AK75">
-        <v>0.1179689224612426</v>
+        <v>0.3564101865085747</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.3">
@@ -8929,10 +8929,10 @@
         <v>0.83960471748887522</v>
       </c>
       <c r="E76">
-        <v>0.97670290778893287</v>
+        <v>0.78952501588965718</v>
       </c>
       <c r="F76">
-        <v>6.6332495807107997E-2</v>
+        <v>0.23845398382893829</v>
       </c>
       <c r="G76">
         <v>0.91294117647058826</v>
@@ -8941,10 +8941,10 @@
         <v>0.65627001404576335</v>
       </c>
       <c r="I76">
-        <v>0.93980515352807992</v>
+        <v>0.82456916173901562</v>
       </c>
       <c r="J76">
-        <v>0.10649495983654921</v>
+        <v>0.21184561308045541</v>
       </c>
       <c r="K76">
         <v>4250</v>
@@ -8956,10 +8956,10 @@
         <v>0.83572541845643966</v>
       </c>
       <c r="N76">
-        <v>0.97531691767744555</v>
+        <v>0.78063486066805376</v>
       </c>
       <c r="O76">
-        <v>6.8277117000371021E-2</v>
+        <v>0.24716567855768379</v>
       </c>
       <c r="P76">
         <v>0.89647058823529413</v>
@@ -8968,10 +8968,10 @@
         <v>0.64755811167752197</v>
       </c>
       <c r="R76">
-        <v>0.92138453142308363</v>
+        <v>0.86400989807413064</v>
       </c>
       <c r="S76">
-        <v>0.1217035936440759</v>
+        <v>0.17393916521783739</v>
       </c>
       <c r="T76">
         <v>4250</v>
@@ -8983,10 +8983,10 @@
         <v>0.79982420389474096</v>
       </c>
       <c r="W76">
-        <v>0.97248264576406707</v>
+        <v>0.78690902744789148</v>
       </c>
       <c r="X76">
-        <v>7.2090629235216225E-2</v>
+        <v>0.23950975011733799</v>
       </c>
       <c r="Y76">
         <v>0.91294117647058826</v>
@@ -8995,10 +8995,10 @@
         <v>0.69006922257877323</v>
       </c>
       <c r="AA76">
-        <v>0.92687949666118419</v>
+        <v>0.81726603649345297</v>
       </c>
       <c r="AB76">
-        <v>0.1173732106923692</v>
+        <v>0.21781332220730809</v>
       </c>
       <c r="AC76">
         <v>4250</v>
@@ -9010,10 +9010,10 @@
         <v>0.83733862325268882</v>
       </c>
       <c r="AF76">
-        <v>0.97220233315724935</v>
+        <v>0.78379932769356597</v>
       </c>
       <c r="AG76">
-        <v>7.2456883730947191E-2</v>
+        <v>0.24208545341583251</v>
       </c>
       <c r="AH76">
         <v>0.89647058823529413</v>
@@ -9022,10 +9022,10 @@
         <v>0.63807150634314447</v>
       </c>
       <c r="AJ76">
-        <v>0.93861874057894457</v>
+        <v>0.83661799518821489</v>
       </c>
       <c r="AK76">
-        <v>0.1075393224934626</v>
+        <v>0.20296967623203821</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.3">
@@ -9042,10 +9042,10 @@
         <v>0.83765885074790858</v>
       </c>
       <c r="E77">
-        <v>0.97333188812744886</v>
+        <v>0.78653619725427992</v>
       </c>
       <c r="F77">
-        <v>7.1120598527316406E-2</v>
+        <v>0.24059708667878171</v>
       </c>
       <c r="G77">
         <v>0.90116279069767447</v>
@@ -9054,10 +9054,10 @@
         <v>0.6830383297010918</v>
       </c>
       <c r="I77">
-        <v>0.92467836157127437</v>
+        <v>0.82015816811135744</v>
       </c>
       <c r="J77">
-        <v>0.11944639743610989</v>
+        <v>0.21227588978298159</v>
       </c>
       <c r="K77">
         <v>4300</v>
@@ -9069,10 +9069,10 @@
         <v>0.79916682922194615</v>
       </c>
       <c r="N77">
-        <v>0.97328590862422037</v>
+        <v>0.7759808831981031</v>
       </c>
       <c r="O77">
-        <v>7.1181882983778103E-2</v>
+        <v>0.25171493114109672</v>
       </c>
       <c r="P77">
         <v>0.89186046511627903</v>
@@ -9081,10 +9081,10 @@
         <v>0.61991359024706383</v>
       </c>
       <c r="R77">
-        <v>0.92179318063716675</v>
+        <v>0.89660230255150308</v>
       </c>
       <c r="S77">
-        <v>0.1217125855791918</v>
+        <v>0.1452074649890886</v>
       </c>
       <c r="T77">
         <v>4300</v>
@@ -9096,10 +9096,10 @@
         <v>0.82653841630635883</v>
       </c>
       <c r="W77">
-        <v>0.97247360406718286</v>
+        <v>0.77841558509638142</v>
       </c>
       <c r="X77">
-        <v>7.2256004820071107E-2</v>
+        <v>0.2484779140869226</v>
       </c>
       <c r="Y77">
         <v>0.91279069767441856</v>
@@ -9108,10 +9108,10 @@
         <v>0.6551757757900899</v>
       </c>
       <c r="AA77">
-        <v>0.92173179380878145</v>
+        <v>0.86597610726340613</v>
       </c>
       <c r="AB77">
-        <v>0.1217603440999936</v>
+        <v>0.1720031393451843</v>
       </c>
       <c r="AC77">
         <v>4300</v>
@@ -9123,10 +9123,10 @@
         <v>0.84328136978859902</v>
       </c>
       <c r="AF77">
-        <v>0.97356178564359164</v>
+        <v>0.78802314450966604</v>
       </c>
       <c r="AG77">
-        <v>7.0813380682756069E-2</v>
+        <v>0.23873630942514881</v>
       </c>
       <c r="AH77">
         <v>0.90930232558139534</v>
@@ -9135,10 +9135,10 @@
         <v>0.60782808364594809</v>
       </c>
       <c r="AJ77">
-        <v>0.93621908530770503</v>
+        <v>0.80472439269414775</v>
       </c>
       <c r="AK77">
-        <v>0.10991540087193059</v>
+        <v>0.2252334338021979</v>
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.3">
@@ -9155,10 +9155,10 @@
         <v>0.81408639942688166</v>
       </c>
       <c r="E78">
-        <v>0.97173504061639715</v>
+        <v>0.86601892055578844</v>
       </c>
       <c r="F78">
-        <v>7.3147622740890747E-2</v>
+        <v>0.17783972495191969</v>
       </c>
       <c r="G78">
         <v>0.91034482758620694</v>
@@ -9167,10 +9167,10 @@
         <v>0.71738715172364764</v>
       </c>
       <c r="I78">
-        <v>0.94394149296046903</v>
+        <v>0.63178020072990004</v>
       </c>
       <c r="J78">
-        <v>0.10272158555012199</v>
+        <v>0.37572320611596821</v>
       </c>
       <c r="K78">
         <v>4350</v>
@@ -9182,10 +9182,10 @@
         <v>0.86041221026060144</v>
       </c>
       <c r="N78">
-        <v>0.9771998018291238</v>
+        <v>0.79408033476939621</v>
       </c>
       <c r="O78">
-        <v>6.5696970660929166E-2</v>
+        <v>0.23422363504331231</v>
       </c>
       <c r="P78">
         <v>0.90459770114942528</v>
@@ -9194,10 +9194,10 @@
         <v>0.65862023522293089</v>
       </c>
       <c r="R78">
-        <v>0.92940780595022032</v>
+        <v>0.81051969381126399</v>
       </c>
       <c r="S78">
-        <v>0.1152707956155378</v>
+        <v>0.22278560916851101</v>
       </c>
       <c r="T78">
         <v>4350</v>
@@ -9209,10 +9209,10 @@
         <v>0.82902454356621447</v>
       </c>
       <c r="W78">
-        <v>0.97460404025307867</v>
+        <v>0.78192663562278375</v>
       </c>
       <c r="X78">
-        <v>6.933593054375066E-2</v>
+        <v>0.24520385985647969</v>
       </c>
       <c r="Y78">
         <v>0.91609195402298849</v>
@@ -9221,10 +9221,10 @@
         <v>0.70901433553381588</v>
       </c>
       <c r="AA78">
-        <v>0.9499870182294381</v>
+        <v>0.8803667219354212</v>
       </c>
       <c r="AB78">
-        <v>9.702470357310182E-2</v>
+        <v>0.16398695316827699</v>
       </c>
       <c r="AC78">
         <v>4350</v>
@@ -9236,10 +9236,10 @@
         <v>0.8502047201576175</v>
       </c>
       <c r="AF78">
-        <v>0.97668368549236628</v>
+        <v>0.78496447492288568</v>
       </c>
       <c r="AG78">
-        <v>6.6436383882991973E-2</v>
+        <v>0.24181022960065321</v>
       </c>
       <c r="AH78">
         <v>0.91379310344827591</v>
@@ -9248,10 +9248,10 @@
         <v>0.68829113057262004</v>
       </c>
       <c r="AJ78">
-        <v>0.93789596769150008</v>
+        <v>0.85336955217410149</v>
       </c>
       <c r="AK78">
-        <v>0.1081187087067442</v>
+        <v>0.18755869210873199</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.3">
@@ -9268,10 +9268,10 @@
         <v>0.83935966414720153</v>
       </c>
       <c r="E79">
-        <v>0.97494541977310389</v>
+        <v>0.78105155751728716</v>
       </c>
       <c r="F79">
-        <v>6.9084927970775742E-2</v>
+        <v>0.24890834437198031</v>
       </c>
       <c r="G79">
         <v>0.89431818181818179</v>
@@ -9280,10 +9280,10 @@
         <v>0.57285551633449983</v>
       </c>
       <c r="I79">
-        <v>0.92808971974836074</v>
+        <v>0.88345502038147572</v>
       </c>
       <c r="J79">
-        <v>0.116287261867873</v>
+        <v>0.1544746198240104</v>
       </c>
       <c r="K79">
         <v>4400</v>
@@ -9295,10 +9295,10 @@
         <v>0.8346915721091086</v>
       </c>
       <c r="N79">
-        <v>0.97533316922899627</v>
+        <v>0.78592554138594473</v>
       </c>
       <c r="O79">
-        <v>6.8548257719387995E-2</v>
+        <v>0.2423002941870685</v>
       </c>
       <c r="P79">
         <v>0.9170454545454545</v>
@@ -9307,10 +9307,10 @@
         <v>0.74620888520372797</v>
       </c>
       <c r="R79">
-        <v>0.94809165484356461</v>
+        <v>0.86800602417465034</v>
       </c>
       <c r="S79">
-        <v>9.8799613543594567E-2</v>
+        <v>0.17791440095667629</v>
       </c>
       <c r="T79">
         <v>4400</v>
@@ -9322,10 +9322,10 @@
         <v>0.85200883565418228</v>
       </c>
       <c r="W79">
-        <v>0.97576565900672252</v>
+        <v>0.80915390325618364</v>
       </c>
       <c r="X79">
-        <v>6.7944663313076123E-2</v>
+        <v>0.2246979286385643</v>
       </c>
       <c r="Y79">
         <v>0.89659090909090911</v>
@@ -9334,10 +9334,10 @@
         <v>0.62148462655547532</v>
       </c>
       <c r="AA79">
-        <v>0.93963162187278348</v>
+        <v>0.75976057965876964</v>
       </c>
       <c r="AB79">
-        <v>0.10654704466700481</v>
+        <v>0.25870222623715478</v>
       </c>
       <c r="AC79">
         <v>4400</v>
@@ -9349,10 +9349,10 @@
         <v>0.84510268114278608</v>
       </c>
       <c r="AF79">
-        <v>0.97889748153508449</v>
+        <v>0.81216754845600847</v>
       </c>
       <c r="AG79">
-        <v>6.3402573793469641E-2</v>
+        <v>0.2218600658449946</v>
       </c>
       <c r="AH79">
         <v>0.91363636363636369</v>
@@ -9361,10 +9361,10 @@
         <v>0.67647119306779535</v>
       </c>
       <c r="AJ79">
-        <v>0.93932947783811271</v>
+        <v>0.75708623793037999</v>
       </c>
       <c r="AK79">
-        <v>0.1068133461187829</v>
+        <v>0.2647663192181256</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.3">
@@ -9381,10 +9381,10 @@
         <v>0.83496883260576882</v>
       </c>
       <c r="E80">
-        <v>0.97425685089526526</v>
+        <v>0.78041417855474327</v>
       </c>
       <c r="F80">
-        <v>6.9991973857681591E-2</v>
+        <v>0.2486285573457841</v>
       </c>
       <c r="G80">
         <v>0.89662921348314606</v>
@@ -9393,10 +9393,10 @@
         <v>0.56988885420109703</v>
       </c>
       <c r="I80">
-        <v>0.92799573754797005</v>
+        <v>0.88122418896116517</v>
       </c>
       <c r="J80">
-        <v>0.1162136737975703</v>
+        <v>0.15619273649864909</v>
       </c>
       <c r="K80">
         <v>4450</v>
@@ -9408,10 +9408,10 @@
         <v>0.83097726500294422</v>
       </c>
       <c r="N80">
-        <v>0.97322358229587791</v>
+        <v>0.78362215918025169</v>
       </c>
       <c r="O80">
-        <v>7.1382810381614481E-2</v>
+        <v>0.2455125596244985</v>
       </c>
       <c r="P80">
         <v>0.90337078651685399</v>
@@ -9420,10 +9420,10 @@
         <v>0.63261857262546184</v>
       </c>
       <c r="R80">
-        <v>0.93242861227463414</v>
+        <v>0.85311283948135419</v>
       </c>
       <c r="S80">
-        <v>0.1125795598826483</v>
+        <v>0.17862620323235559</v>
       </c>
       <c r="T80">
         <v>4450</v>
@@ -9435,10 +9435,10 @@
         <v>0.8722988960591721</v>
       </c>
       <c r="W80">
-        <v>0.9762053002541099</v>
+        <v>0.79076660831514878</v>
       </c>
       <c r="X80">
-        <v>6.7291083269928484E-2</v>
+        <v>0.23951833891458721</v>
       </c>
       <c r="Y80">
         <v>0.9</v>
@@ -9447,10 +9447,10 @@
         <v>0.64853545218909014</v>
       </c>
       <c r="AA80">
-        <v>0.93865859837697285</v>
+        <v>0.84873734764679454</v>
       </c>
       <c r="AB80">
-        <v>0.1072642437046385</v>
+        <v>0.18845559424125349</v>
       </c>
       <c r="AC80">
         <v>4450</v>
@@ -9462,10 +9462,10 @@
         <v>0.86189496662704035</v>
       </c>
       <c r="AF80">
-        <v>0.97816851059294574</v>
+        <v>0.81206180380033177</v>
       </c>
       <c r="AG80">
-        <v>6.4455367363955587E-2</v>
+        <v>0.22281187858555021</v>
       </c>
       <c r="AH80">
         <v>0.91460674157303368</v>
@@ -9474,10 +9474,10 @@
         <v>0.69587569479694322</v>
       </c>
       <c r="AJ80">
-        <v>0.95087895573156034</v>
+        <v>0.76866165726355273</v>
       </c>
       <c r="AK80">
-        <v>9.5986890490667609E-2</v>
+        <v>0.25218621194534091</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.3">
@@ -9494,10 +9494,10 @@
         <v>0.85718861246578792</v>
       </c>
       <c r="E81">
-        <v>0.97392852509199823</v>
+        <v>0.775481522401959</v>
       </c>
       <c r="F81">
-        <v>7.0513986004353935E-2</v>
+        <v>0.25387523707763271</v>
       </c>
       <c r="G81">
         <v>0.88777777777777778</v>
@@ -9506,10 +9506,10 @@
         <v>0.64297712404340446</v>
       </c>
       <c r="I81">
-        <v>0.92825910631914166</v>
+        <v>0.89492888025648021</v>
       </c>
       <c r="J81">
-        <v>0.1172840805717279</v>
+        <v>0.15055049585679151</v>
       </c>
       <c r="K81">
         <v>4500</v>
@@ -9521,10 +9521,10 @@
         <v>0.83578300920731841</v>
       </c>
       <c r="N81">
-        <v>0.97414700113871333</v>
+        <v>0.81771503517564414</v>
       </c>
       <c r="O81">
-        <v>7.0217914776469645E-2</v>
+        <v>0.21640411721900479</v>
       </c>
       <c r="P81">
         <v>0.91444444444444439</v>
@@ -9533,10 +9533,10 @@
         <v>0.65626377510071243</v>
       </c>
       <c r="R81">
-        <v>0.95068537922260865</v>
+        <v>0.73116764365869313</v>
       </c>
       <c r="S81">
-        <v>9.7239680972098813E-2</v>
+        <v>0.3006916411012785</v>
       </c>
       <c r="T81">
         <v>4500</v>
@@ -9548,10 +9548,10 @@
         <v>0.83629932349696268</v>
       </c>
       <c r="W81">
-        <v>0.97305462090513783</v>
+        <v>0.7804934074604799</v>
       </c>
       <c r="X81">
-        <v>7.1686043892021878E-2</v>
+        <v>0.24756780884249169</v>
       </c>
       <c r="Y81">
         <v>0.90888888888888886</v>
@@ -9560,10 +9560,10 @@
         <v>0.66207602456074555</v>
       </c>
       <c r="AA81">
-        <v>0.94865716332694627</v>
+        <v>0.87034515543653534</v>
       </c>
       <c r="AB81">
-        <v>9.9219173774248104E-2</v>
+        <v>0.17902512092901329</v>
       </c>
       <c r="AC81">
         <v>4500</v>
@@ -9575,10 +9575,10 @@
         <v>0.84840202772509499</v>
       </c>
       <c r="AF81">
-        <v>0.97474416899973459</v>
+        <v>0.78337851566949035</v>
       </c>
       <c r="AG81">
-        <v>6.9402209378856716E-2</v>
+        <v>0.2459038736342368</v>
       </c>
       <c r="AH81">
         <v>0.90333333333333332</v>
@@ -9587,10 +9587,10 @@
         <v>0.68259737112659025</v>
       </c>
       <c r="AJ81">
-        <v>0.93596632672265878</v>
+        <v>0.8491461935987682</v>
       </c>
       <c r="AK81">
-        <v>0.1108051342572977</v>
+        <v>0.19321680450410281</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.3">
@@ -9607,10 +9607,10 @@
         <v>0.83349360679404416</v>
       </c>
       <c r="E82">
-        <v>0.9765501164384095</v>
+        <v>0.7867328227585535</v>
       </c>
       <c r="F82">
-        <v>6.6959065730612485E-2</v>
+        <v>0.2437488778499749</v>
       </c>
       <c r="G82">
         <v>0.90109890109890112</v>
@@ -9619,10 +9619,10 @@
         <v>0.66423664052271414</v>
       </c>
       <c r="I82">
-        <v>0.92339292665687722</v>
+        <v>0.84074626967099553</v>
       </c>
       <c r="J82">
-        <v>0.1213930135397575</v>
+        <v>0.19824481654906301</v>
       </c>
       <c r="K82">
         <v>4550</v>
@@ -9634,10 +9634,10 @@
         <v>0.82873785132394606</v>
       </c>
       <c r="N82">
-        <v>0.97320218575835404</v>
+        <v>0.79063118997334358</v>
       </c>
       <c r="O82">
-        <v>7.1579510850706241E-2</v>
+        <v>0.2384616179665997</v>
       </c>
       <c r="P82">
         <v>0.91428571428571426</v>
@@ -9646,10 +9646,10 @@
         <v>0.6596223603980409</v>
       </c>
       <c r="R82">
-        <v>0.92796307271761536</v>
+        <v>0.80711328924943981</v>
       </c>
       <c r="S82">
-        <v>0.11771636613972949</v>
+        <v>0.23020764584084549</v>
       </c>
       <c r="T82">
         <v>4550</v>
@@ -9661,10 +9661,10 @@
         <v>0.82098285373705315</v>
       </c>
       <c r="W82">
-        <v>0.9729004409331129</v>
+        <v>0.84459360418965845</v>
       </c>
       <c r="X82">
-        <v>7.1981377323017931E-2</v>
+        <v>0.19883252426834819</v>
       </c>
       <c r="Y82">
         <v>0.91098901098901097</v>
@@ -9673,10 +9673,10 @@
         <v>0.70825845608804816</v>
       </c>
       <c r="AA82">
-        <v>0.94527250092266102</v>
+        <v>0.66235541643665097</v>
       </c>
       <c r="AB82">
-        <v>0.1026034722973474</v>
+        <v>0.3405683842559219</v>
       </c>
       <c r="AC82">
         <v>4550</v>
@@ -9688,10 +9688,10 @@
         <v>0.84944779599987208</v>
       </c>
       <c r="AF82">
-        <v>0.97422237064369277</v>
+        <v>0.85024501601055347</v>
       </c>
       <c r="AG82">
-        <v>7.0203785001746372E-2</v>
+        <v>0.19289274328652009</v>
       </c>
       <c r="AH82">
         <v>0.9</v>
@@ -9700,10 +9700,10 @@
         <v>0.63596499251082372</v>
       </c>
       <c r="AJ82">
-        <v>0.93933131104370149</v>
+        <v>0.65246894882459405</v>
       </c>
       <c r="AK82">
-        <v>0.1080293000547984</v>
+        <v>0.35726986232530322</v>
       </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.3">
@@ -9720,10 +9720,10 @@
         <v>0.80602790335429653</v>
       </c>
       <c r="E83">
-        <v>0.97357407068629331</v>
+        <v>0.80751001644961462</v>
       </c>
       <c r="F83">
-        <v>7.0979176370685432E-2</v>
+        <v>0.22651456232109371</v>
       </c>
       <c r="G83">
         <v>0.90108695652173909</v>
@@ -9732,10 +9732,10 @@
         <v>0.62459312857413751</v>
       </c>
       <c r="I83">
-        <v>0.92768959915133653</v>
+        <v>0.75002704751258031</v>
       </c>
       <c r="J83">
-        <v>0.1175843822814992</v>
+        <v>0.26790008879877308</v>
       </c>
       <c r="K83">
         <v>4600</v>
@@ -9747,10 +9747,10 @@
         <v>0.85152039856283945</v>
       </c>
       <c r="N83">
-        <v>0.9758261185997591</v>
+        <v>0.7864161121775527</v>
       </c>
       <c r="O83">
-        <v>6.7887374762719416E-2</v>
+        <v>0.24399330800974431</v>
       </c>
       <c r="P83">
         <v>0.91304347826086951</v>
@@ -9759,10 +9759,10 @@
         <v>0.69135176253151465</v>
       </c>
       <c r="R83">
-        <v>0.94542611256704645</v>
+        <v>0.85565275989052547</v>
       </c>
       <c r="S83">
-        <v>0.1021507836910498</v>
+        <v>0.18550456371078969</v>
       </c>
       <c r="T83">
         <v>4600</v>
@@ -9774,10 +9774,10 @@
         <v>0.84235242401725396</v>
       </c>
       <c r="W83">
-        <v>0.97461457383618577</v>
+        <v>0.78328990457050884</v>
       </c>
       <c r="X83">
-        <v>6.9567764899006762E-2</v>
+        <v>0.24626568388579251</v>
       </c>
       <c r="Y83">
         <v>0.92173913043478262</v>
@@ -9786,10 +9786,10 @@
         <v>0.68346846916983517</v>
       </c>
       <c r="AA83">
-        <v>0.94792741574105677</v>
+        <v>0.86907863295472487</v>
       </c>
       <c r="AB83">
-        <v>9.9782371885671448E-2</v>
+        <v>0.17500002171021559</v>
       </c>
       <c r="AC83">
         <v>4600</v>
@@ -9801,10 +9801,10 @@
         <v>0.85780021909752457</v>
       </c>
       <c r="AF83">
-        <v>0.97783585756051028</v>
+        <v>0.79140686738524879</v>
       </c>
       <c r="AG83">
-        <v>6.500418046757353E-2</v>
+        <v>0.23823595139884571</v>
       </c>
       <c r="AH83">
         <v>0.92065217391304344</v>
@@ -9813,10 +9813,10 @@
         <v>0.68659317676896214</v>
       </c>
       <c r="AJ83">
-        <v>0.94690415535168893</v>
+        <v>0.83905347924882423</v>
       </c>
       <c r="AK83">
-        <v>0.100757996769703</v>
+        <v>0.20650477396844111</v>
       </c>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.3">
@@ -9833,10 +9833,10 @@
         <v>0.84678444859816471</v>
       </c>
       <c r="E84">
-        <v>0.97717987931884198</v>
+        <v>0.78846544322218004</v>
       </c>
       <c r="F84">
-        <v>6.5909680787463815E-2</v>
+        <v>0.2416810142242713</v>
       </c>
       <c r="G84">
         <v>0.90107526881720434</v>
@@ -9845,10 +9845,10 @@
         <v>0.62708740849324407</v>
       </c>
       <c r="I84">
-        <v>0.92822107180434843</v>
+        <v>0.84287935651608503</v>
       </c>
       <c r="J84">
-        <v>0.11625888797101951</v>
+        <v>0.1941536524269897</v>
       </c>
       <c r="K84">
         <v>4650</v>
@@ -9860,10 +9860,10 @@
         <v>0.85654348547472681</v>
       </c>
       <c r="N84">
-        <v>0.97645968986665199</v>
+        <v>0.78210495268355362</v>
       </c>
       <c r="O84">
-        <v>6.6941637234974496E-2</v>
+        <v>0.24852892870987239</v>
       </c>
       <c r="P84">
         <v>0.9096774193548387</v>
@@ -9872,10 +9872,10 @@
         <v>0.68018490937915876</v>
       </c>
       <c r="R84">
-        <v>0.93809995372785493</v>
+        <v>0.8877028297985583</v>
       </c>
       <c r="S84">
-        <v>0.1079625582250375</v>
+        <v>0.15375010582382431</v>
       </c>
       <c r="T84">
         <v>4650</v>
@@ -9887,10 +9887,10 @@
         <v>0.86089793993298103</v>
       </c>
       <c r="W84">
-        <v>0.97761764153487907</v>
+        <v>0.78257393069239856</v>
       </c>
       <c r="X84">
-        <v>6.5274441308769873E-2</v>
+        <v>0.24801215987496331</v>
       </c>
       <c r="Y84">
         <v>0.91612903225806452</v>
@@ -9899,10 +9899,10 @@
         <v>0.67503344744935179</v>
       </c>
       <c r="AA84">
-        <v>0.92856369198666655</v>
+        <v>0.88110003417186256</v>
       </c>
       <c r="AB84">
-        <v>0.1159810885585482</v>
+        <v>0.15907044068006371</v>
       </c>
       <c r="AC84">
         <v>4650</v>
@@ -9914,10 +9914,10 @@
         <v>0.84296215533689445</v>
       </c>
       <c r="AF84">
-        <v>0.9756406508818084</v>
+        <v>0.88223517192292567</v>
       </c>
       <c r="AG84">
-        <v>6.8096231718014683E-2</v>
+        <v>0.16630679377266699</v>
       </c>
       <c r="AH84">
         <v>0.91182795698924735</v>
@@ -9926,10 +9926,10 @@
         <v>0.70418296231481436</v>
       </c>
       <c r="AJ84">
-        <v>0.94478104728305878</v>
+        <v>0.60720970722751555</v>
       </c>
       <c r="AK84">
-        <v>0.10196984584849381</v>
+        <v>0.39882715367453708</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.3">
@@ -9946,10 +9946,10 @@
         <v>0.84104952001367983</v>
       </c>
       <c r="E85">
-        <v>0.97427737332516029</v>
+        <v>0.78204796050319692</v>
       </c>
       <c r="F85">
-        <v>6.9916363409007656E-2</v>
+        <v>0.24619082167373441</v>
       </c>
       <c r="G85">
         <v>0.9</v>
@@ -9958,10 +9958,10 @@
         <v>0.73311173105041083</v>
       </c>
       <c r="I85">
-        <v>0.93822822416072582</v>
+        <v>0.88546660346663364</v>
       </c>
       <c r="J85">
-        <v>0.1087648253528803</v>
+        <v>0.16197707196235919</v>
       </c>
       <c r="K85">
         <v>4700</v>
@@ -9973,10 +9973,10 @@
         <v>0.83553396407293634</v>
       </c>
       <c r="N85">
-        <v>0.9766660732223873</v>
+        <v>0.78158919066870636</v>
       </c>
       <c r="O85">
-        <v>6.6584612624073072E-2</v>
+        <v>0.2486071372025393</v>
       </c>
       <c r="P85">
         <v>0.90957446808510634</v>
@@ -9985,10 +9985,10 @@
         <v>0.66350880487197705</v>
       </c>
       <c r="R85">
-        <v>0.92861520742211934</v>
+        <v>0.8912959353500739</v>
       </c>
       <c r="S85">
-        <v>0.1169651703022305</v>
+        <v>0.15090033211991941</v>
       </c>
       <c r="T85">
         <v>4700</v>
@@ -10000,10 +10000,10 @@
         <v>0.85754060067045101</v>
       </c>
       <c r="W85">
-        <v>0.97889569041041447</v>
+        <v>0.8203685144569286</v>
       </c>
       <c r="X85">
-        <v>6.3329600487231408E-2</v>
+        <v>0.21487893271834921</v>
       </c>
       <c r="Y85">
         <v>0.90638297872340423</v>
@@ -10012,10 +10012,10 @@
         <v>0.62136343184963283</v>
       </c>
       <c r="AA85">
-        <v>0.94289443744354862</v>
+        <v>0.68994583851443625</v>
       </c>
       <c r="AB85">
-        <v>0.1045761455245218</v>
+        <v>0.31163510049484372</v>
       </c>
       <c r="AC85">
         <v>4700</v>
@@ -10027,10 +10027,10 @@
         <v>0.82589615779874903</v>
       </c>
       <c r="AF85">
-        <v>0.97301783230190919</v>
+        <v>0.78925128492388275</v>
       </c>
       <c r="AG85">
-        <v>7.1607678180961046E-2</v>
+        <v>0.2395362781158149</v>
       </c>
       <c r="AH85">
         <v>0.92021276595744683</v>
@@ -10039,10 +10039,10 @@
         <v>0.72598918047099115</v>
       </c>
       <c r="AJ85">
-        <v>0.95450442049247697</v>
+        <v>0.8480885191355042</v>
       </c>
       <c r="AK85">
-        <v>9.3342198160568338E-2</v>
+        <v>0.195814124508879</v>
       </c>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.3">
@@ -10059,10 +10059,10 @@
         <v>0.85502252948717405</v>
       </c>
       <c r="E86">
-        <v>0.97645580993468251</v>
+        <v>0.81613821291861288</v>
       </c>
       <c r="F86">
-        <v>6.6964248120290198E-2</v>
+        <v>0.2181930390653713</v>
       </c>
       <c r="G86">
         <v>0.89894736842105261</v>
@@ -10071,10 +10071,10 @@
         <v>0.63751538619421289</v>
       </c>
       <c r="I86">
-        <v>0.94092644663933611</v>
+        <v>0.75261022266477418</v>
       </c>
       <c r="J86">
-        <v>0.10622716472878201</v>
+        <v>0.27417773388031802</v>
       </c>
       <c r="K86">
         <v>4750</v>
@@ -10086,10 +10086,10 @@
         <v>0.84983780644181517</v>
       </c>
       <c r="N86">
-        <v>0.97669069915481765</v>
+        <v>0.81319112122274684</v>
       </c>
       <c r="O86">
-        <v>6.6629375535198626E-2</v>
+        <v>0.22181225768789231</v>
       </c>
       <c r="P86">
         <v>0.91263157894736846</v>
@@ -10098,10 +10098,10 @@
         <v>0.65733288133239931</v>
       </c>
       <c r="R86">
-        <v>0.93762009104079147</v>
+        <v>0.75301159904380044</v>
       </c>
       <c r="S86">
-        <v>0.1091594680899656</v>
+        <v>0.26582740363240781</v>
       </c>
       <c r="T86">
         <v>4750</v>
@@ -10113,10 +10113,10 @@
         <v>0.85489271511746323</v>
       </c>
       <c r="W86">
-        <v>0.97623473772749636</v>
+        <v>0.78076918435225495</v>
       </c>
       <c r="X86">
-        <v>6.7277899710630709E-2</v>
+        <v>0.2487343030942524</v>
       </c>
       <c r="Y86">
         <v>0.92</v>
@@ -10125,10 +10125,10 @@
         <v>0.71291905865978034</v>
       </c>
       <c r="AA86">
-        <v>0.95602547053935649</v>
+        <v>0.9238790463122003</v>
       </c>
       <c r="AB86">
-        <v>9.1651513899116813E-2</v>
+        <v>0.12665240221078181</v>
       </c>
       <c r="AC86">
         <v>4750</v>
@@ -10140,10 +10140,10 @@
         <v>0.85311090255309929</v>
       </c>
       <c r="AF86">
-        <v>0.97631763980519115</v>
+        <v>0.81078588743906066</v>
       </c>
       <c r="AG86">
-        <v>6.7160452021926359E-2</v>
+        <v>0.22254551293731581</v>
       </c>
       <c r="AH86">
         <v>0.9073684210526316</v>
@@ -10152,10 +10152,10 @@
         <v>0.68982481957867192</v>
       </c>
       <c r="AJ86">
-        <v>0.93640776065465836</v>
+        <v>0.76875164126075712</v>
       </c>
       <c r="AK86">
-        <v>0.1102151006942907</v>
+        <v>0.26012691121337828</v>
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.3">
@@ -10172,10 +10172,10 @@
         <v>0.83560382008184675</v>
       </c>
       <c r="E87">
-        <v>0.97484627437842719</v>
+        <v>0.79027480857989096</v>
       </c>
       <c r="F87">
-        <v>6.9165411635200055E-2</v>
+        <v>0.2386044374500198</v>
       </c>
       <c r="G87">
         <v>0.91249999999999998</v>
@@ -10184,10 +10184,10 @@
         <v>0.69026495488949891</v>
       </c>
       <c r="I87">
-        <v>0.94912732391489862</v>
+        <v>0.85461073587874781</v>
       </c>
       <c r="J87">
-        <v>9.8425098425147628E-2</v>
+        <v>0.18945557804208399</v>
       </c>
       <c r="K87">
         <v>4800</v>
@@ -10199,10 +10199,10 @@
         <v>0.85161452867790588</v>
       </c>
       <c r="N87">
-        <v>0.97695496993951714</v>
+        <v>0.78986285613009322</v>
       </c>
       <c r="O87">
-        <v>6.6202813384326806E-2</v>
+        <v>0.24017508308215041</v>
       </c>
       <c r="P87">
         <v>0.91562500000000002</v>
@@ -10211,10 +10211,10 @@
         <v>0.72505571482902997</v>
       </c>
       <c r="R87">
-        <v>0.9430007220637896</v>
+        <v>0.86224628576954954</v>
       </c>
       <c r="S87">
-        <v>0.10418333200021331</v>
+        <v>0.179801226736164</v>
       </c>
       <c r="T87">
         <v>4800</v>
@@ -10226,10 +10226,10 @@
         <v>0.81351171291449964</v>
       </c>
       <c r="W87">
-        <v>0.97147783861201076</v>
+        <v>0.78759792909127246</v>
       </c>
       <c r="X87">
-        <v>7.3651063581367693E-2</v>
+        <v>0.24080804223117841</v>
       </c>
       <c r="Y87">
         <v>0.91666666666666663</v>
@@ -10238,10 +10238,10 @@
         <v>0.6950703135075238</v>
       </c>
       <c r="AA87">
-        <v>0.94387595089966225</v>
+        <v>0.85169644324719729</v>
       </c>
       <c r="AB87">
-        <v>0.10338036564067669</v>
+        <v>0.1889225808846422</v>
       </c>
       <c r="AC87">
         <v>4800</v>
@@ -10253,10 +10253,10 @@
         <v>0.82828266732567779</v>
       </c>
       <c r="AF87">
-        <v>0.97480519589347081</v>
+        <v>0.81281986618703495</v>
       </c>
       <c r="AG87">
-        <v>6.9221865524317291E-2</v>
+        <v>0.21997237652743121</v>
       </c>
       <c r="AH87">
         <v>0.91249999999999998</v>
@@ -10265,10 +10265,10 @@
         <v>0.65916699368485165</v>
       </c>
       <c r="AJ87">
-        <v>0.93282618684676932</v>
+        <v>0.7548435238289728</v>
       </c>
       <c r="AK87">
-        <v>0.1131002505154903</v>
+        <v>0.27059762373429619</v>
       </c>
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.3">
@@ -10285,10 +10285,10 @@
         <v>0.81700446936195836</v>
       </c>
       <c r="E88">
-        <v>0.97415410142658099</v>
+        <v>0.78936522756833249</v>
       </c>
       <c r="F88">
-        <v>7.0235245359588874E-2</v>
+        <v>0.24046927326881179</v>
       </c>
       <c r="G88">
         <v>0.90927835051546391</v>
@@ -10297,10 +10297,10 @@
         <v>0.64532762294055579</v>
       </c>
       <c r="I88">
-        <v>0.94087364172530152</v>
+        <v>0.85187601629747256</v>
       </c>
       <c r="J88">
-        <v>0.1058592724659031</v>
+        <v>0.188367382116638</v>
       </c>
       <c r="K88">
         <v>4850</v>
@@ -10312,10 +10312,10 @@
         <v>0.83392461867406331</v>
       </c>
       <c r="N88">
-        <v>0.97401906538387761</v>
+        <v>0.78324224381980145</v>
       </c>
       <c r="O88">
-        <v>7.0418483983950828E-2</v>
+        <v>0.24595935582782541</v>
       </c>
       <c r="P88">
         <v>0.9257731958762887</v>
@@ -10324,10 +10324,10 @@
         <v>0.69507611871450048</v>
       </c>
       <c r="R88">
-        <v>0.95322109648919895</v>
+        <v>0.8999533123654484</v>
       </c>
       <c r="S88">
-        <v>9.4159329763137636E-2</v>
+        <v>0.14878830548840569</v>
       </c>
       <c r="T88">
         <v>4850</v>
@@ -10339,10 +10339,10 @@
         <v>0.84934364541079721</v>
       </c>
       <c r="W88">
-        <v>0.97700336192762138</v>
+        <v>0.79046233619560824</v>
       </c>
       <c r="X88">
-        <v>6.6250850996285013E-2</v>
+        <v>0.24038586720362401</v>
       </c>
       <c r="Y88">
         <v>0.91030927835051545</v>
@@ -10351,10 +10351,10 @@
         <v>0.69363719015290382</v>
       </c>
       <c r="AA88">
-        <v>0.94321258690084153</v>
+        <v>0.86254191923550372</v>
       </c>
       <c r="AB88">
-        <v>0.1037443328473327</v>
+        <v>0.17955709604864539</v>
       </c>
       <c r="AC88">
         <v>4850</v>
@@ -10366,10 +10366,10 @@
         <v>0.86603792170996596</v>
       </c>
       <c r="AF88">
-        <v>0.97719241238740606</v>
+        <v>0.78537885851693645</v>
       </c>
       <c r="AG88">
-        <v>6.5977971956594383E-2</v>
+        <v>0.2471124366957187</v>
       </c>
       <c r="AH88">
         <v>0.90824742268041236</v>
@@ -10378,10 +10378,10 @@
         <v>0.69101151368592506</v>
       </c>
       <c r="AJ88">
-        <v>0.9367940861865689</v>
+        <v>0.89458503192093675</v>
       </c>
       <c r="AK88">
-        <v>0.1094503606357648</v>
+        <v>0.14499027393814831</v>
       </c>
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.3">
@@ -10398,10 +10398,10 @@
         <v>0.84433846503844556</v>
       </c>
       <c r="E89">
-        <v>0.97618166732766964</v>
+        <v>0.82197428638679004</v>
       </c>
       <c r="F89">
-        <v>6.7328769967274174E-2</v>
+        <v>0.21368137331865211</v>
       </c>
       <c r="G89">
         <v>0.9</v>
@@ -10410,10 +10410,10 @@
         <v>0.60930792388407906</v>
       </c>
       <c r="I89">
-        <v>0.92576501958678059</v>
+        <v>0.72941193841014695</v>
       </c>
       <c r="J89">
-        <v>0.1183215956619923</v>
+        <v>0.28710244047695982</v>
       </c>
       <c r="K89">
         <v>4900</v>
@@ -10425,10 +10425,10 @@
         <v>0.84632426095654112</v>
       </c>
       <c r="N89">
-        <v>0.97565892395444465</v>
+        <v>0.78987679021310919</v>
       </c>
       <c r="O89">
-        <v>6.8063595711837677E-2</v>
+        <v>0.23972016232243731</v>
       </c>
       <c r="P89">
         <v>0.91122448979591841</v>
@@ -10437,10 +10437,10 @@
         <v>0.67412603808218863</v>
       </c>
       <c r="R89">
-        <v>0.94069858707515408</v>
+        <v>0.85626485074683556</v>
       </c>
       <c r="S89">
-        <v>0.10575288870469569</v>
+        <v>0.18441826875968459</v>
       </c>
       <c r="T89">
         <v>4900</v>
@@ -10452,10 +10452,10 @@
         <v>0.83385246010253289</v>
       </c>
       <c r="W89">
-        <v>0.97610124527025044</v>
+        <v>0.78423871007376156</v>
       </c>
       <c r="X89">
-        <v>6.7442341209029075E-2</v>
+        <v>0.24545471262101129</v>
       </c>
       <c r="Y89">
         <v>0.91326530612244894</v>
@@ -10464,10 +10464,10 @@
         <v>0.69527176723205597</v>
       </c>
       <c r="AA89">
-        <v>0.94719144250488174</v>
+        <v>0.90869609461589496</v>
       </c>
       <c r="AB89">
-        <v>9.979570969470275E-2</v>
+        <v>0.13964412730404599</v>
       </c>
       <c r="AC89">
         <v>4900</v>
@@ -10479,10 +10479,10 @@
         <v>0.82764840733351086</v>
       </c>
       <c r="AF89">
-        <v>0.9749887401426176</v>
+        <v>0.81391939134364433</v>
       </c>
       <c r="AG89">
-        <v>6.8994232234532854E-2</v>
+        <v>0.22017939645648149</v>
       </c>
       <c r="AH89">
         <v>0.91122448979591841</v>
@@ -10491,10 +10491,10 @@
         <v>0.70105478670658106</v>
       </c>
       <c r="AJ89">
-        <v>0.94475662171873398</v>
+        <v>0.76519749292576122</v>
       </c>
       <c r="AK89">
-        <v>0.1020704038736928</v>
+        <v>0.26024944327767308</v>
       </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.3">
@@ -10511,10 +10511,10 @@
         <v>0.85039402822132393</v>
       </c>
       <c r="E90">
-        <v>0.9755201964970992</v>
+        <v>0.85737023665481649</v>
       </c>
       <c r="F90">
-        <v>6.8127924828326747E-2</v>
+        <v>0.185809087570632</v>
       </c>
       <c r="G90">
         <v>0.91717171717171719</v>
@@ -10523,10 +10523,10 @@
         <v>0.70729165439668262</v>
       </c>
       <c r="I90">
-        <v>0.95676216643405043</v>
+        <v>0.66160281244806884</v>
       </c>
       <c r="J90">
-        <v>9.0397550695343359E-2</v>
+        <v>0.34654687138730739</v>
       </c>
       <c r="K90">
         <v>4950</v>
@@ -10538,10 +10538,10 @@
         <v>0.83387313074830394</v>
       </c>
       <c r="N90">
-        <v>0.97689202444095047</v>
+        <v>0.79283798455778975</v>
       </c>
       <c r="O90">
-        <v>6.6191488360008419E-2</v>
+        <v>0.2373190393177097</v>
       </c>
       <c r="P90">
         <v>0.90808080808080804</v>
@@ -10550,10 +10550,10 @@
         <v>0.67312878876980653</v>
       </c>
       <c r="R90">
-        <v>0.94960039919321337</v>
+        <v>0.86308548263921026</v>
       </c>
       <c r="S90">
-        <v>9.7597400197200562E-2</v>
+        <v>0.17964947886873331</v>
       </c>
       <c r="T90">
         <v>4950</v>
@@ -10565,10 +10565,10 @@
         <v>0.83457755635053521</v>
       </c>
       <c r="W90">
-        <v>0.97538700931808442</v>
+        <v>0.78670764896700907</v>
       </c>
       <c r="X90">
-        <v>6.8313005106397318E-2</v>
+        <v>0.24237276167963681</v>
       </c>
       <c r="Y90">
         <v>0.91313131313131313</v>
@@ -10577,10 +10577,10 @@
         <v>0.66584322978835175</v>
       </c>
       <c r="AA90">
-        <v>0.95077621172529114</v>
+        <v>0.88960531777424401</v>
       </c>
       <c r="AB90">
-        <v>9.6452217719606131E-2</v>
+        <v>0.15637023669777719</v>
       </c>
       <c r="AC90">
         <v>4950</v>
@@ -10592,10 +10592,10 @@
         <v>0.85599665967530181</v>
       </c>
       <c r="AF90">
-        <v>0.97564006495821243</v>
+        <v>0.78640007624835484</v>
       </c>
       <c r="AG90">
-        <v>6.7960921629175011E-2</v>
+        <v>0.2421636676139306</v>
       </c>
       <c r="AH90">
         <v>0.92323232323232318</v>
@@ -10604,10 +10604,10 @@
         <v>0.70039467138534084</v>
       </c>
       <c r="AJ90">
-        <v>0.94543160930675596</v>
+        <v>0.88847540097106059</v>
       </c>
       <c r="AK90">
-        <v>0.101553588381363</v>
+        <v>0.15840311333372009</v>
       </c>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.3">
@@ -10624,10 +10624,10 @@
         <v>0.84084177927616377</v>
       </c>
       <c r="E91">
-        <v>0.97977219587372388</v>
+        <v>0.78729418152027475</v>
       </c>
       <c r="F91">
-        <v>6.2082565415945028E-2</v>
+        <v>0.2443969932770873</v>
       </c>
       <c r="G91">
         <v>0.90590590590590592</v>
@@ -10636,10 +10636,10 @@
         <v>0.66664779085982062</v>
       </c>
       <c r="I91">
-        <v>0.93987670162137493</v>
+        <v>0.90856448501078546</v>
       </c>
       <c r="J91">
-        <v>0.1063546487527053</v>
+        <v>0.13697233048779639</v>
       </c>
       <c r="K91">
         <v>4992</v>
@@ -10651,10 +10651,10 @@
         <v>0.85395146919591625</v>
       </c>
       <c r="N91">
-        <v>0.97741951430218166</v>
+        <v>0.7870637803982039</v>
       </c>
       <c r="O91">
-        <v>6.5593669103781421E-2</v>
+        <v>0.24380930860994129</v>
       </c>
       <c r="P91">
         <v>0.89689689689689689</v>
@@ -10663,10 +10663,10 @@
         <v>0.62305658514269402</v>
       </c>
       <c r="R91">
-        <v>0.94200495997106082</v>
+        <v>0.89828151018189517</v>
       </c>
       <c r="S91">
-        <v>0.10445530580545399</v>
+        <v>0.14678117313251449</v>
       </c>
       <c r="T91">
         <v>4992</v>
@@ -10678,10 +10678,10 @@
         <v>0.85197507679596618</v>
       </c>
       <c r="W91">
-        <v>0.9768543449861129</v>
+        <v>0.81271188031535546</v>
       </c>
       <c r="X91">
-        <v>6.6409471322186123E-2</v>
+        <v>0.2214401149986181</v>
       </c>
       <c r="Y91">
         <v>0.9119119119119119</v>
@@ -10690,10 +10690,10 @@
         <v>0.64702039357332009</v>
       </c>
       <c r="AA91">
-        <v>0.9399831145388593</v>
+        <v>0.76305808190088242</v>
       </c>
       <c r="AB91">
-        <v>0.1062604879119764</v>
+        <v>0.2580999493870616</v>
       </c>
       <c r="AC91">
         <v>4992</v>
@@ -10705,10 +10705,10 @@
         <v>0.85552949910763343</v>
       </c>
       <c r="AF91">
-        <v>0.97723550568764761</v>
+        <v>0.81131338254739804</v>
       </c>
       <c r="AG91">
-        <v>6.5860388579720472E-2</v>
+        <v>0.22463185614619471</v>
       </c>
       <c r="AH91">
         <v>0.91291291291291288</v>
@@ -10717,10 +10717,10 @@
         <v>0.66486635014988138</v>
       </c>
       <c r="AJ91">
-        <v>0.94280305685219301</v>
+        <v>0.77571234304130932</v>
       </c>
       <c r="AK91">
-        <v>0.1037340867832785</v>
+        <v>0.24089422664936361</v>
       </c>
     </row>
   </sheetData>
